--- a/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
@@ -40,6 +40,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,156 +52,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="510">
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>Converted?</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t>KPI from POS 2016</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>To include in first calculation?</t>
-  </si>
-  <si>
-    <t>RD38010003</t>
-  </si>
-  <si>
-    <t>Convenience Big</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>2
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="511">
+  <si>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI from POS 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To include in first calculation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenience Big</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
 3
 4
 5
@@ -231,287 +232,287 @@
 30</t>
   </si>
   <si>
-    <t>Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Activation, Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.9л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.9л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 2L</t>
-  </si>
-  <si>
-    <t>Спрайт - 2л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л слим</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.9л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t>Schweppes Pomegranate - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Гранат - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.9L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.9л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.9л</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>32
+    <t xml:space="preserve">Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Pomegranate - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Гранат - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32
 33
 34
 35
 36</t>
   </si>
   <si>
-    <t>BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.33L PET</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.33л ПЭТ</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>38
+    <t xml:space="preserve">BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.33L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.33л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38
 39
 40
 41</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
-  </si>
-  <si>
-    <t>43
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43
 44
 45
 46
@@ -520,55 +521,55 @@
 49</t>
   </si>
   <si>
-    <t>Fuze Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1.5л</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>51
+    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51
 52
 53
 54
@@ -605,265 +606,265 @@
 85</t>
   </si>
   <si>
-    <t>Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Citrus - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pomegranate-Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Гранат-Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pear - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Груша - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie1 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 1 - 0.11л</t>
-  </si>
-  <si>
-    <t>Dobriy - Vegetable Mix - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Овощной микс - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie2 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 2 - 0.11л</t>
-  </si>
-  <si>
-    <t>Pulpy - Tropical - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Тропик - 0.45л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Citrus Mix - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Цитрус микс - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Mango-Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Манго-Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>STANDARD 20</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>SSD полка: Доля полки</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>MAN in CAT</t>
-  </si>
-  <si>
-    <t>Warm Shelf</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>SSD полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>88
+    <t xml:space="preserve">Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Citrus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Гранат-Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pear - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie1 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 1 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Vegetable Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Овощной микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie2 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 2 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Citrus Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Цитрус микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Mango-Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Манго-Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88
 89
 90
 91
@@ -872,596 +873,599 @@
 94</t>
   </si>
   <si>
-    <t>Shelf: SKU on Eye level</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L, Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t>5449000228970, 5449000054227</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L, Sprite - 1L</t>
-  </si>
-  <si>
-    <t>5449000228956, 5449000050939</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L, Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t>5449000228963, 5449000006271</t>
-  </si>
-  <si>
-    <t>STANDARD 23</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Сок полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Сок полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>97
+    <t xml:space="preserve">Shelf: SKU on Eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228970, 5449000054227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L, Sprite - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228956, 5449000050939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L, Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228963, 5449000006271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97
 98
 99
 100
 101</t>
   </si>
   <si>
-    <t>Juice Shelf: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 21</t>
-  </si>
-  <si>
-    <t>Water Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Вода полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Water Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Вода полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Water Shelf: BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>Вода полка: БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>STANDARD 24</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Доля полки</t>
-  </si>
-  <si>
-    <t>ice tea</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>107
+    <t xml:space="preserve">Juice Shelf: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107
 108</t>
   </si>
   <si>
-    <t>Ice Tea Shelf: Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 25</t>
-  </si>
-  <si>
-    <t>Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>STANDARD 19</t>
-  </si>
-  <si>
-    <t>SSD Display 1st</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t>SSD Displays</t>
-  </si>
-  <si>
-    <t>111
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111
 112
 113</t>
   </si>
   <si>
-    <t>SSD Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>number of scenes</t>
-  </si>
-  <si>
-    <t>SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Lead SKU</t>
-  </si>
-  <si>
-    <t>Coca-Cola 1.5L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 1st</t>
-  </si>
-  <si>
-    <t>115
+    <t xml:space="preserve">SSD Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 1.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115
 116
 117</t>
   </si>
   <si>
-    <t>SSD Display 1st: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й</t>
-  </si>
-  <si>
-    <t>119
+    <t xml:space="preserve">SSD Display 1st: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119
 120
 121</t>
   </si>
   <si>
-    <t>SSD Display 2d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t>Bakery</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Lead SKU Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola 0.9L/1L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 2d</t>
-  </si>
-  <si>
-    <t>123
+    <t xml:space="preserve">SSD Display 2d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Lead SKU Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 0.9L/1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123
 124</t>
   </si>
   <si>
-    <t>SSD Display 2d: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола Зеро - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L, Coca-Cola Zero - 1L</t>
-  </si>
-  <si>
-    <t>5449000231659, 5449000133328</t>
-  </si>
-  <si>
-    <t>Juice Display 1st</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>Juice Displays</t>
-  </si>
-  <si>
-    <t>126
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола Зеро - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L, Coca-Cola Zero - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000231659, 5449000133328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126
 127
 128</t>
   </si>
   <si>
-    <t>Juice Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>Produce</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>129
+    <t xml:space="preserve">Juice Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129
 130</t>
   </si>
   <si>
-    <t>Juice Display 1st: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed Juice Diaplsy 1st</t>
-  </si>
-  <si>
-    <t>132
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed Juice Diaplsy 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132
 133
 134
 135</t>
   </si>
   <si>
-    <t>Juice Display 1st: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Tea Display</t>
-  </si>
-  <si>
-    <t>Чай Дисплей</t>
-  </si>
-  <si>
-    <t>Tea Displays</t>
-  </si>
-  <si>
-    <t>137
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137
 138
 139</t>
   </si>
   <si>
-    <t>Tea Display: Facings</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Tea Display: Zone</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Confectionary/Biscuits section</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
-  </si>
-  <si>
-    <t>140
+    <t xml:space="preserve">Tea Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confectionary/Biscuits section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140
 141</t>
   </si>
   <si>
-    <t>Tea Display: Lead Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead SKU Fuze Lemon/Berry - 1L</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L share on Display</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
-  </si>
-  <si>
-    <t>143
+    <t xml:space="preserve">Tea Display: Lead Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead SKU Fuze Lemon/Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143
 144</t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of coolers with facings target and fullness target</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>NUM_SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
-  </si>
-  <si>
-    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>Cooler: Max 23</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 23 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t>148
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of coolers with facings target and fullness target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148
 149
 150
 151
@@ -1479,229 +1483,229 @@
 163</t>
   </si>
   <si>
-    <t>Cooler: BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Зеленый - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>5449000233615, 5449000189370</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Черный - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>5449000189301, 5449000189332, 5449000193124</t>
-  </si>
-  <si>
-    <t>Cooler: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler:  w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>Promo Displays</t>
-  </si>
-  <si>
-    <t>Промо дисплеи</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>Promo displays SAP</t>
-  </si>
-  <si>
-    <t>Promo Displays: Facings</t>
-  </si>
-  <si>
-    <t>Промо дисплеи: Фейсинги</t>
-  </si>
-  <si>
-    <t>check_number_of_scenes_with_facings_target</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>number of scenes with have at least target amount of facings</t>
-  </si>
-  <si>
-    <t>RGM Activations</t>
-  </si>
-  <si>
-    <t>RGM Активации</t>
-  </si>
-  <si>
-    <t>168
+    <t xml:space="preserve">Cooler: BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Зеленый - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000233615, 5449000189370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Черный - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler:  w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo displays SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes with have at least target amount of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168
 169
 170
 171</t>
   </si>
   <si>
-    <t>RGM Activations SAP</t>
-  </si>
-  <si>
-    <t>RGM Activations: SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: SSD с едой</t>
-  </si>
-  <si>
-    <t>SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Activations: Juice &amp; Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: Сок с едой</t>
-  </si>
-  <si>
-    <t>Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
-  </si>
-  <si>
-    <t>RGM Activations: On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Активации: На ходу</t>
-  </si>
-  <si>
-    <t>On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t>RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t>Screen time</t>
-  </si>
-  <si>
-    <t>Number of Doors</t>
-  </si>
-  <si>
-    <t>Facings Target</t>
-  </si>
-  <si>
-    <t>Facing Fact</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Share of TCCC product</t>
-  </si>
-  <si>
-    <t>Target per Door</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>KPI Score Formula</t>
-  </si>
-  <si>
-    <t>KPI weighted Score</t>
-  </si>
-  <si>
-    <t>Will be added on the 16th of December</t>
+    <t xml:space="preserve">RGM Activations SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SSD с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Juice &amp; Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: Сок с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: На ходу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: У Экрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facings Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facing Fact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of TCCC product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target per Door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Score Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1713,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -1951,7 +1955,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2216,7 +2220,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2379,28 +2391,28 @@
   </sheetPr>
   <dimension ref="A1:AP172"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="AC148" activeCellId="0" sqref="AC148:AF148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="36" min="18" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="11.6315789473684"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.4696356275304"/>
+    <col collapsed="false" hidden="false" max="36" min="18" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.83400809716599"/>
+    <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14752,7 +14764,7 @@
       </c>
       <c r="AO147" s="11"/>
     </row>
-    <row r="148" customFormat="false" ht="260.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="224.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="13" t="n">
         <v>147</v>
       </c>
@@ -14805,14 +14817,18 @@
       <c r="AB148" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AC148" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD148" s="25" t="n">
+      <c r="AC148" s="66" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD148" s="67" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AE148" s="66"/>
-      <c r="AF148" s="15"/>
+      <c r="AE148" s="68" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AF148" s="51" t="n">
+        <v>1</v>
+      </c>
       <c r="AG148" s="15" t="s">
         <v>414</v>
       </c>
@@ -14828,7 +14844,7 @@
         <v>147</v>
       </c>
       <c r="AM148" s="42" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN148" s="64" t="s">
         <v>429</v>
@@ -14852,10 +14868,10 @@
         <v>239</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H149" s="15" t="s">
         <v>52</v>
@@ -14939,10 +14955,10 @@
         <v>239</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H150" s="15" t="s">
         <v>52</v>
@@ -15026,10 +15042,10 @@
         <v>239</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H151" s="15" t="s">
         <v>52</v>
@@ -15113,10 +15129,10 @@
         <v>239</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H152" s="15" t="s">
         <v>52</v>
@@ -15200,10 +15216,10 @@
         <v>239</v>
       </c>
       <c r="F153" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H153" s="15" t="s">
         <v>52</v>
@@ -15287,10 +15303,10 @@
         <v>239</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H154" s="15" t="s">
         <v>52</v>
@@ -15374,10 +15390,10 @@
         <v>239</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H155" s="15" t="s">
         <v>52</v>
@@ -15461,10 +15477,10 @@
         <v>239</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H156" s="15" t="s">
         <v>52</v>
@@ -15548,10 +15564,10 @@
         <v>239</v>
       </c>
       <c r="F157" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H157" s="15" t="s">
         <v>52</v>
@@ -15635,10 +15651,10 @@
         <v>239</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H158" s="15" t="s">
         <v>52</v>
@@ -15722,10 +15738,10 @@
         <v>239</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H159" s="15" t="s">
         <v>52</v>
@@ -15736,10 +15752,10 @@
       <c r="J159" s="15"/>
       <c r="K159" s="15"/>
       <c r="L159" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M159" s="24" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N159" s="34"/>
       <c r="O159" s="34"/>
@@ -15809,10 +15825,10 @@
         <v>239</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H160" s="15" t="s">
         <v>52</v>
@@ -15823,10 +15839,10 @@
       <c r="J160" s="15"/>
       <c r="K160" s="15"/>
       <c r="L160" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M160" s="24" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N160" s="34"/>
       <c r="O160" s="34"/>
@@ -15896,10 +15912,10 @@
         <v>239</v>
       </c>
       <c r="F161" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H161" s="15" t="s">
         <v>52</v>
@@ -15983,10 +15999,10 @@
         <v>239</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H162" s="15" t="s">
         <v>52</v>
@@ -16070,10 +16086,10 @@
         <v>239</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H163" s="15" t="s">
         <v>52</v>
@@ -16157,10 +16173,10 @@
         <v>239</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H164" s="15" t="s">
         <v>52</v>
@@ -16244,13 +16260,13 @@
         <v>239</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H165" s="29" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
@@ -16323,14 +16339,14 @@
       <c r="D166" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E166" s="67" t="s">
+      <c r="E166" s="69" t="s">
         <v>239</v>
       </c>
       <c r="F166" s="15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H166" s="15" t="s">
         <v>410</v>
@@ -16353,7 +16369,7 @@
       <c r="T166" s="15"/>
       <c r="U166" s="15"/>
       <c r="V166" s="15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W166" s="15"/>
       <c r="X166" s="15"/>
@@ -16381,11 +16397,11 @@
       <c r="AL166" s="18" t="n">
         <v>165</v>
       </c>
-      <c r="AM166" s="68" t="s">
-        <v>477</v>
+      <c r="AM166" s="70" t="s">
+        <v>478</v>
       </c>
       <c r="AN166" s="64" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO166" s="11"/>
     </row>
@@ -16402,17 +16418,17 @@
       <c r="D167" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E167" s="67" t="s">
+      <c r="E167" s="69" t="s">
         <v>239</v>
       </c>
       <c r="F167" s="15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H167" s="62" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I167" s="62" t="n">
         <v>1</v>
@@ -16440,7 +16456,7 @@
       <c r="T167" s="15"/>
       <c r="U167" s="15"/>
       <c r="V167" s="15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W167" s="15"/>
       <c r="X167" s="15"/>
@@ -16451,7 +16467,7 @@
         <v>48</v>
       </c>
       <c r="AC167" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AD167" s="25" t="n">
         <v>1</v>
@@ -16459,8 +16475,8 @@
       <c r="AE167" s="15"/>
       <c r="AF167" s="15"/>
       <c r="AG167" s="15"/>
-      <c r="AH167" s="69" t="s">
-        <v>483</v>
+      <c r="AH167" s="71" t="s">
+        <v>484</v>
       </c>
       <c r="AI167" s="15"/>
       <c r="AJ167" s="15"/>
@@ -16471,8 +16487,8 @@
         <v>166</v>
       </c>
       <c r="AM167" s="11"/>
-      <c r="AN167" s="70" t="s">
-        <v>475</v>
+      <c r="AN167" s="72" t="s">
+        <v>476</v>
       </c>
       <c r="AO167" s="11"/>
     </row>
@@ -16493,10 +16509,10 @@
         <v>239</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H168" s="15" t="s">
         <v>242</v>
@@ -16546,10 +16562,10 @@
         <v>167</v>
       </c>
       <c r="AM168" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="AN168" s="71" t="s">
         <v>487</v>
+      </c>
+      <c r="AN168" s="73" t="s">
+        <v>488</v>
       </c>
       <c r="AO168" s="11"/>
     </row>
@@ -16570,10 +16586,10 @@
         <v>239</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H169" s="11" t="s">
         <v>319</v>
@@ -16598,8 +16614,8 @@
       <c r="T169" s="15"/>
       <c r="U169" s="15"/>
       <c r="V169" s="15"/>
-      <c r="W169" s="72" t="s">
-        <v>490</v>
+      <c r="W169" s="74" t="s">
+        <v>491</v>
       </c>
       <c r="X169" s="15"/>
       <c r="Y169" s="16"/>
@@ -16628,7 +16644,7 @@
       </c>
       <c r="AM169" s="15"/>
       <c r="AN169" s="15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO169" s="11"/>
     </row>
@@ -16649,10 +16665,10 @@
         <v>239</v>
       </c>
       <c r="F170" s="15" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H170" s="11" t="s">
         <v>319</v>
@@ -16678,7 +16694,7 @@
       <c r="U170" s="15"/>
       <c r="V170" s="15"/>
       <c r="W170" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="X170" s="15"/>
       <c r="Y170" s="16"/>
@@ -16707,7 +16723,7 @@
       </c>
       <c r="AM170" s="15"/>
       <c r="AN170" s="15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO170" s="11"/>
     </row>
@@ -16728,10 +16744,10 @@
         <v>239</v>
       </c>
       <c r="F171" s="15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H171" s="11" t="s">
         <v>319</v>
@@ -16757,7 +16773,7 @@
       <c r="U171" s="15"/>
       <c r="V171" s="15"/>
       <c r="W171" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="X171" s="15"/>
       <c r="Y171" s="16"/>
@@ -16786,7 +16802,7 @@
       </c>
       <c r="AM171" s="15"/>
       <c r="AN171" s="15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO171" s="11"/>
     </row>
@@ -16807,10 +16823,10 @@
         <v>239</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H172" s="11" t="s">
         <v>319</v>
@@ -16836,7 +16852,7 @@
       <c r="U172" s="15"/>
       <c r="V172" s="15"/>
       <c r="W172" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="X172" s="15"/>
       <c r="Y172" s="16"/>
@@ -16865,7 +16881,7 @@
       </c>
       <c r="AM172" s="15"/>
       <c r="AN172" s="15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO172" s="11"/>
     </row>
@@ -16895,21 +16911,21 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC148:AF148 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="73" t="s">
-        <v>490</v>
+      <c r="A1" s="75" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="76" t="s">
         <v>428</v>
       </c>
     </row>
@@ -16932,45 +16948,45 @@
   <dimension ref="B1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC148:AF148 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="77" t="s">
         <v>414</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>473</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>472</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>500</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="75"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -16978,19 +16994,19 @@
         <f aca="false">C2*$C$6</f>
         <v>19.6</v>
       </c>
-      <c r="E2" s="76" t="n">
+      <c r="E2" s="78" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="77" t="n">
+      <c r="J2" s="79" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="75"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -16998,19 +17014,19 @@
         <f aca="false">C3*$C$6</f>
         <v>28</v>
       </c>
-      <c r="E3" s="78" t="n">
+      <c r="E3" s="80" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="75"/>
+      <c r="H3" s="77"/>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="79" t="n">
+      <c r="J3" s="81" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="75"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -17018,28 +17034,28 @@
         <f aca="false">C4*$C$6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="78" t="n">
+      <c r="E4" s="80" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="80" t="n">
+      <c r="F4" s="82" t="n">
         <f aca="false">C2/SUM(C2:C4)</f>
         <v>0.189189189189189</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="77" t="n">
+      <c r="J4" s="79" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="81" t="n">
+      <c r="K4" s="83" t="n">
         <f aca="false">SUM(I2,I4)/SUM(I2:I4)</f>
         <v>0.72972972972973</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>28</v>
@@ -17064,58 +17080,58 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC148:AF148 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="83" t="s">
-        <v>506</v>
-      </c>
-      <c r="H1" s="83" t="s">
+      <c r="G1" s="85" t="s">
         <v>507</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="H1" s="85" t="s">
+        <v>508</v>
+      </c>
+      <c r="I1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="83" t="s">
-        <v>508</v>
-      </c>
-      <c r="L1" s="83" t="s">
+      <c r="K1" s="85" t="s">
+        <v>509</v>
+      </c>
+      <c r="L1" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="85" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="84" t="s">
-        <v>509</v>
+      <c r="B4" s="86" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
@@ -41,6 +41,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -370,10 +371,10 @@
     <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
+    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
@@ -406,10 +407,10 @@
     <t xml:space="preserve">Швеппс Гранат - 1.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.9л</t>
+    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.9л</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.9L</t>
@@ -1719,7 +1720,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1741,6 +1742,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1784,18 +1792,39 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B3838"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B3838"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1827,7 +1856,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1838,6 +1867,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -1895,7 +1930,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1908,6 +1943,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1925,7 +1975,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1951,11 +2001,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1968,48 +2025,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2017,18 +2062,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2036,15 +2093,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2052,59 +2109,87 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="1" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2112,39 +2197,39 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2152,35 +2237,35 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2188,11 +2273,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2200,7 +2285,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2208,79 +2293,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2292,27 +2373,29 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Input" xfId="22" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf/>
@@ -2373,8 +2456,8 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF3F3F76"/>
+      <rgbColor rgb="FF3B3838"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2391,28 +2474,28 @@
   </sheetPr>
   <dimension ref="A1:AP172"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="AC148" activeCellId="0" sqref="AC148:AF148"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AC32" activeCellId="0" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.4696356275304"/>
-    <col collapsed="false" hidden="false" max="36" min="18" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.83400809716599"/>
-    <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9514170040486"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.1619433198381"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="36" min="18" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.95546558704453"/>
+    <col collapsed="false" hidden="false" max="41" min="38" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="22.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,7 +4392,7 @@
       </c>
       <c r="AO22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="67.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="43.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="n">
         <v>22</v>
       </c>
@@ -4325,25 +4408,25 @@
       <c r="E23" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="15" t="n">
+      <c r="I23" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="27" t="s">
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="23" t="n">
-        <v>4607042431029</v>
+      <c r="M23" s="32" t="n">
+        <v>5449000214744</v>
       </c>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
@@ -4819,7 +4902,7 @@
       </c>
       <c r="AO28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="67.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="43.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="n">
         <v>28</v>
       </c>
@@ -4835,25 +4918,25 @@
       <c r="E29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="15" t="n">
+      <c r="I29" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="28" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="M29" s="23" t="n">
-        <v>4607042430909</v>
+      <c r="M29" s="32" t="n">
+        <v>5449000251626</v>
       </c>
       <c r="N29" s="24"/>
       <c r="O29" s="24"/>
@@ -4934,7 +5017,7 @@
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="36" t="s">
         <v>110</v>
       </c>
       <c r="M30" s="23" t="n">
@@ -5093,44 +5176,44 @@
       <c r="F32" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
       <c r="Y32" s="16"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="30" t="s">
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AC32" s="30" t="s">
+      <c r="AC32" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="31"/>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="38"/>
       <c r="AK32" s="16" t="n">
         <v>2</v>
       </c>
@@ -5141,7 +5224,7 @@
         <v>117</v>
       </c>
       <c r="AN32" s="17"/>
-      <c r="AO32" s="33"/>
+      <c r="AO32" s="40"/>
     </row>
     <row r="33" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="n">
@@ -5349,8 +5432,8 @@
       <c r="M35" s="23" t="n">
         <v>5449000152190</v>
       </c>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
       <c r="P35" s="15" t="s">
         <v>53</v>
       </c>
@@ -5587,44 +5670,44 @@
       <c r="F38" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
       <c r="Y38" s="16"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="30" t="s">
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AC38" s="30" t="s">
+      <c r="AC38" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
       <c r="AK38" s="16" t="n">
         <v>2</v>
       </c>
@@ -5635,7 +5718,7 @@
         <v>130</v>
       </c>
       <c r="AN38" s="17"/>
-      <c r="AO38" s="33"/>
+      <c r="AO38" s="40"/>
     </row>
     <row r="39" customFormat="false" ht="54.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="n">
@@ -5996,44 +6079,44 @@
       <c r="F43" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="30" t="s">
+      <c r="G43" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="H43" s="30" t="s">
+      <c r="H43" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
       <c r="Y43" s="16"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="30" t="s">
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AC43" s="30" t="s">
+      <c r="AC43" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
+      <c r="AI43" s="38"/>
+      <c r="AJ43" s="38"/>
       <c r="AK43" s="16" t="n">
         <v>2</v>
       </c>
@@ -6044,7 +6127,7 @@
         <v>141</v>
       </c>
       <c r="AN43" s="17"/>
-      <c r="AO43" s="33"/>
+      <c r="AO43" s="40"/>
     </row>
     <row r="44" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="n">
@@ -6252,8 +6335,8 @@
       <c r="M46" s="23" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
       <c r="P46" s="15" t="s">
         <v>53</v>
       </c>
@@ -6660,44 +6743,44 @@
       <c r="F51" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="G51" s="30" t="s">
+      <c r="G51" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="H51" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
-      <c r="X51" s="31"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
       <c r="Y51" s="16"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="30" t="s">
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AC51" s="30" t="s">
+      <c r="AC51" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="31"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
+      <c r="AD51" s="38"/>
+      <c r="AE51" s="38"/>
+      <c r="AF51" s="38"/>
+      <c r="AG51" s="38"/>
+      <c r="AH51" s="38"/>
+      <c r="AI51" s="38"/>
+      <c r="AJ51" s="38"/>
       <c r="AK51" s="16" t="n">
         <v>2</v>
       </c>
@@ -6708,7 +6791,7 @@
         <v>158</v>
       </c>
       <c r="AN51" s="17"/>
-      <c r="AO51" s="33"/>
+      <c r="AO51" s="40"/>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="n">
@@ -6740,10 +6823,10 @@
       </c>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
-      <c r="L52" s="29" t="s">
+      <c r="L52" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="M52" s="36" t="n">
+      <c r="M52" s="43" t="n">
         <v>4607042434877</v>
       </c>
       <c r="N52" s="24"/>
@@ -6825,7 +6908,7 @@
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
-      <c r="L53" s="29" t="s">
+      <c r="L53" s="36" t="s">
         <v>161</v>
       </c>
       <c r="M53" s="23" t="n">
@@ -6910,14 +6993,14 @@
       </c>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
-      <c r="L54" s="29" t="s">
+      <c r="L54" s="36" t="s">
         <v>163</v>
       </c>
       <c r="M54" s="23" t="n">
         <v>4607042438738</v>
       </c>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
       <c r="P54" s="15" t="s">
         <v>53</v>
       </c>
@@ -6995,14 +7078,14 @@
       </c>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
-      <c r="L55" s="29" t="s">
+      <c r="L55" s="36" t="s">
         <v>165</v>
       </c>
       <c r="M55" s="23" t="n">
         <v>4607042438950</v>
       </c>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
       <c r="P55" s="15" t="s">
         <v>53</v>
       </c>
@@ -7080,7 +7163,7 @@
       </c>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
-      <c r="L56" s="29" t="s">
+      <c r="L56" s="36" t="s">
         <v>167</v>
       </c>
       <c r="M56" s="23" t="n">
@@ -7165,14 +7248,14 @@
       </c>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
-      <c r="L57" s="29" t="s">
+      <c r="L57" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="M57" s="36" t="n">
+      <c r="M57" s="43" t="n">
         <v>4607042431388</v>
       </c>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
       <c r="P57" s="15" t="s">
         <v>53</v>
       </c>
@@ -7250,7 +7333,7 @@
       </c>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
-      <c r="L58" s="29" t="s">
+      <c r="L58" s="36" t="s">
         <v>171</v>
       </c>
       <c r="M58" s="23" t="n">
@@ -7335,10 +7418,10 @@
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
-      <c r="L59" s="29" t="s">
+      <c r="L59" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="M59" s="36" t="n">
+      <c r="M59" s="43" t="n">
         <v>4607042438776</v>
       </c>
       <c r="N59" s="24"/>
@@ -7420,7 +7503,7 @@
       </c>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
-      <c r="L60" s="29" t="s">
+      <c r="L60" s="36" t="s">
         <v>175</v>
       </c>
       <c r="M60" s="23" t="n">
@@ -7505,14 +7588,14 @@
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
-      <c r="L61" s="29" t="s">
+      <c r="L61" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="M61" s="36" t="n">
+      <c r="M61" s="43" t="n">
         <v>4607042430619</v>
       </c>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
       <c r="P61" s="15" t="s">
         <v>53</v>
       </c>
@@ -7590,14 +7673,14 @@
       </c>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
-      <c r="L62" s="29" t="s">
+      <c r="L62" s="36" t="s">
         <v>179</v>
       </c>
       <c r="M62" s="23" t="n">
         <v>4607042430565</v>
       </c>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
       <c r="P62" s="15" t="s">
         <v>53</v>
       </c>
@@ -7675,7 +7758,7 @@
       </c>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
-      <c r="L63" s="29" t="s">
+      <c r="L63" s="36" t="s">
         <v>181</v>
       </c>
       <c r="M63" s="23" t="n">
@@ -7760,14 +7843,14 @@
       </c>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
-      <c r="L64" s="29" t="s">
+      <c r="L64" s="36" t="s">
         <v>183</v>
       </c>
       <c r="M64" s="23" t="n">
         <v>4607174579286</v>
       </c>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
       <c r="P64" s="15" t="s">
         <v>53</v>
       </c>
@@ -7845,14 +7928,14 @@
       </c>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
-      <c r="L65" s="29" t="s">
+      <c r="L65" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="M65" s="36" t="n">
+      <c r="M65" s="43" t="n">
         <v>4607174577794</v>
       </c>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
       <c r="P65" s="15" t="s">
         <v>53</v>
       </c>
@@ -7930,10 +8013,10 @@
       </c>
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
-      <c r="L66" s="29" t="s">
+      <c r="L66" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="M66" s="36" t="n">
+      <c r="M66" s="43" t="n">
         <v>4607042439155</v>
       </c>
       <c r="N66" s="24"/>
@@ -8015,7 +8098,7 @@
       </c>
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
-      <c r="L67" s="29" t="s">
+      <c r="L67" s="36" t="s">
         <v>189</v>
       </c>
       <c r="M67" s="23" t="n">
@@ -8100,10 +8183,10 @@
       </c>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
-      <c r="L68" s="29" t="s">
+      <c r="L68" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="M68" s="36" t="n">
+      <c r="M68" s="43" t="n">
         <v>4607042439223</v>
       </c>
       <c r="N68" s="24"/>
@@ -8185,7 +8268,7 @@
       </c>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
-      <c r="L69" s="29" t="s">
+      <c r="L69" s="36" t="s">
         <v>193</v>
       </c>
       <c r="M69" s="23" t="n">
@@ -8270,14 +8353,14 @@
       </c>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
-      <c r="L70" s="29" t="s">
+      <c r="L70" s="36" t="s">
         <v>195</v>
       </c>
       <c r="M70" s="23" t="n">
         <v>4607174578029</v>
       </c>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
       <c r="P70" s="15" t="s">
         <v>53</v>
       </c>
@@ -8355,14 +8438,14 @@
       </c>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
-      <c r="L71" s="29" t="s">
+      <c r="L71" s="36" t="s">
         <v>197</v>
       </c>
       <c r="M71" s="23" t="n">
         <v>4607174578548</v>
       </c>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
       <c r="P71" s="15" t="s">
         <v>53</v>
       </c>
@@ -8440,14 +8523,14 @@
       </c>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
-      <c r="L72" s="29" t="s">
+      <c r="L72" s="36" t="s">
         <v>199</v>
       </c>
       <c r="M72" s="23" t="n">
         <v>4607174577145</v>
       </c>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
       <c r="P72" s="15" t="s">
         <v>53</v>
       </c>
@@ -8525,7 +8608,7 @@
       </c>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
-      <c r="L73" s="29" t="s">
+      <c r="L73" s="36" t="s">
         <v>201</v>
       </c>
       <c r="M73" s="23" t="n">
@@ -8610,10 +8693,10 @@
       </c>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
-      <c r="L74" s="29" t="s">
+      <c r="L74" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="M74" s="36" t="n">
+      <c r="M74" s="43" t="n">
         <v>4607042431371</v>
       </c>
       <c r="N74" s="14"/>
@@ -8695,7 +8778,7 @@
       </c>
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
-      <c r="L75" s="29" t="s">
+      <c r="L75" s="36" t="s">
         <v>205</v>
       </c>
       <c r="M75" s="23" t="n">
@@ -8780,7 +8863,7 @@
       </c>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
-      <c r="L76" s="29" t="s">
+      <c r="L76" s="36" t="s">
         <v>207</v>
       </c>
       <c r="M76" s="23" t="n">
@@ -8865,7 +8948,7 @@
       </c>
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
-      <c r="L77" s="29" t="s">
+      <c r="L77" s="36" t="s">
         <v>209</v>
       </c>
       <c r="M77" s="23" t="n">
@@ -8956,8 +9039,8 @@
       <c r="M78" s="23" t="n">
         <v>4650075420980</v>
       </c>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
       <c r="P78" s="15" t="s">
         <v>53</v>
       </c>
@@ -9035,7 +9118,7 @@
       </c>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
-      <c r="L79" s="38" t="s">
+      <c r="L79" s="45" t="s">
         <v>213</v>
       </c>
       <c r="M79" s="23" t="n">
@@ -9205,7 +9288,7 @@
       </c>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
-      <c r="L81" s="38" t="s">
+      <c r="L81" s="45" t="s">
         <v>217</v>
       </c>
       <c r="M81" s="23" t="n">
@@ -9290,14 +9373,14 @@
       </c>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
-      <c r="L82" s="29" t="s">
+      <c r="L82" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="M82" s="36" t="n">
+      <c r="M82" s="43" t="n">
         <v>4607174579729</v>
       </c>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
       <c r="P82" s="15" t="s">
         <v>53</v>
       </c>
@@ -9340,7 +9423,7 @@
         <v>81</v>
       </c>
       <c r="AM82" s="16"/>
-      <c r="AN82" s="39" t="s">
+      <c r="AN82" s="46" t="s">
         <v>156</v>
       </c>
       <c r="AO82" s="12"/>
@@ -9375,14 +9458,14 @@
       </c>
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
-      <c r="L83" s="29" t="s">
+      <c r="L83" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="M83" s="36" t="n">
+      <c r="M83" s="43" t="n">
         <v>4607174579477</v>
       </c>
-      <c r="N83" s="37"/>
-      <c r="O83" s="37"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="44"/>
       <c r="P83" s="15" t="s">
         <v>53</v>
       </c>
@@ -9425,7 +9508,7 @@
         <v>82</v>
       </c>
       <c r="AM83" s="16"/>
-      <c r="AN83" s="39" t="s">
+      <c r="AN83" s="46" t="s">
         <v>156</v>
       </c>
       <c r="AO83" s="12"/>
@@ -9460,14 +9543,14 @@
       </c>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
-      <c r="L84" s="29" t="s">
+      <c r="L84" s="36" t="s">
         <v>223</v>
       </c>
       <c r="M84" s="23" t="n">
         <v>4607174579668</v>
       </c>
-      <c r="N84" s="37"/>
-      <c r="O84" s="37"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="44"/>
       <c r="P84" s="15" t="s">
         <v>53</v>
       </c>
@@ -9510,7 +9593,7 @@
         <v>83</v>
       </c>
       <c r="AM84" s="16"/>
-      <c r="AN84" s="39" t="s">
+      <c r="AN84" s="46" t="s">
         <v>156</v>
       </c>
       <c r="AO84" s="12"/>
@@ -9545,14 +9628,14 @@
       </c>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
-      <c r="L85" s="38" t="s">
+      <c r="L85" s="45" t="s">
         <v>225</v>
       </c>
       <c r="M85" s="23" t="n">
         <v>4607042438967</v>
       </c>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="44"/>
       <c r="P85" s="15" t="s">
         <v>53</v>
       </c>
@@ -9595,7 +9678,7 @@
         <v>84</v>
       </c>
       <c r="AM85" s="16"/>
-      <c r="AN85" s="39" t="s">
+      <c r="AN85" s="46" t="s">
         <v>156</v>
       </c>
       <c r="AO85" s="12"/>
@@ -9630,14 +9713,14 @@
       </c>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
-      <c r="L86" s="38" t="s">
+      <c r="L86" s="45" t="s">
         <v>227</v>
       </c>
       <c r="M86" s="23" t="n">
         <v>4607174579248</v>
       </c>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="44"/>
       <c r="P86" s="15" t="s">
         <v>53</v>
       </c>
@@ -9680,7 +9763,7 @@
         <v>85</v>
       </c>
       <c r="AM86" s="16"/>
-      <c r="AN86" s="39" t="s">
+      <c r="AN86" s="46" t="s">
         <v>156</v>
       </c>
       <c r="AO86" s="12"/>
@@ -9718,15 +9801,15 @@
       <c r="L87" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M87" s="34" t="s">
+      <c r="M87" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="N87" s="34" t="s">
+      <c r="N87" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="O87" s="34"/>
+      <c r="O87" s="41"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="40" t="s">
+      <c r="Q87" s="47" t="s">
         <v>235</v>
       </c>
       <c r="R87" s="11"/>
@@ -9763,7 +9846,7 @@
         <v>86</v>
       </c>
       <c r="AM87" s="11"/>
-      <c r="AN87" s="41"/>
+      <c r="AN87" s="48"/>
       <c r="AO87" s="11"/>
     </row>
     <row r="88" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9797,9 +9880,9 @@
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="41"/>
       <c r="P88" s="15" t="s">
         <v>243</v>
       </c>
@@ -9839,10 +9922,10 @@
       <c r="AL88" s="18" t="n">
         <v>87</v>
       </c>
-      <c r="AM88" s="42" t="s">
+      <c r="AM88" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="AN88" s="43" t="s">
+      <c r="AN88" s="50" t="s">
         <v>246</v>
       </c>
       <c r="AO88" s="11"/>
@@ -9877,7 +9960,7 @@
       </c>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
-      <c r="L89" s="29" t="s">
+      <c r="L89" s="36" t="s">
         <v>62</v>
       </c>
       <c r="M89" s="24" t="n">
@@ -9885,10 +9968,10 @@
       </c>
       <c r="N89" s="24"/>
       <c r="O89" s="24"/>
-      <c r="P89" s="29" t="s">
+      <c r="P89" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Q89" s="29" t="s">
+      <c r="Q89" s="36" t="s">
         <v>54</v>
       </c>
       <c r="R89" s="11"/>
@@ -9962,7 +10045,7 @@
       </c>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
-      <c r="L90" s="29" t="s">
+      <c r="L90" s="36" t="s">
         <v>84</v>
       </c>
       <c r="M90" s="24" t="n">
@@ -9970,10 +10053,10 @@
       </c>
       <c r="N90" s="24"/>
       <c r="O90" s="24"/>
-      <c r="P90" s="29" t="s">
+      <c r="P90" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Q90" s="29" t="s">
+      <c r="Q90" s="36" t="s">
         <v>54</v>
       </c>
       <c r="R90" s="11"/>
@@ -10055,10 +10138,10 @@
       </c>
       <c r="N91" s="24"/>
       <c r="O91" s="24"/>
-      <c r="P91" s="29" t="s">
+      <c r="P91" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Q91" s="29" t="s">
+      <c r="Q91" s="36" t="s">
         <v>54</v>
       </c>
       <c r="R91" s="11"/>
@@ -10135,15 +10218,15 @@
       <c r="L92" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M92" s="35" t="n">
+      <c r="M92" s="42" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35"/>
-      <c r="P92" s="29" t="s">
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Q92" s="29" t="s">
+      <c r="Q92" s="36" t="s">
         <v>54</v>
       </c>
       <c r="R92" s="11"/>
@@ -10225,10 +10308,10 @@
       </c>
       <c r="N93" s="24"/>
       <c r="O93" s="24"/>
-      <c r="P93" s="29" t="s">
+      <c r="P93" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Q93" s="29" t="s">
+      <c r="Q93" s="36" t="s">
         <v>54</v>
       </c>
       <c r="R93" s="11"/>
@@ -10310,10 +10393,10 @@
       </c>
       <c r="N94" s="24"/>
       <c r="O94" s="24"/>
-      <c r="P94" s="29" t="s">
+      <c r="P94" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Q94" s="29" t="s">
+      <c r="Q94" s="36" t="s">
         <v>54</v>
       </c>
       <c r="R94" s="11"/>
@@ -10395,10 +10478,10 @@
       </c>
       <c r="N95" s="24"/>
       <c r="O95" s="24"/>
-      <c r="P95" s="29" t="s">
+      <c r="P95" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Q95" s="29" t="s">
+      <c r="Q95" s="36" t="s">
         <v>54</v>
       </c>
       <c r="R95" s="11"/>
@@ -10475,15 +10558,15 @@
       <c r="L96" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M96" s="34" t="s">
+      <c r="M96" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="N96" s="34" t="s">
+      <c r="N96" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="O96" s="34"/>
+      <c r="O96" s="41"/>
       <c r="P96" s="11"/>
-      <c r="Q96" s="40" t="s">
+      <c r="Q96" s="47" t="s">
         <v>235</v>
       </c>
       <c r="R96" s="11"/>
@@ -10520,7 +10603,7 @@
         <v>95</v>
       </c>
       <c r="AM96" s="11"/>
-      <c r="AN96" s="41"/>
+      <c r="AN96" s="48"/>
       <c r="AO96" s="11"/>
     </row>
     <row r="97" customFormat="false" ht="81.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10554,9 +10637,9 @@
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
       <c r="L97" s="15"/>
-      <c r="M97" s="34"/>
-      <c r="N97" s="34"/>
-      <c r="O97" s="34"/>
+      <c r="M97" s="41"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="41"/>
       <c r="P97" s="15" t="s">
         <v>243</v>
       </c>
@@ -10596,10 +10679,10 @@
       <c r="AL97" s="13" t="n">
         <v>96</v>
       </c>
-      <c r="AM97" s="42" t="s">
+      <c r="AM97" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="AN97" s="43" t="s">
+      <c r="AN97" s="50" t="s">
         <v>246</v>
       </c>
       <c r="AO97" s="11"/>
@@ -10634,18 +10717,18 @@
       </c>
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
-      <c r="L98" s="29" t="s">
+      <c r="L98" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="M98" s="44" t="n">
+      <c r="M98" s="51" t="n">
         <v>4607042434877</v>
       </c>
       <c r="N98" s="24"/>
       <c r="O98" s="24"/>
-      <c r="P98" s="45" t="s">
+      <c r="P98" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="Q98" s="45" t="s">
+      <c r="Q98" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R98" s="11"/>
@@ -10719,7 +10802,7 @@
       </c>
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
-      <c r="L99" s="29" t="s">
+      <c r="L99" s="36" t="s">
         <v>161</v>
       </c>
       <c r="M99" s="24" t="n">
@@ -10727,10 +10810,10 @@
       </c>
       <c r="N99" s="24"/>
       <c r="O99" s="24"/>
-      <c r="P99" s="45" t="s">
+      <c r="P99" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="Q99" s="45" t="s">
+      <c r="Q99" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R99" s="11"/>
@@ -10804,7 +10887,7 @@
       </c>
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
-      <c r="L100" s="29" t="s">
+      <c r="L100" s="36" t="s">
         <v>163</v>
       </c>
       <c r="M100" s="24" t="n">
@@ -10812,10 +10895,10 @@
       </c>
       <c r="N100" s="24"/>
       <c r="O100" s="24"/>
-      <c r="P100" s="45" t="s">
+      <c r="P100" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="Q100" s="45" t="s">
+      <c r="Q100" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R100" s="11"/>
@@ -10889,18 +10972,18 @@
       </c>
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
-      <c r="L101" s="29" t="s">
+      <c r="L101" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="M101" s="46" t="n">
+      <c r="M101" s="53" t="n">
         <v>4607174578449</v>
       </c>
-      <c r="N101" s="46"/>
-      <c r="O101" s="46"/>
-      <c r="P101" s="45" t="s">
+      <c r="N101" s="53"/>
+      <c r="O101" s="53"/>
+      <c r="P101" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="Q101" s="45" t="s">
+      <c r="Q101" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R101" s="11"/>
@@ -10974,18 +11057,18 @@
       </c>
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
-      <c r="L102" s="29" t="s">
+      <c r="L102" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="M102" s="46" t="n">
+      <c r="M102" s="53" t="n">
         <v>4607174578029</v>
       </c>
-      <c r="N102" s="46"/>
-      <c r="O102" s="46"/>
-      <c r="P102" s="45" t="s">
+      <c r="N102" s="53"/>
+      <c r="O102" s="53"/>
+      <c r="P102" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="Q102" s="45" t="s">
+      <c r="Q102" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R102" s="11"/>
@@ -11062,15 +11145,15 @@
       <c r="L103" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M103" s="34" t="s">
+      <c r="M103" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="N103" s="34" t="s">
+      <c r="N103" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="O103" s="34"/>
+      <c r="O103" s="41"/>
       <c r="P103" s="11"/>
-      <c r="Q103" s="40" t="s">
+      <c r="Q103" s="47" t="s">
         <v>235</v>
       </c>
       <c r="R103" s="11"/>
@@ -11107,7 +11190,7 @@
         <v>102</v>
       </c>
       <c r="AM103" s="11"/>
-      <c r="AN103" s="41"/>
+      <c r="AN103" s="48"/>
       <c r="AO103" s="11"/>
     </row>
     <row r="104" customFormat="false" ht="54.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11141,10 +11224,10 @@
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
-      <c r="M104" s="34"/>
-      <c r="N104" s="34"/>
-      <c r="O104" s="34"/>
-      <c r="P104" s="29" t="s">
+      <c r="M104" s="41"/>
+      <c r="N104" s="41"/>
+      <c r="O104" s="41"/>
+      <c r="P104" s="36" t="s">
         <v>243</v>
       </c>
       <c r="Q104" s="11"/>
@@ -11183,10 +11266,10 @@
       <c r="AL104" s="18" t="n">
         <v>103</v>
       </c>
-      <c r="AM104" s="47" t="s">
+      <c r="AM104" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="AN104" s="43" t="s">
+      <c r="AN104" s="50" t="s">
         <v>246</v>
       </c>
       <c r="AO104" s="11"/>
@@ -11221,7 +11304,7 @@
       </c>
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
-      <c r="L105" s="29" t="s">
+      <c r="L105" s="36" t="s">
         <v>293</v>
       </c>
       <c r="M105" s="24" t="n">
@@ -11229,10 +11312,10 @@
       </c>
       <c r="N105" s="24"/>
       <c r="O105" s="24"/>
-      <c r="P105" s="29" t="s">
+      <c r="P105" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Q105" s="45" t="s">
+      <c r="Q105" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R105" s="11"/>
@@ -11309,15 +11392,15 @@
       <c r="L106" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M106" s="35" t="s">
+      <c r="M106" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="N106" s="35" t="s">
+      <c r="N106" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="O106" s="35"/>
-      <c r="P106" s="45"/>
-      <c r="Q106" s="40" t="s">
+      <c r="O106" s="42"/>
+      <c r="P106" s="52"/>
+      <c r="Q106" s="47" t="s">
         <v>235</v>
       </c>
       <c r="R106" s="11"/>
@@ -11354,7 +11437,7 @@
         <v>105</v>
       </c>
       <c r="AM106" s="11"/>
-      <c r="AN106" s="41"/>
+      <c r="AN106" s="48"/>
       <c r="AO106" s="11"/>
     </row>
     <row r="107" customFormat="false" ht="67.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11388,10 +11471,10 @@
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
       <c r="L107" s="15"/>
-      <c r="M107" s="35"/>
-      <c r="N107" s="35"/>
-      <c r="O107" s="35"/>
-      <c r="P107" s="29" t="s">
+      <c r="M107" s="42"/>
+      <c r="N107" s="42"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="36" t="s">
         <v>243</v>
       </c>
       <c r="Q107" s="11"/>
@@ -11430,10 +11513,10 @@
       <c r="AL107" s="13" t="n">
         <v>106</v>
       </c>
-      <c r="AM107" s="42" t="s">
+      <c r="AM107" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="AN107" s="43" t="s">
+      <c r="AN107" s="50" t="s">
         <v>246</v>
       </c>
       <c r="AO107" s="11"/>
@@ -11471,15 +11554,15 @@
       <c r="L108" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="M108" s="37" t="n">
+      <c r="M108" s="44" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="N108" s="37"/>
-      <c r="O108" s="37"/>
-      <c r="P108" s="29" t="s">
+      <c r="N108" s="44"/>
+      <c r="O108" s="44"/>
+      <c r="P108" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Q108" s="45" t="s">
+      <c r="Q108" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R108" s="11"/>
@@ -11556,15 +11639,15 @@
       <c r="L109" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="M109" s="37" t="n">
+      <c r="M109" s="44" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="N109" s="37"/>
-      <c r="O109" s="37"/>
-      <c r="P109" s="29" t="s">
+      <c r="N109" s="44"/>
+      <c r="O109" s="44"/>
+      <c r="P109" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Q109" s="45" t="s">
+      <c r="Q109" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R109" s="11"/>
@@ -11641,15 +11724,15 @@
       <c r="L110" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M110" s="35" t="s">
+      <c r="M110" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="N110" s="35" t="s">
+      <c r="N110" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="O110" s="35"/>
+      <c r="O110" s="42"/>
       <c r="P110" s="11"/>
-      <c r="Q110" s="40" t="s">
+      <c r="Q110" s="47" t="s">
         <v>235</v>
       </c>
       <c r="R110" s="11"/>
@@ -11711,7 +11794,7 @@
       <c r="G111" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="H111" s="48" t="s">
+      <c r="H111" s="55" t="s">
         <v>312</v>
       </c>
       <c r="I111" s="15" t="n">
@@ -11720,16 +11803,16 @@
       <c r="J111" s="15"/>
       <c r="K111" s="15"/>
       <c r="L111" s="15"/>
-      <c r="M111" s="34"/>
-      <c r="N111" s="34"/>
-      <c r="O111" s="34"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
       <c r="P111" s="11" t="s">
         <v>243</v>
       </c>
       <c r="Q111" s="11"/>
       <c r="R111" s="11"/>
       <c r="S111" s="11"/>
-      <c r="T111" s="30"/>
+      <c r="T111" s="37"/>
       <c r="U111" s="11"/>
       <c r="V111" s="11" t="s">
         <v>313</v>
@@ -11762,7 +11845,7 @@
       <c r="AL111" s="13" t="n">
         <v>110</v>
       </c>
-      <c r="AM111" s="42" t="s">
+      <c r="AM111" s="49" t="s">
         <v>314</v>
       </c>
       <c r="AN111" s="11"/>
@@ -11801,13 +11884,13 @@
       <c r="L112" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M112" s="34" t="s">
+      <c r="M112" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="N112" s="34" t="s">
+      <c r="N112" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="O112" s="34"/>
+      <c r="O112" s="41"/>
       <c r="P112" s="11" t="s">
         <v>53</v>
       </c>
@@ -11816,7 +11899,7 @@
       </c>
       <c r="R112" s="11"/>
       <c r="S112" s="11"/>
-      <c r="T112" s="30"/>
+      <c r="T112" s="37"/>
       <c r="U112" s="11"/>
       <c r="V112" s="11" t="s">
         <v>313</v>
@@ -11862,81 +11945,81 @@
       <c r="B113" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C113" s="49" t="s">
+      <c r="C113" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D113" s="50" t="s">
+      <c r="D113" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="50" t="s">
+      <c r="E113" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="F113" s="49" t="s">
+      <c r="F113" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="G113" s="49" t="s">
+      <c r="G113" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="H113" s="51" t="s">
+      <c r="H113" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="I113" s="51" t="n">
+      <c r="I113" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="J113" s="51"/>
-      <c r="K113" s="51"/>
-      <c r="L113" s="51"/>
-      <c r="M113" s="52"/>
-      <c r="N113" s="52"/>
-      <c r="O113" s="52"/>
-      <c r="P113" s="49" t="s">
+      <c r="J113" s="58"/>
+      <c r="K113" s="58"/>
+      <c r="L113" s="58"/>
+      <c r="M113" s="59"/>
+      <c r="N113" s="59"/>
+      <c r="O113" s="59"/>
+      <c r="P113" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="Q113" s="49" t="s">
+      <c r="Q113" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="R113" s="49"/>
-      <c r="S113" s="49"/>
-      <c r="T113" s="51" t="s">
+      <c r="R113" s="56"/>
+      <c r="S113" s="56"/>
+      <c r="T113" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="U113" s="49"/>
-      <c r="V113" s="49" t="s">
+      <c r="U113" s="56"/>
+      <c r="V113" s="56" t="s">
         <v>313</v>
       </c>
-      <c r="W113" s="49"/>
-      <c r="X113" s="49"/>
+      <c r="W113" s="56"/>
+      <c r="X113" s="56"/>
       <c r="Y113" s="16" t="n">
         <v>101</v>
       </c>
-      <c r="Z113" s="49"/>
-      <c r="AA113" s="49"/>
-      <c r="AB113" s="49" t="s">
+      <c r="Z113" s="56"/>
+      <c r="AA113" s="56"/>
+      <c r="AB113" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="AC113" s="51" t="s">
+      <c r="AC113" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AD113" s="53" t="n">
+      <c r="AD113" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="AE113" s="51"/>
-      <c r="AF113" s="51"/>
-      <c r="AG113" s="51"/>
-      <c r="AH113" s="51"/>
-      <c r="AI113" s="51"/>
-      <c r="AJ113" s="51"/>
-      <c r="AK113" s="49" t="n">
+      <c r="AE113" s="58"/>
+      <c r="AF113" s="58"/>
+      <c r="AG113" s="58"/>
+      <c r="AH113" s="58"/>
+      <c r="AI113" s="58"/>
+      <c r="AJ113" s="58"/>
+      <c r="AK113" s="56" t="n">
         <v>3</v>
       </c>
       <c r="AL113" s="13" t="n">
         <v>112</v>
       </c>
-      <c r="AM113" s="49"/>
+      <c r="AM113" s="56"/>
       <c r="AN113" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="AO113" s="49"/>
+      <c r="AO113" s="56"/>
     </row>
     <row r="114" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="n">
@@ -11960,20 +12043,20 @@
       <c r="G114" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="H114" s="54" t="s">
+      <c r="H114" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="I114" s="55"/>
+      <c r="I114" s="62"/>
       <c r="J114" s="15"/>
       <c r="K114" s="15"/>
       <c r="L114" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="M114" s="34" t="n">
+      <c r="M114" s="41" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="N114" s="34"/>
-      <c r="O114" s="34"/>
+      <c r="N114" s="41"/>
+      <c r="O114" s="41"/>
       <c r="P114" s="11" t="s">
         <v>53</v>
       </c>
@@ -11982,7 +12065,7 @@
       </c>
       <c r="R114" s="11"/>
       <c r="S114" s="11"/>
-      <c r="T114" s="30"/>
+      <c r="T114" s="37"/>
       <c r="U114" s="11"/>
       <c r="V114" s="11" t="s">
         <v>313</v>
@@ -12045,7 +12128,7 @@
       <c r="G115" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="H115" s="48" t="s">
+      <c r="H115" s="55" t="s">
         <v>312</v>
       </c>
       <c r="I115" s="15" t="n">
@@ -12054,16 +12137,16 @@
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
       <c r="L115" s="15"/>
-      <c r="M115" s="35"/>
-      <c r="N115" s="35"/>
-      <c r="O115" s="35"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="42"/>
+      <c r="O115" s="42"/>
       <c r="P115" s="11" t="s">
         <v>243</v>
       </c>
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
       <c r="S115" s="11"/>
-      <c r="T115" s="30"/>
+      <c r="T115" s="37"/>
       <c r="U115" s="11"/>
       <c r="V115" s="11" t="s">
         <v>313</v>
@@ -12089,7 +12172,7 @@
       <c r="AG115" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="AH115" s="51" t="s">
+      <c r="AH115" s="58" t="s">
         <v>328</v>
       </c>
       <c r="AI115" s="15"/>
@@ -12100,7 +12183,7 @@
       <c r="AL115" s="13" t="n">
         <v>114</v>
       </c>
-      <c r="AM115" s="42" t="s">
+      <c r="AM115" s="49" t="s">
         <v>329</v>
       </c>
       <c r="AN115" s="11"/>
@@ -12139,20 +12222,20 @@
       <c r="L116" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="M116" s="34" t="n">
+      <c r="M116" s="41" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="N116" s="34"/>
-      <c r="O116" s="34"/>
+      <c r="N116" s="41"/>
+      <c r="O116" s="41"/>
       <c r="P116" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q116" s="45" t="s">
+      <c r="Q116" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R116" s="11"/>
       <c r="S116" s="11"/>
-      <c r="T116" s="30"/>
+      <c r="T116" s="37"/>
       <c r="U116" s="11"/>
       <c r="V116" s="11" t="s">
         <v>313</v>
@@ -12224,20 +12307,20 @@
       <c r="L117" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="M117" s="34" t="n">
+      <c r="M117" s="41" t="n">
         <v>5449000012203</v>
       </c>
-      <c r="N117" s="34"/>
-      <c r="O117" s="34"/>
+      <c r="N117" s="41"/>
+      <c r="O117" s="41"/>
       <c r="P117" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q117" s="45" t="s">
+      <c r="Q117" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R117" s="11"/>
       <c r="S117" s="11"/>
-      <c r="T117" s="30"/>
+      <c r="T117" s="37"/>
       <c r="U117" s="11"/>
       <c r="V117" s="11" t="s">
         <v>313</v>
@@ -12309,20 +12392,20 @@
       <c r="L118" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="M118" s="56" t="n">
+      <c r="M118" s="63" t="n">
         <v>5449000052926</v>
       </c>
-      <c r="N118" s="34"/>
-      <c r="O118" s="34"/>
+      <c r="N118" s="41"/>
+      <c r="O118" s="41"/>
       <c r="P118" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q118" s="45" t="s">
+      <c r="Q118" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R118" s="11"/>
       <c r="S118" s="11"/>
-      <c r="T118" s="30"/>
+      <c r="T118" s="37"/>
       <c r="U118" s="11"/>
       <c r="V118" s="11" t="s">
         <v>313</v>
@@ -12360,7 +12443,7 @@
         <v>326</v>
       </c>
       <c r="AO118" s="11"/>
-      <c r="AP118" s="57"/>
+      <c r="AP118" s="64"/>
     </row>
     <row r="119" customFormat="false" ht="48.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="18" t="n">
@@ -12384,7 +12467,7 @@
       <c r="G119" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="H119" s="48" t="s">
+      <c r="H119" s="55" t="s">
         <v>312</v>
       </c>
       <c r="I119" s="15" t="n">
@@ -12393,16 +12476,16 @@
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
       <c r="L119" s="15"/>
-      <c r="M119" s="34"/>
-      <c r="N119" s="34"/>
-      <c r="O119" s="34"/>
+      <c r="M119" s="41"/>
+      <c r="N119" s="41"/>
+      <c r="O119" s="41"/>
       <c r="P119" s="11" t="s">
         <v>243</v>
       </c>
       <c r="Q119" s="11"/>
       <c r="R119" s="11"/>
       <c r="S119" s="11"/>
-      <c r="T119" s="30"/>
+      <c r="T119" s="37"/>
       <c r="U119" s="11"/>
       <c r="V119" s="11" t="s">
         <v>313</v>
@@ -12435,7 +12518,7 @@
       <c r="AL119" s="13" t="n">
         <v>118</v>
       </c>
-      <c r="AM119" s="42" t="s">
+      <c r="AM119" s="49" t="s">
         <v>338</v>
       </c>
       <c r="AN119" s="11"/>
@@ -12474,13 +12557,13 @@
       <c r="L120" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M120" s="34" t="s">
+      <c r="M120" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="N120" s="34" t="s">
+      <c r="N120" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="O120" s="34"/>
+      <c r="O120" s="41"/>
       <c r="P120" s="11" t="s">
         <v>53</v>
       </c>
@@ -12489,7 +12572,7 @@
       </c>
       <c r="R120" s="11"/>
       <c r="S120" s="11"/>
-      <c r="T120" s="30"/>
+      <c r="T120" s="37"/>
       <c r="U120" s="11"/>
       <c r="V120" s="11" t="s">
         <v>313</v>
@@ -12535,81 +12618,81 @@
       <c r="B121" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C121" s="49" t="s">
+      <c r="C121" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D121" s="50" t="s">
+      <c r="D121" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E121" s="50" t="s">
+      <c r="E121" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="F121" s="49" t="s">
+      <c r="F121" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="G121" s="49" t="s">
+      <c r="G121" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="H121" s="51" t="s">
+      <c r="H121" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="I121" s="51" t="n">
+      <c r="I121" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="J121" s="51"/>
-      <c r="K121" s="51"/>
-      <c r="L121" s="51"/>
-      <c r="M121" s="52"/>
-      <c r="N121" s="52"/>
-      <c r="O121" s="52"/>
-      <c r="P121" s="49" t="s">
+      <c r="J121" s="58"/>
+      <c r="K121" s="58"/>
+      <c r="L121" s="58"/>
+      <c r="M121" s="59"/>
+      <c r="N121" s="59"/>
+      <c r="O121" s="59"/>
+      <c r="P121" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="Q121" s="49" t="s">
+      <c r="Q121" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="R121" s="49"/>
-      <c r="S121" s="49"/>
-      <c r="T121" s="51" t="s">
+      <c r="R121" s="56"/>
+      <c r="S121" s="56"/>
+      <c r="T121" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="U121" s="49"/>
-      <c r="V121" s="49" t="s">
+      <c r="U121" s="56"/>
+      <c r="V121" s="56" t="s">
         <v>313</v>
       </c>
-      <c r="W121" s="49"/>
-      <c r="X121" s="49"/>
+      <c r="W121" s="56"/>
+      <c r="X121" s="56"/>
       <c r="Y121" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="Z121" s="49"/>
-      <c r="AA121" s="49"/>
-      <c r="AB121" s="49" t="s">
+      <c r="Z121" s="56"/>
+      <c r="AA121" s="56"/>
+      <c r="AB121" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="AC121" s="51" t="s">
+      <c r="AC121" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AD121" s="53" t="n">
+      <c r="AD121" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="AE121" s="51"/>
-      <c r="AF121" s="51"/>
-      <c r="AG121" s="51"/>
-      <c r="AH121" s="51"/>
-      <c r="AI121" s="51"/>
-      <c r="AJ121" s="51"/>
-      <c r="AK121" s="49" t="n">
+      <c r="AE121" s="58"/>
+      <c r="AF121" s="58"/>
+      <c r="AG121" s="58"/>
+      <c r="AH121" s="58"/>
+      <c r="AI121" s="58"/>
+      <c r="AJ121" s="58"/>
+      <c r="AK121" s="56" t="n">
         <v>3</v>
       </c>
       <c r="AL121" s="13" t="n">
         <v>120</v>
       </c>
-      <c r="AM121" s="49"/>
-      <c r="AN121" s="49" t="s">
+      <c r="AM121" s="56"/>
+      <c r="AN121" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="AO121" s="49"/>
+      <c r="AO121" s="56"/>
     </row>
     <row r="122" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="13" t="n">
@@ -12621,10 +12704,10 @@
       <c r="C122" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D122" s="58" t="s">
+      <c r="D122" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E122" s="58" t="s">
+      <c r="E122" s="65" t="s">
         <v>309</v>
       </c>
       <c r="F122" s="15" t="s">
@@ -12633,10 +12716,10 @@
       <c r="G122" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="H122" s="54" t="s">
+      <c r="H122" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="I122" s="55"/>
+      <c r="I122" s="62"/>
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
       <c r="L122" s="15" t="s">
@@ -12655,7 +12738,7 @@
       </c>
       <c r="R122" s="11"/>
       <c r="S122" s="11"/>
-      <c r="T122" s="30"/>
+      <c r="T122" s="37"/>
       <c r="U122" s="11"/>
       <c r="V122" s="11" t="s">
         <v>313</v>
@@ -12718,7 +12801,7 @@
       <c r="G123" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="H123" s="48" t="s">
+      <c r="H123" s="55" t="s">
         <v>312</v>
       </c>
       <c r="I123" s="15" t="n">
@@ -12727,16 +12810,16 @@
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
       <c r="L123" s="15"/>
-      <c r="M123" s="35"/>
-      <c r="N123" s="35"/>
-      <c r="O123" s="35"/>
+      <c r="M123" s="42"/>
+      <c r="N123" s="42"/>
+      <c r="O123" s="42"/>
       <c r="P123" s="11" t="s">
         <v>243</v>
       </c>
       <c r="Q123" s="11"/>
       <c r="R123" s="11"/>
       <c r="S123" s="11"/>
-      <c r="T123" s="30"/>
+      <c r="T123" s="37"/>
       <c r="U123" s="11"/>
       <c r="V123" s="11" t="s">
         <v>313</v>
@@ -12762,7 +12845,7 @@
       <c r="AG123" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="AH123" s="51" t="s">
+      <c r="AH123" s="58" t="s">
         <v>349</v>
       </c>
       <c r="AI123" s="15"/>
@@ -12773,7 +12856,7 @@
       <c r="AL123" s="13" t="n">
         <v>122</v>
       </c>
-      <c r="AM123" s="42" t="s">
+      <c r="AM123" s="49" t="s">
         <v>350</v>
       </c>
       <c r="AN123" s="11"/>
@@ -12820,12 +12903,12 @@
       <c r="P124" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q124" s="45" t="s">
+      <c r="Q124" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R124" s="11"/>
       <c r="S124" s="11"/>
-      <c r="T124" s="30"/>
+      <c r="T124" s="37"/>
       <c r="U124" s="11"/>
       <c r="V124" s="11" t="s">
         <v>313</v>
@@ -12905,12 +12988,12 @@
       <c r="P125" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q125" s="45" t="s">
+      <c r="Q125" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R125" s="11"/>
       <c r="S125" s="11"/>
-      <c r="T125" s="30"/>
+      <c r="T125" s="37"/>
       <c r="U125" s="11"/>
       <c r="V125" s="11" t="s">
         <v>313</v>
@@ -12971,7 +13054,7 @@
       <c r="G126" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="H126" s="48" t="s">
+      <c r="H126" s="55" t="s">
         <v>312</v>
       </c>
       <c r="I126" s="15" t="n">
@@ -12980,16 +13063,16 @@
       <c r="J126" s="15"/>
       <c r="K126" s="15"/>
       <c r="L126" s="15"/>
-      <c r="M126" s="34"/>
-      <c r="N126" s="34"/>
-      <c r="O126" s="34"/>
+      <c r="M126" s="41"/>
+      <c r="N126" s="41"/>
+      <c r="O126" s="41"/>
       <c r="P126" s="11" t="s">
         <v>243</v>
       </c>
       <c r="Q126" s="11"/>
       <c r="R126" s="11"/>
       <c r="S126" s="11"/>
-      <c r="T126" s="30"/>
+      <c r="T126" s="37"/>
       <c r="U126" s="11"/>
       <c r="V126" s="11" t="s">
         <v>359</v>
@@ -13022,7 +13105,7 @@
       <c r="AL126" s="18" t="n">
         <v>125</v>
       </c>
-      <c r="AM126" s="42" t="s">
+      <c r="AM126" s="49" t="s">
         <v>360</v>
       </c>
       <c r="AN126" s="11"/>
@@ -13061,13 +13144,13 @@
       <c r="L127" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M127" s="34" t="s">
+      <c r="M127" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="N127" s="34" t="s">
+      <c r="N127" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="O127" s="34"/>
+      <c r="O127" s="41"/>
       <c r="P127" s="11" t="s">
         <v>53</v>
       </c>
@@ -13076,7 +13159,7 @@
       </c>
       <c r="R127" s="11"/>
       <c r="S127" s="11"/>
-      <c r="T127" s="30"/>
+      <c r="T127" s="37"/>
       <c r="U127" s="11"/>
       <c r="V127" s="11" t="s">
         <v>359</v>
@@ -13122,81 +13205,81 @@
       <c r="B128" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C128" s="49" t="s">
+      <c r="C128" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D128" s="50" t="s">
+      <c r="D128" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E128" s="50" t="s">
+      <c r="E128" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="F128" s="49" t="s">
+      <c r="F128" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="G128" s="49" t="s">
+      <c r="G128" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="H128" s="51" t="s">
+      <c r="H128" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="I128" s="51" t="n">
+      <c r="I128" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="J128" s="51"/>
-      <c r="K128" s="51"/>
-      <c r="L128" s="51"/>
-      <c r="M128" s="52"/>
-      <c r="N128" s="52"/>
-      <c r="O128" s="52"/>
-      <c r="P128" s="49" t="s">
+      <c r="J128" s="58"/>
+      <c r="K128" s="58"/>
+      <c r="L128" s="58"/>
+      <c r="M128" s="59"/>
+      <c r="N128" s="59"/>
+      <c r="O128" s="59"/>
+      <c r="P128" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="Q128" s="49" t="s">
+      <c r="Q128" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="R128" s="49"/>
-      <c r="S128" s="49"/>
-      <c r="T128" s="51" t="s">
+      <c r="R128" s="56"/>
+      <c r="S128" s="56"/>
+      <c r="T128" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="U128" s="49"/>
-      <c r="V128" s="49" t="s">
+      <c r="U128" s="56"/>
+      <c r="V128" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="W128" s="49"/>
-      <c r="X128" s="49"/>
+      <c r="W128" s="56"/>
+      <c r="X128" s="56"/>
       <c r="Y128" s="16" t="n">
         <v>1101</v>
       </c>
-      <c r="Z128" s="49"/>
-      <c r="AA128" s="49"/>
-      <c r="AB128" s="49" t="s">
+      <c r="Z128" s="56"/>
+      <c r="AA128" s="56"/>
+      <c r="AB128" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="AC128" s="51" t="s">
+      <c r="AC128" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AD128" s="53" t="n">
+      <c r="AD128" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="AE128" s="51"/>
-      <c r="AF128" s="51"/>
-      <c r="AG128" s="51"/>
-      <c r="AH128" s="51"/>
-      <c r="AI128" s="51"/>
-      <c r="AJ128" s="51"/>
-      <c r="AK128" s="49" t="n">
+      <c r="AE128" s="58"/>
+      <c r="AF128" s="58"/>
+      <c r="AG128" s="58"/>
+      <c r="AH128" s="58"/>
+      <c r="AI128" s="58"/>
+      <c r="AJ128" s="58"/>
+      <c r="AK128" s="56" t="n">
         <v>3</v>
       </c>
       <c r="AL128" s="18" t="n">
         <v>127</v>
       </c>
-      <c r="AM128" s="49"/>
-      <c r="AN128" s="49" t="s">
+      <c r="AM128" s="56"/>
+      <c r="AN128" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="AO128" s="49"/>
+      <c r="AO128" s="56"/>
     </row>
     <row r="129" customFormat="false" ht="122.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="18" t="n">
@@ -13208,16 +13291,16 @@
       <c r="C129" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D129" s="58" t="s">
+      <c r="D129" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E129" s="58" t="s">
+      <c r="E129" s="65" t="s">
         <v>309</v>
       </c>
       <c r="F129" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="G129" s="30" t="s">
+      <c r="G129" s="37" t="s">
         <v>367</v>
       </c>
       <c r="H129" s="15" t="s">
@@ -13229,16 +13312,16 @@
       <c r="J129" s="15"/>
       <c r="K129" s="15"/>
       <c r="L129" s="15"/>
-      <c r="M129" s="34"/>
-      <c r="N129" s="34"/>
-      <c r="O129" s="34"/>
+      <c r="M129" s="41"/>
+      <c r="N129" s="41"/>
+      <c r="O129" s="41"/>
       <c r="P129" s="11" t="s">
         <v>53</v>
       </c>
       <c r="Q129" s="11"/>
       <c r="R129" s="11"/>
       <c r="S129" s="11"/>
-      <c r="T129" s="30"/>
+      <c r="T129" s="37"/>
       <c r="U129" s="11"/>
       <c r="V129" s="11" t="s">
         <v>359</v>
@@ -13271,7 +13354,7 @@
       <c r="AL129" s="13" t="n">
         <v>128</v>
       </c>
-      <c r="AM129" s="42" t="s">
+      <c r="AM129" s="49" t="s">
         <v>369</v>
       </c>
       <c r="AN129" s="11" t="s">
@@ -13301,16 +13384,16 @@
       <c r="G130" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="H130" s="54" t="s">
+      <c r="H130" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="I130" s="55"/>
+      <c r="I130" s="62"/>
       <c r="J130" s="15"/>
       <c r="K130" s="15"/>
-      <c r="L130" s="29" t="s">
+      <c r="L130" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="M130" s="44" t="n">
+      <c r="M130" s="51" t="n">
         <v>4607042434877</v>
       </c>
       <c r="N130" s="24"/>
@@ -13323,7 +13406,7 @@
       </c>
       <c r="R130" s="11"/>
       <c r="S130" s="11"/>
-      <c r="T130" s="30"/>
+      <c r="T130" s="37"/>
       <c r="U130" s="11"/>
       <c r="V130" s="11" t="s">
         <v>359</v>
@@ -13386,13 +13469,13 @@
       <c r="G131" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="H131" s="54" t="s">
+      <c r="H131" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="I131" s="55"/>
+      <c r="I131" s="62"/>
       <c r="J131" s="15"/>
       <c r="K131" s="15"/>
-      <c r="L131" s="29" t="s">
+      <c r="L131" s="36" t="s">
         <v>161</v>
       </c>
       <c r="M131" s="24" t="n">
@@ -13408,7 +13491,7 @@
       </c>
       <c r="R131" s="11"/>
       <c r="S131" s="11"/>
-      <c r="T131" s="30"/>
+      <c r="T131" s="37"/>
       <c r="U131" s="11"/>
       <c r="V131" s="11" t="s">
         <v>359</v>
@@ -13471,7 +13554,7 @@
       <c r="G132" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="H132" s="48" t="s">
+      <c r="H132" s="55" t="s">
         <v>312</v>
       </c>
       <c r="I132" s="15" t="n">
@@ -13480,16 +13563,16 @@
       <c r="J132" s="15"/>
       <c r="K132" s="15"/>
       <c r="L132" s="15"/>
-      <c r="M132" s="35"/>
-      <c r="N132" s="35"/>
-      <c r="O132" s="35"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="42"/>
+      <c r="O132" s="42"/>
       <c r="P132" s="11" t="s">
         <v>243</v>
       </c>
       <c r="Q132" s="11"/>
       <c r="R132" s="11"/>
       <c r="S132" s="11"/>
-      <c r="T132" s="30"/>
+      <c r="T132" s="37"/>
       <c r="U132" s="11"/>
       <c r="V132" s="11" t="s">
         <v>359</v>
@@ -13515,7 +13598,7 @@
       <c r="AG132" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="AH132" s="51" t="s">
+      <c r="AH132" s="58" t="s">
         <v>378</v>
       </c>
       <c r="AI132" s="15"/>
@@ -13526,7 +13609,7 @@
       <c r="AL132" s="18" t="n">
         <v>131</v>
       </c>
-      <c r="AM132" s="42" t="s">
+      <c r="AM132" s="49" t="s">
         <v>379</v>
       </c>
       <c r="AN132" s="11"/>
@@ -13562,10 +13645,10 @@
       </c>
       <c r="J133" s="15"/>
       <c r="K133" s="15"/>
-      <c r="L133" s="29" t="s">
+      <c r="L133" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="M133" s="44" t="n">
+      <c r="M133" s="51" t="n">
         <v>4607042434877</v>
       </c>
       <c r="N133" s="24"/>
@@ -13573,12 +13656,12 @@
       <c r="P133" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q133" s="45" t="s">
+      <c r="Q133" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R133" s="11"/>
       <c r="S133" s="11"/>
-      <c r="T133" s="30"/>
+      <c r="T133" s="37"/>
       <c r="U133" s="11"/>
       <c r="V133" s="11" t="s">
         <v>359</v>
@@ -13647,7 +13730,7 @@
       </c>
       <c r="J134" s="15"/>
       <c r="K134" s="15"/>
-      <c r="L134" s="29" t="s">
+      <c r="L134" s="36" t="s">
         <v>161</v>
       </c>
       <c r="M134" s="24" t="n">
@@ -13658,12 +13741,12 @@
       <c r="P134" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q134" s="45" t="s">
+      <c r="Q134" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R134" s="11"/>
       <c r="S134" s="11"/>
-      <c r="T134" s="30"/>
+      <c r="T134" s="37"/>
       <c r="U134" s="11"/>
       <c r="V134" s="11" t="s">
         <v>359</v>
@@ -13732,7 +13815,7 @@
       </c>
       <c r="J135" s="15"/>
       <c r="K135" s="15"/>
-      <c r="L135" s="29" t="s">
+      <c r="L135" s="36" t="s">
         <v>163</v>
       </c>
       <c r="M135" s="24" t="n">
@@ -13743,12 +13826,12 @@
       <c r="P135" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q135" s="45" t="s">
+      <c r="Q135" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R135" s="11"/>
       <c r="S135" s="11"/>
-      <c r="T135" s="30"/>
+      <c r="T135" s="37"/>
       <c r="U135" s="11"/>
       <c r="V135" s="11" t="s">
         <v>359</v>
@@ -13817,7 +13900,7 @@
       </c>
       <c r="J136" s="15"/>
       <c r="K136" s="15"/>
-      <c r="L136" s="29" t="s">
+      <c r="L136" s="36" t="s">
         <v>165</v>
       </c>
       <c r="M136" s="24" t="n">
@@ -13828,12 +13911,12 @@
       <c r="P136" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q136" s="45" t="s">
+      <c r="Q136" s="52" t="s">
         <v>54</v>
       </c>
       <c r="R136" s="11"/>
       <c r="S136" s="11"/>
-      <c r="T136" s="30"/>
+      <c r="T136" s="37"/>
       <c r="U136" s="11"/>
       <c r="V136" s="11" t="s">
         <v>359</v>
@@ -13894,7 +13977,7 @@
       <c r="G137" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="H137" s="48" t="s">
+      <c r="H137" s="55" t="s">
         <v>312</v>
       </c>
       <c r="I137" s="15" t="n">
@@ -13903,16 +13986,16 @@
       <c r="J137" s="15"/>
       <c r="K137" s="15"/>
       <c r="L137" s="15"/>
-      <c r="M137" s="34"/>
-      <c r="N137" s="34"/>
-      <c r="O137" s="34"/>
+      <c r="M137" s="41"/>
+      <c r="N137" s="41"/>
+      <c r="O137" s="41"/>
       <c r="P137" s="11" t="s">
         <v>243</v>
       </c>
       <c r="Q137" s="11"/>
       <c r="R137" s="11"/>
       <c r="S137" s="11"/>
-      <c r="T137" s="30"/>
+      <c r="T137" s="37"/>
       <c r="U137" s="11"/>
       <c r="V137" s="11" t="s">
         <v>390</v>
@@ -13943,7 +14026,7 @@
       <c r="AL137" s="13" t="n">
         <v>136</v>
       </c>
-      <c r="AM137" s="42" t="s">
+      <c r="AM137" s="49" t="s">
         <v>391</v>
       </c>
       <c r="AN137" s="11"/>
@@ -13982,13 +14065,13 @@
       <c r="L138" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M138" s="34" t="s">
+      <c r="M138" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="N138" s="35" t="s">
+      <c r="N138" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="O138" s="34"/>
+      <c r="O138" s="41"/>
       <c r="P138" s="11" t="s">
         <v>53</v>
       </c>
@@ -13997,7 +14080,7 @@
       </c>
       <c r="R138" s="11"/>
       <c r="S138" s="11"/>
-      <c r="T138" s="30"/>
+      <c r="T138" s="37"/>
       <c r="U138" s="11"/>
       <c r="V138" s="11" t="s">
         <v>390</v>
@@ -14041,79 +14124,79 @@
       <c r="B139" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C139" s="49" t="s">
+      <c r="C139" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D139" s="50" t="s">
+      <c r="D139" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E139" s="50" t="s">
+      <c r="E139" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="F139" s="49" t="s">
+      <c r="F139" s="56" t="s">
         <v>394</v>
       </c>
-      <c r="G139" s="49" t="s">
+      <c r="G139" s="56" t="s">
         <v>395</v>
       </c>
-      <c r="H139" s="51" t="s">
+      <c r="H139" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="I139" s="51" t="n">
+      <c r="I139" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="J139" s="51"/>
-      <c r="K139" s="51"/>
-      <c r="L139" s="51"/>
-      <c r="M139" s="52"/>
-      <c r="N139" s="52"/>
-      <c r="O139" s="52"/>
-      <c r="P139" s="49" t="s">
+      <c r="J139" s="58"/>
+      <c r="K139" s="58"/>
+      <c r="L139" s="58"/>
+      <c r="M139" s="59"/>
+      <c r="N139" s="59"/>
+      <c r="O139" s="59"/>
+      <c r="P139" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="Q139" s="49" t="s">
+      <c r="Q139" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="R139" s="49"/>
-      <c r="S139" s="49"/>
-      <c r="T139" s="51" t="s">
+      <c r="R139" s="56"/>
+      <c r="S139" s="56"/>
+      <c r="T139" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="U139" s="49"/>
-      <c r="V139" s="49" t="s">
+      <c r="U139" s="56"/>
+      <c r="V139" s="56" t="s">
         <v>390</v>
       </c>
-      <c r="W139" s="49"/>
-      <c r="X139" s="49"/>
+      <c r="W139" s="56"/>
+      <c r="X139" s="56"/>
       <c r="Y139" s="16"/>
-      <c r="Z139" s="49"/>
-      <c r="AA139" s="49"/>
-      <c r="AB139" s="49" t="s">
+      <c r="Z139" s="56"/>
+      <c r="AA139" s="56"/>
+      <c r="AB139" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="AC139" s="51" t="s">
+      <c r="AC139" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AD139" s="53" t="n">
+      <c r="AD139" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="AE139" s="51"/>
-      <c r="AF139" s="51"/>
-      <c r="AG139" s="51"/>
-      <c r="AH139" s="51"/>
-      <c r="AI139" s="51"/>
-      <c r="AJ139" s="51"/>
-      <c r="AK139" s="49" t="n">
+      <c r="AE139" s="58"/>
+      <c r="AF139" s="58"/>
+      <c r="AG139" s="58"/>
+      <c r="AH139" s="58"/>
+      <c r="AI139" s="58"/>
+      <c r="AJ139" s="58"/>
+      <c r="AK139" s="56" t="n">
         <v>3</v>
       </c>
       <c r="AL139" s="13" t="n">
         <v>138</v>
       </c>
-      <c r="AM139" s="49"/>
-      <c r="AN139" s="49" t="s">
+      <c r="AM139" s="56"/>
+      <c r="AN139" s="56" t="s">
         <v>388</v>
       </c>
-      <c r="AO139" s="49"/>
+      <c r="AO139" s="56"/>
     </row>
     <row r="140" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="n">
@@ -14134,7 +14217,7 @@
       <c r="F140" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="G140" s="30" t="s">
+      <c r="G140" s="37" t="s">
         <v>398</v>
       </c>
       <c r="H140" s="15" t="s">
@@ -14146,16 +14229,16 @@
       <c r="J140" s="15"/>
       <c r="K140" s="15"/>
       <c r="L140" s="15"/>
-      <c r="M140" s="34"/>
-      <c r="N140" s="34"/>
-      <c r="O140" s="34"/>
+      <c r="M140" s="41"/>
+      <c r="N140" s="41"/>
+      <c r="O140" s="41"/>
       <c r="P140" s="11" t="s">
         <v>53</v>
       </c>
       <c r="Q140" s="11"/>
       <c r="R140" s="11"/>
       <c r="S140" s="11"/>
-      <c r="T140" s="30"/>
+      <c r="T140" s="37"/>
       <c r="U140" s="11"/>
       <c r="V140" s="11" t="s">
         <v>390</v>
@@ -14186,7 +14269,7 @@
       <c r="AL140" s="18" t="n">
         <v>139</v>
       </c>
-      <c r="AM140" s="42" t="s">
+      <c r="AM140" s="49" t="s">
         <v>399</v>
       </c>
       <c r="AN140" s="11" t="s">
@@ -14216,20 +14299,20 @@
       <c r="G141" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="H141" s="54" t="s">
+      <c r="H141" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="I141" s="55"/>
+      <c r="I141" s="62"/>
       <c r="J141" s="15"/>
       <c r="K141" s="15"/>
-      <c r="L141" s="29" t="s">
+      <c r="L141" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="M141" s="37" t="n">
+      <c r="M141" s="44" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="N141" s="37"/>
-      <c r="O141" s="37"/>
+      <c r="N141" s="44"/>
+      <c r="O141" s="44"/>
       <c r="P141" s="11" t="s">
         <v>53</v>
       </c>
@@ -14238,7 +14321,7 @@
       </c>
       <c r="R141" s="11"/>
       <c r="S141" s="11"/>
-      <c r="T141" s="30"/>
+      <c r="T141" s="37"/>
       <c r="U141" s="11"/>
       <c r="V141" s="11" t="s">
         <v>390</v>
@@ -14299,20 +14382,20 @@
       <c r="G142" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="H142" s="54" t="s">
+      <c r="H142" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="I142" s="55"/>
+      <c r="I142" s="62"/>
       <c r="J142" s="15"/>
       <c r="K142" s="15"/>
-      <c r="L142" s="29" t="s">
+      <c r="L142" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="M142" s="37" t="n">
+      <c r="M142" s="44" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="N142" s="37"/>
-      <c r="O142" s="37"/>
+      <c r="N142" s="44"/>
+      <c r="O142" s="44"/>
       <c r="P142" s="11" t="s">
         <v>53</v>
       </c>
@@ -14321,7 +14404,7 @@
       </c>
       <c r="R142" s="11"/>
       <c r="S142" s="11"/>
-      <c r="T142" s="30"/>
+      <c r="T142" s="37"/>
       <c r="U142" s="11"/>
       <c r="V142" s="11" t="s">
         <v>390</v>
@@ -14388,9 +14471,9 @@
       <c r="J143" s="15"/>
       <c r="K143" s="15"/>
       <c r="L143" s="15"/>
-      <c r="M143" s="34"/>
-      <c r="N143" s="34"/>
-      <c r="O143" s="34"/>
+      <c r="M143" s="41"/>
+      <c r="N143" s="41"/>
+      <c r="O143" s="41"/>
       <c r="P143" s="4" t="s">
         <v>411</v>
       </c>
@@ -14417,7 +14500,7 @@
       <c r="AE143" s="15"/>
       <c r="AF143" s="15"/>
       <c r="AG143" s="15"/>
-      <c r="AH143" s="59" t="s">
+      <c r="AH143" s="66" t="s">
         <v>412</v>
       </c>
       <c r="AI143" s="15"/>
@@ -14428,7 +14511,7 @@
       <c r="AL143" s="13" t="n">
         <v>142</v>
       </c>
-      <c r="AM143" s="42" t="s">
+      <c r="AM143" s="49" t="s">
         <v>413</v>
       </c>
       <c r="AN143" s="11"/>
@@ -14456,7 +14539,7 @@
       <c r="G144" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="H144" s="60" t="s">
+      <c r="H144" s="67" t="s">
         <v>416</v>
       </c>
       <c r="I144" s="15" t="n">
@@ -14469,11 +14552,11 @@
       <c r="L144" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M144" s="35" t="s">
+      <c r="M144" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="N144" s="35"/>
-      <c r="O144" s="35"/>
+      <c r="N144" s="42"/>
+      <c r="O144" s="42"/>
       <c r="P144" s="11"/>
       <c r="Q144" s="15" t="s">
         <v>418</v>
@@ -14482,7 +14565,7 @@
       <c r="S144" s="11"/>
       <c r="T144" s="11"/>
       <c r="U144" s="11"/>
-      <c r="V144" s="61" t="s">
+      <c r="V144" s="68" t="s">
         <v>419</v>
       </c>
       <c r="W144" s="11"/>
@@ -14550,11 +14633,11 @@
       <c r="L145" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M145" s="34" t="s">
+      <c r="M145" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="N145" s="34"/>
-      <c r="O145" s="34"/>
+      <c r="N145" s="41"/>
+      <c r="O145" s="41"/>
       <c r="P145" s="11"/>
       <c r="Q145" s="4" t="s">
         <v>418</v>
@@ -14617,28 +14700,28 @@
       <c r="F146" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="G146" s="29" t="s">
+      <c r="G146" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="H146" s="29" t="s">
+      <c r="H146" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="I146" s="29" t="n">
+      <c r="I146" s="36" t="n">
         <v>1</v>
       </c>
       <c r="J146" s="15"/>
       <c r="K146" s="15"/>
       <c r="L146" s="15"/>
-      <c r="M146" s="34"/>
-      <c r="N146" s="34"/>
-      <c r="O146" s="34"/>
+      <c r="M146" s="41"/>
+      <c r="N146" s="41"/>
+      <c r="O146" s="41"/>
       <c r="P146" s="11"/>
-      <c r="Q146" s="62" t="s">
+      <c r="Q146" s="69" t="s">
         <v>426</v>
       </c>
       <c r="R146" s="11"/>
       <c r="S146" s="11"/>
-      <c r="T146" s="51" t="s">
+      <c r="T146" s="58" t="s">
         <v>427</v>
       </c>
       <c r="U146" s="11"/>
@@ -14664,7 +14747,7 @@
       <c r="AG146" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH146" s="63" t="s">
+      <c r="AH146" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI146" s="15"/>
@@ -14676,7 +14759,7 @@
         <v>145</v>
       </c>
       <c r="AM146" s="11"/>
-      <c r="AN146" s="64" t="s">
+      <c r="AN146" s="71" t="s">
         <v>429</v>
       </c>
       <c r="AO146" s="11"/>
@@ -14703,22 +14786,22 @@
       <c r="G147" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="H147" s="48" t="s">
+      <c r="H147" s="55" t="s">
         <v>432</v>
       </c>
-      <c r="I147" s="60"/>
-      <c r="J147" s="29" t="n">
+      <c r="I147" s="67"/>
+      <c r="J147" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="K147" s="29" t="n">
+      <c r="K147" s="36" t="n">
         <v>23</v>
       </c>
       <c r="L147" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M147" s="34"/>
-      <c r="N147" s="34"/>
-      <c r="O147" s="34"/>
+      <c r="M147" s="41"/>
+      <c r="N147" s="41"/>
+      <c r="O147" s="41"/>
       <c r="P147" s="11"/>
       <c r="Q147" s="11"/>
       <c r="R147" s="11"/>
@@ -14744,10 +14827,10 @@
       </c>
       <c r="AE147" s="15"/>
       <c r="AF147" s="15"/>
-      <c r="AG147" s="65" t="s">
+      <c r="AG147" s="72" t="s">
         <v>414</v>
       </c>
-      <c r="AH147" s="63" t="s">
+      <c r="AH147" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI147" s="15"/>
@@ -14759,7 +14842,7 @@
         <v>146</v>
       </c>
       <c r="AM147" s="11"/>
-      <c r="AN147" s="64" t="s">
+      <c r="AN147" s="71" t="s">
         <v>429</v>
       </c>
       <c r="AO147" s="11"/>
@@ -14786,7 +14869,7 @@
       <c r="G148" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="H148" s="29" t="s">
+      <c r="H148" s="36" t="s">
         <v>242</v>
       </c>
       <c r="I148" s="15" t="n">
@@ -14795,9 +14878,9 @@
       <c r="J148" s="15"/>
       <c r="K148" s="15"/>
       <c r="L148" s="15"/>
-      <c r="M148" s="46"/>
-      <c r="N148" s="34"/>
-      <c r="O148" s="34"/>
+      <c r="M148" s="53"/>
+      <c r="N148" s="41"/>
+      <c r="O148" s="41"/>
       <c r="P148" s="15" t="s">
         <v>243</v>
       </c>
@@ -14817,22 +14900,22 @@
       <c r="AB148" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AC148" s="66" t="s">
+      <c r="AC148" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="AD148" s="67" t="n">
+      <c r="AD148" s="25" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AE148" s="68" t="n">
+      <c r="AE148" s="74" t="n">
         <v>0.8</v>
       </c>
-      <c r="AF148" s="51" t="n">
+      <c r="AF148" s="58" t="n">
         <v>1</v>
       </c>
       <c r="AG148" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH148" s="63" t="s">
+      <c r="AH148" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI148" s="15"/>
@@ -14843,10 +14926,10 @@
       <c r="AL148" s="18" t="n">
         <v>147</v>
       </c>
-      <c r="AM148" s="42" t="s">
+      <c r="AM148" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="AN148" s="64" t="s">
+      <c r="AN148" s="71" t="s">
         <v>429</v>
       </c>
       <c r="AO148" s="11"/>
@@ -14887,8 +14970,8 @@
       <c r="M149" s="24" t="n">
         <v>40822426</v>
       </c>
-      <c r="N149" s="34"/>
-      <c r="O149" s="34"/>
+      <c r="N149" s="41"/>
+      <c r="O149" s="41"/>
       <c r="P149" s="15" t="s">
         <v>53</v>
       </c>
@@ -14921,7 +15004,7 @@
       <c r="AG149" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH149" s="63" t="s">
+      <c r="AH149" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI149" s="15"/>
@@ -14974,8 +15057,8 @@
       <c r="M150" s="24" t="n">
         <v>5449000131768</v>
       </c>
-      <c r="N150" s="34"/>
-      <c r="O150" s="34"/>
+      <c r="N150" s="41"/>
+      <c r="O150" s="41"/>
       <c r="P150" s="15" t="s">
         <v>53</v>
       </c>
@@ -15008,7 +15091,7 @@
       <c r="AG150" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH150" s="63" t="s">
+      <c r="AH150" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI150" s="15"/>
@@ -15061,8 +15144,8 @@
       <c r="M151" s="24" t="n">
         <v>5449000000996</v>
       </c>
-      <c r="N151" s="34"/>
-      <c r="O151" s="34"/>
+      <c r="N151" s="41"/>
+      <c r="O151" s="41"/>
       <c r="P151" s="15" t="s">
         <v>53</v>
       </c>
@@ -15095,7 +15178,7 @@
       <c r="AG151" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH151" s="63" t="s">
+      <c r="AH151" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI151" s="15"/>
@@ -15148,8 +15231,8 @@
       <c r="M152" s="24" t="n">
         <v>54491472</v>
       </c>
-      <c r="N152" s="34"/>
-      <c r="O152" s="34"/>
+      <c r="N152" s="41"/>
+      <c r="O152" s="41"/>
       <c r="P152" s="15" t="s">
         <v>53</v>
       </c>
@@ -15182,7 +15265,7 @@
       <c r="AG152" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH152" s="63" t="s">
+      <c r="AH152" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI152" s="15"/>
@@ -15235,8 +15318,8 @@
       <c r="M153" s="24" t="n">
         <v>5449000228970</v>
       </c>
-      <c r="N153" s="34"/>
-      <c r="O153" s="34"/>
+      <c r="N153" s="41"/>
+      <c r="O153" s="41"/>
       <c r="P153" s="15" t="s">
         <v>53</v>
       </c>
@@ -15269,7 +15352,7 @@
       <c r="AG153" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH153" s="63" t="s">
+      <c r="AH153" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI153" s="15"/>
@@ -15322,8 +15405,8 @@
       <c r="M154" s="24" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="N154" s="34"/>
-      <c r="O154" s="34"/>
+      <c r="N154" s="41"/>
+      <c r="O154" s="41"/>
       <c r="P154" s="15" t="s">
         <v>53</v>
       </c>
@@ -15356,7 +15439,7 @@
       <c r="AG154" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH154" s="63" t="s">
+      <c r="AH154" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI154" s="15"/>
@@ -15409,8 +15492,8 @@
       <c r="M155" s="24" t="n">
         <v>5449000231659</v>
       </c>
-      <c r="N155" s="34"/>
-      <c r="O155" s="34"/>
+      <c r="N155" s="41"/>
+      <c r="O155" s="41"/>
       <c r="P155" s="15" t="s">
         <v>53</v>
       </c>
@@ -15443,7 +15526,7 @@
       <c r="AG155" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH155" s="63" t="s">
+      <c r="AH155" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI155" s="15"/>
@@ -15496,8 +15579,8 @@
       <c r="M156" s="24" t="n">
         <v>5449000011527</v>
       </c>
-      <c r="N156" s="34"/>
-      <c r="O156" s="34"/>
+      <c r="N156" s="41"/>
+      <c r="O156" s="41"/>
       <c r="P156" s="15" t="s">
         <v>53</v>
       </c>
@@ -15530,7 +15613,7 @@
       <c r="AG156" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH156" s="63" t="s">
+      <c r="AH156" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI156" s="15"/>
@@ -15583,8 +15666,8 @@
       <c r="M157" s="24" t="n">
         <v>40822938</v>
       </c>
-      <c r="N157" s="34"/>
-      <c r="O157" s="34"/>
+      <c r="N157" s="41"/>
+      <c r="O157" s="41"/>
       <c r="P157" s="15" t="s">
         <v>53</v>
       </c>
@@ -15617,7 +15700,7 @@
       <c r="AG157" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH157" s="63" t="s">
+      <c r="AH157" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI157" s="15"/>
@@ -15670,8 +15753,8 @@
       <c r="M158" s="24" t="n">
         <v>5449000228963</v>
       </c>
-      <c r="N158" s="34"/>
-      <c r="O158" s="34"/>
+      <c r="N158" s="41"/>
+      <c r="O158" s="41"/>
       <c r="P158" s="15" t="s">
         <v>53</v>
       </c>
@@ -15704,7 +15787,7 @@
       <c r="AG158" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH158" s="63" t="s">
+      <c r="AH158" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI158" s="15"/>
@@ -15757,8 +15840,8 @@
       <c r="M159" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="N159" s="34"/>
-      <c r="O159" s="34"/>
+      <c r="N159" s="41"/>
+      <c r="O159" s="41"/>
       <c r="P159" s="15" t="s">
         <v>53</v>
       </c>
@@ -15791,7 +15874,7 @@
       <c r="AG159" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH159" s="63" t="s">
+      <c r="AH159" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI159" s="15"/>
@@ -15844,8 +15927,8 @@
       <c r="M160" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="N160" s="34"/>
-      <c r="O160" s="34"/>
+      <c r="N160" s="41"/>
+      <c r="O160" s="41"/>
       <c r="P160" s="15" t="s">
         <v>53</v>
       </c>
@@ -15878,7 +15961,7 @@
       <c r="AG160" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH160" s="63" t="s">
+      <c r="AH160" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI160" s="15"/>
@@ -15931,8 +16014,8 @@
       <c r="M161" s="24" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="N161" s="34"/>
-      <c r="O161" s="34"/>
+      <c r="N161" s="41"/>
+      <c r="O161" s="41"/>
       <c r="P161" s="15" t="s">
         <v>53</v>
       </c>
@@ -15965,7 +16048,7 @@
       <c r="AG161" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH161" s="63" t="s">
+      <c r="AH161" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI161" s="15"/>
@@ -16018,8 +16101,8 @@
       <c r="M162" s="24" t="n">
         <v>5449000014535</v>
       </c>
-      <c r="N162" s="34"/>
-      <c r="O162" s="34"/>
+      <c r="N162" s="41"/>
+      <c r="O162" s="41"/>
       <c r="P162" s="15" t="s">
         <v>53</v>
       </c>
@@ -16052,7 +16135,7 @@
       <c r="AG162" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH162" s="63" t="s">
+      <c r="AH162" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI162" s="15"/>
@@ -16105,8 +16188,8 @@
       <c r="M163" s="24" t="n">
         <v>54491069</v>
       </c>
-      <c r="N163" s="34"/>
-      <c r="O163" s="34"/>
+      <c r="N163" s="41"/>
+      <c r="O163" s="41"/>
       <c r="P163" s="15" t="s">
         <v>53</v>
       </c>
@@ -16139,7 +16222,7 @@
       <c r="AG163" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH163" s="63" t="s">
+      <c r="AH163" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI163" s="15"/>
@@ -16192,8 +16275,8 @@
       <c r="M164" s="24" t="n">
         <v>5449000228956</v>
       </c>
-      <c r="N164" s="34"/>
-      <c r="O164" s="34"/>
+      <c r="N164" s="41"/>
+      <c r="O164" s="41"/>
       <c r="P164" s="15" t="s">
         <v>53</v>
       </c>
@@ -16226,7 +16309,7 @@
       <c r="AG164" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH164" s="63" t="s">
+      <c r="AH164" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI164" s="15"/>
@@ -16265,7 +16348,7 @@
       <c r="G165" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="H165" s="29" t="s">
+      <c r="H165" s="36" t="s">
         <v>475</v>
       </c>
       <c r="I165" s="15"/>
@@ -16274,11 +16357,11 @@
       <c r="L165" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M165" s="35" t="s">
+      <c r="M165" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="N165" s="35"/>
-      <c r="O165" s="35"/>
+      <c r="N165" s="42"/>
+      <c r="O165" s="42"/>
       <c r="P165" s="11"/>
       <c r="Q165" s="11" t="s">
         <v>418</v>
@@ -16309,7 +16392,7 @@
       <c r="AG165" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AH165" s="63" t="s">
+      <c r="AH165" s="70" t="s">
         <v>428</v>
       </c>
       <c r="AI165" s="15"/>
@@ -16321,7 +16404,7 @@
         <v>164</v>
       </c>
       <c r="AM165" s="11"/>
-      <c r="AN165" s="64" t="s">
+      <c r="AN165" s="71" t="s">
         <v>429</v>
       </c>
       <c r="AO165" s="11"/>
@@ -16339,7 +16422,7 @@
       <c r="D166" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E166" s="69" t="s">
+      <c r="E166" s="75" t="s">
         <v>239</v>
       </c>
       <c r="F166" s="15" t="s">
@@ -16357,9 +16440,9 @@
       <c r="J166" s="15"/>
       <c r="K166" s="15"/>
       <c r="L166" s="15"/>
-      <c r="M166" s="35"/>
-      <c r="N166" s="35"/>
-      <c r="O166" s="35"/>
+      <c r="M166" s="42"/>
+      <c r="N166" s="42"/>
+      <c r="O166" s="42"/>
       <c r="P166" s="11" t="s">
         <v>53</v>
       </c>
@@ -16397,10 +16480,10 @@
       <c r="AL166" s="18" t="n">
         <v>165</v>
       </c>
-      <c r="AM166" s="70" t="s">
+      <c r="AM166" s="76" t="s">
         <v>478</v>
       </c>
-      <c r="AN166" s="64" t="s">
+      <c r="AN166" s="71" t="s">
         <v>479</v>
       </c>
       <c r="AO166" s="11"/>
@@ -16418,7 +16501,7 @@
       <c r="D167" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E167" s="69" t="s">
+      <c r="E167" s="75" t="s">
         <v>239</v>
       </c>
       <c r="F167" s="15" t="s">
@@ -16427,10 +16510,10 @@
       <c r="G167" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="H167" s="62" t="s">
+      <c r="H167" s="69" t="s">
         <v>482</v>
       </c>
-      <c r="I167" s="62" t="n">
+      <c r="I167" s="69" t="n">
         <v>1</v>
       </c>
       <c r="J167" s="15" t="n">
@@ -16440,15 +16523,15 @@
       <c r="L167" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M167" s="35" t="s">
+      <c r="M167" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="N167" s="35"/>
-      <c r="O167" s="35"/>
+      <c r="N167" s="42"/>
+      <c r="O167" s="42"/>
       <c r="P167" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Q167" s="62" t="s">
+      <c r="Q167" s="69" t="s">
         <v>418</v>
       </c>
       <c r="R167" s="15"/>
@@ -16475,7 +16558,7 @@
       <c r="AE167" s="15"/>
       <c r="AF167" s="15"/>
       <c r="AG167" s="15"/>
-      <c r="AH167" s="71" t="s">
+      <c r="AH167" s="77" t="s">
         <v>484</v>
       </c>
       <c r="AI167" s="15"/>
@@ -16487,7 +16570,7 @@
         <v>166</v>
       </c>
       <c r="AM167" s="11"/>
-      <c r="AN167" s="72" t="s">
+      <c r="AN167" s="78" t="s">
         <v>476</v>
       </c>
       <c r="AO167" s="11"/>
@@ -16523,9 +16606,9 @@
       <c r="J168" s="15"/>
       <c r="K168" s="15"/>
       <c r="L168" s="15"/>
-      <c r="M168" s="35"/>
-      <c r="N168" s="35"/>
-      <c r="O168" s="35"/>
+      <c r="M168" s="42"/>
+      <c r="N168" s="42"/>
+      <c r="O168" s="42"/>
       <c r="P168" s="15" t="s">
         <v>53</v>
       </c>
@@ -16561,10 +16644,10 @@
       <c r="AL168" s="18" t="n">
         <v>167</v>
       </c>
-      <c r="AM168" s="42" t="s">
+      <c r="AM168" s="49" t="s">
         <v>487</v>
       </c>
-      <c r="AN168" s="73" t="s">
+      <c r="AN168" s="79" t="s">
         <v>488</v>
       </c>
       <c r="AO168" s="11"/>
@@ -16600,9 +16683,9 @@
       <c r="J169" s="15"/>
       <c r="K169" s="15"/>
       <c r="L169" s="15"/>
-      <c r="M169" s="35"/>
-      <c r="N169" s="35"/>
-      <c r="O169" s="35"/>
+      <c r="M169" s="42"/>
+      <c r="N169" s="42"/>
+      <c r="O169" s="42"/>
       <c r="P169" s="15" t="s">
         <v>53</v>
       </c>
@@ -16614,7 +16697,7 @@
       <c r="T169" s="15"/>
       <c r="U169" s="15"/>
       <c r="V169" s="15"/>
-      <c r="W169" s="74" t="s">
+      <c r="W169" s="80" t="s">
         <v>491</v>
       </c>
       <c r="X169" s="15"/>
@@ -16679,9 +16762,9 @@
       <c r="J170" s="15"/>
       <c r="K170" s="15"/>
       <c r="L170" s="15"/>
-      <c r="M170" s="35"/>
-      <c r="N170" s="35"/>
-      <c r="O170" s="35"/>
+      <c r="M170" s="42"/>
+      <c r="N170" s="42"/>
+      <c r="O170" s="42"/>
       <c r="P170" s="15" t="s">
         <v>53</v>
       </c>
@@ -16758,9 +16841,9 @@
       <c r="J171" s="15"/>
       <c r="K171" s="15"/>
       <c r="L171" s="15"/>
-      <c r="M171" s="35"/>
-      <c r="N171" s="35"/>
-      <c r="O171" s="35"/>
+      <c r="M171" s="42"/>
+      <c r="N171" s="42"/>
+      <c r="O171" s="42"/>
       <c r="P171" s="15" t="s">
         <v>53</v>
       </c>
@@ -16837,9 +16920,9 @@
       <c r="J172" s="15"/>
       <c r="K172" s="15"/>
       <c r="L172" s="15"/>
-      <c r="M172" s="35"/>
-      <c r="N172" s="35"/>
-      <c r="O172" s="35"/>
+      <c r="M172" s="42"/>
+      <c r="N172" s="42"/>
+      <c r="O172" s="42"/>
       <c r="P172" s="15" t="s">
         <v>53</v>
       </c>
@@ -16911,21 +16994,21 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC148:AF148 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="81" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="82" t="s">
         <v>428</v>
       </c>
     </row>
@@ -16948,16 +17031,16 @@
   <dimension ref="B1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC148:AF148 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="83" t="s">
         <v>414</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -16972,7 +17055,7 @@
       <c r="F1" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="83" t="s">
         <v>473</v>
       </c>
       <c r="I1" s="0" t="s">
@@ -16986,7 +17069,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="77"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -16994,19 +17077,19 @@
         <f aca="false">C2*$C$6</f>
         <v>19.6</v>
       </c>
-      <c r="E2" s="78" t="n">
+      <c r="E2" s="84" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="77"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="79" t="n">
+      <c r="J2" s="85" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="77"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -17014,19 +17097,19 @@
         <f aca="false">C3*$C$6</f>
         <v>28</v>
       </c>
-      <c r="E3" s="80" t="n">
+      <c r="E3" s="86" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="77"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="81" t="n">
+      <c r="J3" s="87" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="77"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -17034,21 +17117,21 @@
         <f aca="false">C4*$C$6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="80" t="n">
+      <c r="E4" s="86" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="82" t="n">
+      <c r="F4" s="88" t="n">
         <f aca="false">C2/SUM(C2:C4)</f>
         <v>0.189189189189189</v>
       </c>
-      <c r="H4" s="77"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="79" t="n">
+      <c r="J4" s="85" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="83" t="n">
+      <c r="K4" s="89" t="n">
         <f aca="false">SUM(I2,I4)/SUM(I2:I4)</f>
         <v>0.72972972972973</v>
       </c>
@@ -17080,57 +17163,57 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC148:AF148 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="91" t="s">
         <v>507</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="91" t="s">
         <v>508</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="91" t="s">
         <v>509</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="M1" s="91" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="92" t="s">
         <v>510</v>
       </c>
     </row>

--- a/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Big" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,6 +46,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="564">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1383,9 +1384,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fuze Lemon - 1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Display: Lead SKU Fuze Lemon/Berry - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Tea Display: Lead Fuze Berry - 1L</t>
@@ -1968,9 +1966,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
+    <numFmt numFmtId="164" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
@@ -2223,7 +2221,7 @@
     </border>
   </borders>
   <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2245,51 +2243,55 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+  <cellXfs count="114">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2297,63 +2299,59 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2361,59 +2359,51 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2421,63 +2411,67 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2485,23 +2479,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2509,67 +2503,67 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2577,47 +2571,47 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2625,63 +2619,67 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2689,27 +2687,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2724,7 +2718,27 @@
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
-    <dxf/>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -2801,27 +2815,27 @@
   <dimension ref="A1:AR184"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="X175" activeCellId="0" sqref="X175"/>
+      <selection pane="bottomLeft" activeCell="A142" activeCellId="0" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="38" min="20" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="8.24696356275304"/>
     <col collapsed="false" hidden="false" max="43" min="40" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="24.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3320,7 +3334,7 @@
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="23" t="s">
         <v>65</v>
       </c>
       <c r="O6" s="24" t="n">
@@ -3407,7 +3421,7 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="23" t="s">
         <v>67</v>
       </c>
       <c r="O7" s="24" t="n">
@@ -3755,7 +3769,7 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="23" t="s">
         <v>78</v>
       </c>
       <c r="O11" s="24" t="n">
@@ -3842,7 +3856,7 @@
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="23" t="s">
         <v>80</v>
       </c>
       <c r="O12" s="24" t="n">
@@ -3929,7 +3943,7 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="23" t="s">
         <v>82</v>
       </c>
       <c r="O13" s="24" t="n">
@@ -4016,7 +4030,7 @@
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="23" t="s">
         <v>84</v>
       </c>
       <c r="O14" s="24" t="n">
@@ -4364,7 +4378,7 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="23" t="s">
         <v>92</v>
       </c>
       <c r="O18" s="24" t="n">
@@ -4538,7 +4552,7 @@
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="30" t="s">
+      <c r="N20" s="23" t="s">
         <v>96</v>
       </c>
       <c r="O20" s="24" t="n">
@@ -4784,25 +4798,25 @@
         <v>46</v>
       </c>
       <c r="F23" s="20"/>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33" t="n">
+      <c r="J23" s="31"/>
+      <c r="K23" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="35" t="s">
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="O23" s="36" t="n">
+      <c r="O23" s="35" t="n">
         <v>5449000214744</v>
       </c>
       <c r="P23" s="25"/>
@@ -5306,25 +5320,25 @@
         <v>46</v>
       </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="33" t="n">
+      <c r="J29" s="36"/>
+      <c r="K29" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="35" t="s">
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="O29" s="36" t="n">
+      <c r="O29" s="35" t="n">
         <v>5449000251626</v>
       </c>
       <c r="P29" s="25"/>
@@ -5408,7 +5422,7 @@
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="38" t="s">
+      <c r="N30" s="37" t="s">
         <v>117</v>
       </c>
       <c r="O30" s="29" t="s">
@@ -5570,45 +5584,45 @@
       <c r="G32" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
       <c r="AA32" s="17"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="39" t="s">
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AE32" s="39" t="s">
+      <c r="AE32" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="40"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="40"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
       <c r="AM32" s="17" t="n">
         <v>2</v>
       </c>
@@ -5619,7 +5633,7 @@
         <v>126</v>
       </c>
       <c r="AP32" s="18"/>
-      <c r="AQ32" s="42"/>
+      <c r="AQ32" s="41"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="n">
@@ -5653,7 +5667,7 @@
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-      <c r="N33" s="30" t="s">
+      <c r="N33" s="23" t="s">
         <v>127</v>
       </c>
       <c r="O33" s="24" t="n">
@@ -5740,7 +5754,7 @@
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="30" t="s">
+      <c r="N34" s="23" t="s">
         <v>129</v>
       </c>
       <c r="O34" s="24" t="n">
@@ -5827,14 +5841,14 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="30" t="s">
+      <c r="N35" s="23" t="s">
         <v>131</v>
       </c>
       <c r="O35" s="24" t="n">
         <v>5449000152190</v>
       </c>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
       <c r="R35" s="16" t="s">
         <v>55</v>
       </c>
@@ -5914,7 +5928,7 @@
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
-      <c r="N36" s="30" t="s">
+      <c r="N36" s="23" t="s">
         <v>133</v>
       </c>
       <c r="O36" s="24" t="n">
@@ -6001,7 +6015,7 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="30" t="s">
+      <c r="N37" s="23" t="s">
         <v>135</v>
       </c>
       <c r="O37" s="24" t="n">
@@ -6076,45 +6090,45 @@
       <c r="G38" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="39" t="s">
+      <c r="H38" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
       <c r="AA38" s="17"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="39" t="s">
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AE38" s="39" t="s">
+      <c r="AE38" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AF38" s="40"/>
-      <c r="AG38" s="40"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="40"/>
-      <c r="AK38" s="40"/>
-      <c r="AL38" s="40"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
       <c r="AM38" s="17" t="n">
         <v>2</v>
       </c>
@@ -6125,7 +6139,7 @@
         <v>139</v>
       </c>
       <c r="AP38" s="18"/>
-      <c r="AQ38" s="42"/>
+      <c r="AQ38" s="41"/>
     </row>
     <row r="39" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="n">
@@ -6246,7 +6260,7 @@
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
-      <c r="N40" s="30" t="s">
+      <c r="N40" s="23" t="s">
         <v>142</v>
       </c>
       <c r="O40" s="24" t="n">
@@ -6333,7 +6347,7 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="30" t="s">
+      <c r="N41" s="23" t="s">
         <v>144</v>
       </c>
       <c r="O41" s="24" t="n">
@@ -6495,45 +6509,45 @@
       <c r="G43" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="I43" s="39" t="s">
+      <c r="I43" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
       <c r="AA43" s="17"/>
-      <c r="AB43" s="40"/>
-      <c r="AC43" s="40"/>
-      <c r="AD43" s="39" t="s">
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AE43" s="39" t="s">
+      <c r="AE43" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AF43" s="40"/>
-      <c r="AG43" s="40"/>
-      <c r="AH43" s="40"/>
-      <c r="AI43" s="40"/>
-      <c r="AJ43" s="40"/>
-      <c r="AK43" s="40"/>
-      <c r="AL43" s="40"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="39"/>
       <c r="AM43" s="17" t="n">
         <v>2</v>
       </c>
@@ -6544,7 +6558,7 @@
         <v>150</v>
       </c>
       <c r="AP43" s="18"/>
-      <c r="AQ43" s="42"/>
+      <c r="AQ43" s="41"/>
     </row>
     <row r="44" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="n">
@@ -6578,7 +6592,7 @@
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="30" t="s">
+      <c r="N44" s="23" t="s">
         <v>151</v>
       </c>
       <c r="O44" s="24" t="n">
@@ -6665,7 +6679,7 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="30" t="s">
+      <c r="N45" s="23" t="s">
         <v>153</v>
       </c>
       <c r="O45" s="24" t="n">
@@ -6758,8 +6772,8 @@
       <c r="O46" s="24" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
       <c r="R46" s="16" t="s">
         <v>55</v>
       </c>
@@ -6926,7 +6940,7 @@
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
-      <c r="N48" s="30" t="s">
+      <c r="N48" s="23" t="s">
         <v>159</v>
       </c>
       <c r="O48" s="24" t="n">
@@ -7013,7 +7027,7 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="30" t="s">
+      <c r="N49" s="23" t="s">
         <v>161</v>
       </c>
       <c r="O49" s="24" t="n">
@@ -7175,45 +7189,45 @@
       <c r="G51" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="H51" s="39" t="s">
+      <c r="H51" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="I51" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J51" s="39"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="40"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
       <c r="AA51" s="17"/>
-      <c r="AB51" s="40"/>
-      <c r="AC51" s="40"/>
-      <c r="AD51" s="39" t="s">
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AE51" s="39" t="s">
+      <c r="AE51" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AF51" s="40"/>
-      <c r="AG51" s="40"/>
-      <c r="AH51" s="40"/>
-      <c r="AI51" s="40"/>
-      <c r="AJ51" s="40"/>
-      <c r="AK51" s="40"/>
-      <c r="AL51" s="40"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39"/>
+      <c r="AH51" s="39"/>
+      <c r="AI51" s="39"/>
+      <c r="AJ51" s="39"/>
+      <c r="AK51" s="39"/>
+      <c r="AL51" s="39"/>
       <c r="AM51" s="17" t="n">
         <v>2</v>
       </c>
@@ -7224,7 +7238,7 @@
         <v>167</v>
       </c>
       <c r="AP51" s="18"/>
-      <c r="AQ51" s="42"/>
+      <c r="AQ51" s="41"/>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="n">
@@ -7258,10 +7272,10 @@
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
-      <c r="N52" s="45" t="s">
+      <c r="N52" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="O52" s="46" t="n">
+      <c r="O52" s="45" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P52" s="25"/>
@@ -7345,7 +7359,7 @@
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="45" t="s">
+      <c r="N53" s="44" t="s">
         <v>170</v>
       </c>
       <c r="O53" s="24" t="n">
@@ -7432,14 +7446,14 @@
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="45" t="s">
+      <c r="N54" s="44" t="s">
         <v>172</v>
       </c>
       <c r="O54" s="24" t="n">
         <v>4607042438738</v>
       </c>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
       <c r="R54" s="16" t="s">
         <v>55</v>
       </c>
@@ -7519,14 +7533,14 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
-      <c r="N55" s="45" t="s">
+      <c r="N55" s="44" t="s">
         <v>174</v>
       </c>
       <c r="O55" s="24" t="n">
         <v>4607042438950</v>
       </c>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
       <c r="R55" s="16" t="s">
         <v>55</v>
       </c>
@@ -7606,7 +7620,7 @@
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
-      <c r="N56" s="45" t="s">
+      <c r="N56" s="44" t="s">
         <v>176</v>
       </c>
       <c r="O56" s="24" t="n">
@@ -7693,14 +7707,14 @@
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
-      <c r="N57" s="45" t="s">
+      <c r="N57" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="O57" s="46" t="n">
+      <c r="O57" s="45" t="n">
         <v>4607042431388</v>
       </c>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="44"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
       <c r="R57" s="16" t="s">
         <v>55</v>
       </c>
@@ -7780,7 +7794,7 @@
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
-      <c r="N58" s="45" t="s">
+      <c r="N58" s="44" t="s">
         <v>180</v>
       </c>
       <c r="O58" s="24" t="n">
@@ -7867,10 +7881,10 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="45" t="s">
+      <c r="N59" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O59" s="46" t="n">
+      <c r="O59" s="45" t="n">
         <v>4607042438776</v>
       </c>
       <c r="P59" s="25"/>
@@ -7954,7 +7968,7 @@
       </c>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
-      <c r="N60" s="45" t="s">
+      <c r="N60" s="44" t="s">
         <v>184</v>
       </c>
       <c r="O60" s="24" t="n">
@@ -8041,14 +8055,14 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
-      <c r="N61" s="45" t="s">
+      <c r="N61" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="O61" s="46" t="n">
+      <c r="O61" s="45" t="n">
         <v>4607042430619</v>
       </c>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="47"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
       <c r="R61" s="16" t="s">
         <v>55</v>
       </c>
@@ -8128,14 +8142,14 @@
       </c>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
-      <c r="N62" s="45" t="s">
+      <c r="N62" s="44" t="s">
         <v>188</v>
       </c>
       <c r="O62" s="24" t="n">
         <v>4607042430565</v>
       </c>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="47"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
       <c r="R62" s="16" t="s">
         <v>55</v>
       </c>
@@ -8215,7 +8229,7 @@
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="45" t="s">
+      <c r="N63" s="44" t="s">
         <v>190</v>
       </c>
       <c r="O63" s="24" t="n">
@@ -8302,14 +8316,14 @@
       </c>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
-      <c r="N64" s="45" t="s">
+      <c r="N64" s="44" t="s">
         <v>192</v>
       </c>
       <c r="O64" s="24" t="n">
         <v>4607174579286</v>
       </c>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="47"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
       <c r="R64" s="16" t="s">
         <v>55</v>
       </c>
@@ -8389,14 +8403,14 @@
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
-      <c r="N65" s="45" t="s">
+      <c r="N65" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="O65" s="46" t="n">
+      <c r="O65" s="45" t="n">
         <v>4607174577794</v>
       </c>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
       <c r="R65" s="16" t="s">
         <v>55</v>
       </c>
@@ -8476,10 +8490,10 @@
       </c>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
-      <c r="N66" s="45" t="s">
+      <c r="N66" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="O66" s="46" t="n">
+      <c r="O66" s="45" t="n">
         <v>4607042439155</v>
       </c>
       <c r="P66" s="25"/>
@@ -8563,7 +8577,7 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
-      <c r="N67" s="45" t="s">
+      <c r="N67" s="44" t="s">
         <v>198</v>
       </c>
       <c r="O67" s="24" t="n">
@@ -8650,10 +8664,10 @@
       </c>
       <c r="L68" s="16"/>
       <c r="M68" s="16"/>
-      <c r="N68" s="45" t="s">
+      <c r="N68" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="O68" s="46" t="n">
+      <c r="O68" s="45" t="n">
         <v>4607042439223</v>
       </c>
       <c r="P68" s="25"/>
@@ -8737,7 +8751,7 @@
       </c>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
-      <c r="N69" s="45" t="s">
+      <c r="N69" s="44" t="s">
         <v>202</v>
       </c>
       <c r="O69" s="24" t="n">
@@ -8824,14 +8838,14 @@
       </c>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
-      <c r="N70" s="45" t="s">
+      <c r="N70" s="44" t="s">
         <v>204</v>
       </c>
       <c r="O70" s="24" t="n">
         <v>4607174578029</v>
       </c>
-      <c r="P70" s="44"/>
-      <c r="Q70" s="44"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
       <c r="R70" s="16" t="s">
         <v>55</v>
       </c>
@@ -8911,14 +8925,14 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
-      <c r="N71" s="45" t="s">
+      <c r="N71" s="44" t="s">
         <v>206</v>
       </c>
       <c r="O71" s="24" t="n">
         <v>4607174578548</v>
       </c>
-      <c r="P71" s="44"/>
-      <c r="Q71" s="44"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
       <c r="R71" s="16" t="s">
         <v>55</v>
       </c>
@@ -8998,14 +9012,14 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
-      <c r="N72" s="45" t="s">
+      <c r="N72" s="44" t="s">
         <v>208</v>
       </c>
       <c r="O72" s="24" t="n">
         <v>4607174577145</v>
       </c>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="44"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
       <c r="R72" s="16" t="s">
         <v>55</v>
       </c>
@@ -9085,7 +9099,7 @@
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
-      <c r="N73" s="45" t="s">
+      <c r="N73" s="44" t="s">
         <v>210</v>
       </c>
       <c r="O73" s="24" t="n">
@@ -9172,10 +9186,10 @@
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
-      <c r="N74" s="45" t="s">
+      <c r="N74" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="O74" s="46" t="n">
+      <c r="O74" s="45" t="n">
         <v>4607042431371</v>
       </c>
       <c r="P74" s="15"/>
@@ -9259,7 +9273,7 @@
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="45" t="s">
+      <c r="N75" s="44" t="s">
         <v>214</v>
       </c>
       <c r="O75" s="24" t="n">
@@ -9346,7 +9360,7 @@
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
-      <c r="N76" s="45" t="s">
+      <c r="N76" s="44" t="s">
         <v>216</v>
       </c>
       <c r="O76" s="24" t="n">
@@ -9433,7 +9447,7 @@
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
-      <c r="N77" s="45" t="s">
+      <c r="N77" s="44" t="s">
         <v>218</v>
       </c>
       <c r="O77" s="24" t="n">
@@ -9526,8 +9540,8 @@
       <c r="O78" s="24" t="n">
         <v>4650075420980</v>
       </c>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
       <c r="R78" s="16" t="s">
         <v>55</v>
       </c>
@@ -9607,7 +9621,7 @@
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
-      <c r="N79" s="48" t="s">
+      <c r="N79" s="47" t="s">
         <v>222</v>
       </c>
       <c r="O79" s="24" t="n">
@@ -9781,7 +9795,7 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
-      <c r="N81" s="48" t="s">
+      <c r="N81" s="47" t="s">
         <v>226</v>
       </c>
       <c r="O81" s="24" t="n">
@@ -9868,14 +9882,14 @@
       </c>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
-      <c r="N82" s="45" t="s">
+      <c r="N82" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="O82" s="46" t="n">
+      <c r="O82" s="45" t="n">
         <v>4607174579729</v>
       </c>
-      <c r="P82" s="47"/>
-      <c r="Q82" s="47"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="46"/>
       <c r="R82" s="16" t="s">
         <v>55</v>
       </c>
@@ -9918,7 +9932,7 @@
         <v>81</v>
       </c>
       <c r="AO82" s="17"/>
-      <c r="AP82" s="49" t="s">
+      <c r="AP82" s="48" t="s">
         <v>165</v>
       </c>
       <c r="AQ82" s="13"/>
@@ -9955,14 +9969,14 @@
       </c>
       <c r="L83" s="16"/>
       <c r="M83" s="16"/>
-      <c r="N83" s="45" t="s">
+      <c r="N83" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="O83" s="46" t="n">
+      <c r="O83" s="45" t="n">
         <v>4607174579477</v>
       </c>
-      <c r="P83" s="47"/>
-      <c r="Q83" s="47"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="46"/>
       <c r="R83" s="16" t="s">
         <v>55</v>
       </c>
@@ -10005,7 +10019,7 @@
         <v>82</v>
       </c>
       <c r="AO83" s="17"/>
-      <c r="AP83" s="49" t="s">
+      <c r="AP83" s="48" t="s">
         <v>165</v>
       </c>
       <c r="AQ83" s="13"/>
@@ -10042,14 +10056,14 @@
       </c>
       <c r="L84" s="16"/>
       <c r="M84" s="16"/>
-      <c r="N84" s="45" t="s">
+      <c r="N84" s="44" t="s">
         <v>232</v>
       </c>
       <c r="O84" s="24" t="n">
         <v>4607174579668</v>
       </c>
-      <c r="P84" s="47"/>
-      <c r="Q84" s="47"/>
+      <c r="P84" s="46"/>
+      <c r="Q84" s="46"/>
       <c r="R84" s="16" t="s">
         <v>55</v>
       </c>
@@ -10092,7 +10106,7 @@
         <v>83</v>
       </c>
       <c r="AO84" s="17"/>
-      <c r="AP84" s="49" t="s">
+      <c r="AP84" s="48" t="s">
         <v>165</v>
       </c>
       <c r="AQ84" s="13"/>
@@ -10129,14 +10143,14 @@
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="16"/>
-      <c r="N85" s="48" t="s">
+      <c r="N85" s="47" t="s">
         <v>234</v>
       </c>
       <c r="O85" s="24" t="n">
         <v>4607042438967</v>
       </c>
-      <c r="P85" s="47"/>
-      <c r="Q85" s="47"/>
+      <c r="P85" s="46"/>
+      <c r="Q85" s="46"/>
       <c r="R85" s="16" t="s">
         <v>55</v>
       </c>
@@ -10179,7 +10193,7 @@
         <v>84</v>
       </c>
       <c r="AO85" s="17"/>
-      <c r="AP85" s="49" t="s">
+      <c r="AP85" s="48" t="s">
         <v>165</v>
       </c>
       <c r="AQ85" s="13"/>
@@ -10216,14 +10230,14 @@
       </c>
       <c r="L86" s="16"/>
       <c r="M86" s="16"/>
-      <c r="N86" s="48" t="s">
+      <c r="N86" s="47" t="s">
         <v>236</v>
       </c>
       <c r="O86" s="24" t="n">
         <v>4607174579248</v>
       </c>
-      <c r="P86" s="47"/>
-      <c r="Q86" s="47"/>
+      <c r="P86" s="46"/>
+      <c r="Q86" s="46"/>
       <c r="R86" s="16" t="s">
         <v>55</v>
       </c>
@@ -10266,7 +10280,7 @@
         <v>85</v>
       </c>
       <c r="AO86" s="17"/>
-      <c r="AP86" s="49" t="s">
+      <c r="AP86" s="48" t="s">
         <v>165</v>
       </c>
       <c r="AQ86" s="13"/>
@@ -10306,15 +10320,15 @@
       <c r="N87" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O87" s="43" t="s">
+      <c r="O87" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="P87" s="43" t="s">
+      <c r="P87" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="Q87" s="43"/>
+      <c r="Q87" s="42"/>
       <c r="R87" s="12"/>
-      <c r="S87" s="50" t="s">
+      <c r="S87" s="49" t="s">
         <v>244</v>
       </c>
       <c r="T87" s="12"/>
@@ -10351,7 +10365,7 @@
         <v>86</v>
       </c>
       <c r="AO87" s="12"/>
-      <c r="AP87" s="51"/>
+      <c r="AP87" s="50"/>
       <c r="AQ87" s="12"/>
     </row>
     <row r="88" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10387,9 +10401,9 @@
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="43"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
       <c r="R88" s="16" t="s">
         <v>252</v>
       </c>
@@ -10429,10 +10443,10 @@
       <c r="AN88" s="19" t="n">
         <v>87</v>
       </c>
-      <c r="AO88" s="52" t="s">
+      <c r="AO88" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="AP88" s="53" t="s">
+      <c r="AP88" s="52" t="s">
         <v>255</v>
       </c>
       <c r="AQ88" s="12"/>
@@ -10469,7 +10483,7 @@
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
-      <c r="N89" s="45" t="s">
+      <c r="N89" s="44" t="s">
         <v>65</v>
       </c>
       <c r="O89" s="25" t="n">
@@ -10477,10 +10491,10 @@
       </c>
       <c r="P89" s="25"/>
       <c r="Q89" s="25"/>
-      <c r="R89" s="45" t="s">
+      <c r="R89" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S89" s="45" t="s">
+      <c r="S89" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T89" s="12"/>
@@ -10556,7 +10570,7 @@
       </c>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
-      <c r="N90" s="45" t="s">
+      <c r="N90" s="44" t="s">
         <v>90</v>
       </c>
       <c r="O90" s="25" t="n">
@@ -10564,10 +10578,10 @@
       </c>
       <c r="P90" s="25"/>
       <c r="Q90" s="25"/>
-      <c r="R90" s="45" t="s">
+      <c r="R90" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S90" s="45" t="s">
+      <c r="S90" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T90" s="12"/>
@@ -10651,10 +10665,10 @@
       </c>
       <c r="P91" s="25"/>
       <c r="Q91" s="25"/>
-      <c r="R91" s="45" t="s">
+      <c r="R91" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S91" s="45" t="s">
+      <c r="S91" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T91" s="12"/>
@@ -10733,15 +10747,15 @@
       <c r="N92" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="O92" s="44" t="n">
+      <c r="O92" s="43" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="45" t="s">
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S92" s="45" t="s">
+      <c r="S92" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T92" s="12"/>
@@ -10825,10 +10839,10 @@
       </c>
       <c r="P93" s="25"/>
       <c r="Q93" s="25"/>
-      <c r="R93" s="45" t="s">
+      <c r="R93" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S93" s="45" t="s">
+      <c r="S93" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T93" s="12"/>
@@ -10912,10 +10926,10 @@
       </c>
       <c r="P94" s="25"/>
       <c r="Q94" s="25"/>
-      <c r="R94" s="45" t="s">
+      <c r="R94" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S94" s="45" t="s">
+      <c r="S94" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T94" s="12"/>
@@ -10999,10 +11013,10 @@
       </c>
       <c r="P95" s="25"/>
       <c r="Q95" s="25"/>
-      <c r="R95" s="45" t="s">
+      <c r="R95" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S95" s="45" t="s">
+      <c r="S95" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T95" s="12"/>
@@ -11081,15 +11095,15 @@
       <c r="N96" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O96" s="43" t="s">
+      <c r="O96" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="P96" s="43" t="s">
+      <c r="P96" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="Q96" s="43"/>
+      <c r="Q96" s="42"/>
       <c r="R96" s="12"/>
-      <c r="S96" s="50" t="s">
+      <c r="S96" s="49" t="s">
         <v>244</v>
       </c>
       <c r="T96" s="12"/>
@@ -11126,7 +11140,7 @@
         <v>95</v>
       </c>
       <c r="AO96" s="12"/>
-      <c r="AP96" s="51"/>
+      <c r="AP96" s="50"/>
       <c r="AQ96" s="12"/>
     </row>
     <row r="97" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11162,9 +11176,9 @@
       <c r="L97" s="16"/>
       <c r="M97" s="16"/>
       <c r="N97" s="16"/>
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
-      <c r="Q97" s="43"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="42"/>
       <c r="R97" s="16" t="s">
         <v>252</v>
       </c>
@@ -11204,10 +11218,10 @@
       <c r="AN97" s="14" t="n">
         <v>96</v>
       </c>
-      <c r="AO97" s="52" t="s">
+      <c r="AO97" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="AP97" s="53" t="s">
+      <c r="AP97" s="52" t="s">
         <v>255</v>
       </c>
       <c r="AQ97" s="12"/>
@@ -11244,18 +11258,18 @@
       </c>
       <c r="L98" s="16"/>
       <c r="M98" s="16"/>
-      <c r="N98" s="45" t="s">
+      <c r="N98" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="O98" s="54" t="n">
+      <c r="O98" s="53" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P98" s="25"/>
       <c r="Q98" s="25"/>
-      <c r="R98" s="55" t="s">
+      <c r="R98" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="S98" s="55" t="s">
+      <c r="S98" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T98" s="12"/>
@@ -11331,7 +11345,7 @@
       </c>
       <c r="L99" s="16"/>
       <c r="M99" s="16"/>
-      <c r="N99" s="45" t="s">
+      <c r="N99" s="44" t="s">
         <v>170</v>
       </c>
       <c r="O99" s="25" t="n">
@@ -11339,10 +11353,10 @@
       </c>
       <c r="P99" s="25"/>
       <c r="Q99" s="25"/>
-      <c r="R99" s="55" t="s">
+      <c r="R99" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="S99" s="55" t="s">
+      <c r="S99" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T99" s="12"/>
@@ -11418,7 +11432,7 @@
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
-      <c r="N100" s="45" t="s">
+      <c r="N100" s="44" t="s">
         <v>172</v>
       </c>
       <c r="O100" s="25" t="n">
@@ -11426,10 +11440,10 @@
       </c>
       <c r="P100" s="25"/>
       <c r="Q100" s="25"/>
-      <c r="R100" s="55" t="s">
+      <c r="R100" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="S100" s="55" t="s">
+      <c r="S100" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T100" s="12"/>
@@ -11505,18 +11519,18 @@
       </c>
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
-      <c r="N101" s="45" t="s">
+      <c r="N101" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="O101" s="56" t="n">
+      <c r="O101" s="55" t="n">
         <v>4607174578449</v>
       </c>
-      <c r="P101" s="56"/>
-      <c r="Q101" s="56"/>
-      <c r="R101" s="55" t="s">
+      <c r="P101" s="55"/>
+      <c r="Q101" s="55"/>
+      <c r="R101" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="S101" s="55" t="s">
+      <c r="S101" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T101" s="12"/>
@@ -11592,18 +11606,18 @@
       </c>
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
-      <c r="N102" s="45" t="s">
+      <c r="N102" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="O102" s="56" t="n">
+      <c r="O102" s="55" t="n">
         <v>4607174578029</v>
       </c>
-      <c r="P102" s="56"/>
-      <c r="Q102" s="56"/>
-      <c r="R102" s="55" t="s">
+      <c r="P102" s="55"/>
+      <c r="Q102" s="55"/>
+      <c r="R102" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="S102" s="55" t="s">
+      <c r="S102" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T102" s="12"/>
@@ -11682,15 +11696,15 @@
       <c r="N103" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O103" s="43" t="s">
+      <c r="O103" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="P103" s="43" t="s">
+      <c r="P103" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="Q103" s="43"/>
+      <c r="Q103" s="42"/>
       <c r="R103" s="12"/>
-      <c r="S103" s="50" t="s">
+      <c r="S103" s="49" t="s">
         <v>244</v>
       </c>
       <c r="T103" s="12"/>
@@ -11727,7 +11741,7 @@
         <v>102</v>
       </c>
       <c r="AO103" s="12"/>
-      <c r="AP103" s="51"/>
+      <c r="AP103" s="50"/>
       <c r="AQ103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11763,10 +11777,10 @@
       <c r="L104" s="16"/>
       <c r="M104" s="16"/>
       <c r="N104" s="16"/>
-      <c r="O104" s="43"/>
-      <c r="P104" s="43"/>
-      <c r="Q104" s="43"/>
-      <c r="R104" s="45" t="s">
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
+      <c r="Q104" s="42"/>
+      <c r="R104" s="44" t="s">
         <v>252</v>
       </c>
       <c r="S104" s="12"/>
@@ -11805,10 +11819,10 @@
       <c r="AN104" s="19" t="n">
         <v>103</v>
       </c>
-      <c r="AO104" s="57" t="s">
+      <c r="AO104" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="AP104" s="53" t="s">
+      <c r="AP104" s="52" t="s">
         <v>255</v>
       </c>
       <c r="AQ104" s="12"/>
@@ -11845,7 +11859,7 @@
       </c>
       <c r="L105" s="16"/>
       <c r="M105" s="16"/>
-      <c r="N105" s="45" t="s">
+      <c r="N105" s="44" t="s">
         <v>299</v>
       </c>
       <c r="O105" s="25" t="n">
@@ -11853,10 +11867,10 @@
       </c>
       <c r="P105" s="25"/>
       <c r="Q105" s="25"/>
-      <c r="R105" s="45" t="s">
+      <c r="R105" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S105" s="55" t="s">
+      <c r="S105" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T105" s="12"/>
@@ -11935,15 +11949,15 @@
       <c r="N106" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O106" s="44" t="s">
+      <c r="O106" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="P106" s="44" t="s">
+      <c r="P106" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="Q106" s="44"/>
-      <c r="R106" s="55"/>
-      <c r="S106" s="50" t="s">
+      <c r="Q106" s="43"/>
+      <c r="R106" s="54"/>
+      <c r="S106" s="49" t="s">
         <v>244</v>
       </c>
       <c r="T106" s="12"/>
@@ -11980,7 +11994,7 @@
         <v>105</v>
       </c>
       <c r="AO106" s="12"/>
-      <c r="AP106" s="51"/>
+      <c r="AP106" s="50"/>
       <c r="AQ106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12016,10 +12030,10 @@
       <c r="L107" s="16"/>
       <c r="M107" s="16"/>
       <c r="N107" s="16"/>
-      <c r="O107" s="44"/>
-      <c r="P107" s="44"/>
-      <c r="Q107" s="44"/>
-      <c r="R107" s="45" t="s">
+      <c r="O107" s="43"/>
+      <c r="P107" s="43"/>
+      <c r="Q107" s="43"/>
+      <c r="R107" s="44" t="s">
         <v>252</v>
       </c>
       <c r="S107" s="12"/>
@@ -12058,10 +12072,10 @@
       <c r="AN107" s="14" t="n">
         <v>106</v>
       </c>
-      <c r="AO107" s="52" t="s">
+      <c r="AO107" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="AP107" s="53" t="s">
+      <c r="AP107" s="52" t="s">
         <v>255</v>
       </c>
       <c r="AQ107" s="12"/>
@@ -12101,15 +12115,15 @@
       <c r="N108" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="O108" s="47" t="n">
+      <c r="O108" s="46" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="P108" s="47"/>
-      <c r="Q108" s="47"/>
-      <c r="R108" s="45" t="s">
+      <c r="P108" s="46"/>
+      <c r="Q108" s="46"/>
+      <c r="R108" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S108" s="55" t="s">
+      <c r="S108" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T108" s="12"/>
@@ -12188,15 +12202,15 @@
       <c r="N109" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="O109" s="47" t="n">
+      <c r="O109" s="46" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="P109" s="47"/>
-      <c r="Q109" s="47"/>
-      <c r="R109" s="45" t="s">
+      <c r="P109" s="46"/>
+      <c r="Q109" s="46"/>
+      <c r="R109" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S109" s="55" t="s">
+      <c r="S109" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T109" s="12"/>
@@ -12275,15 +12289,15 @@
       <c r="N110" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O110" s="44" t="s">
+      <c r="O110" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="P110" s="44" t="s">
+      <c r="P110" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="Q110" s="44"/>
+      <c r="Q110" s="43"/>
       <c r="R110" s="12"/>
-      <c r="S110" s="50" t="s">
+      <c r="S110" s="49" t="s">
         <v>244</v>
       </c>
       <c r="T110" s="12"/>
@@ -12346,26 +12360,26 @@
       <c r="H111" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="I111" s="58" t="s">
+      <c r="I111" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J111" s="58"/>
+      <c r="J111" s="57"/>
       <c r="K111" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L111" s="16"/>
       <c r="M111" s="16"/>
       <c r="N111" s="16"/>
-      <c r="O111" s="43"/>
-      <c r="P111" s="43"/>
-      <c r="Q111" s="43"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
       <c r="R111" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S111" s="12"/>
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
-      <c r="V111" s="39"/>
+      <c r="V111" s="38"/>
       <c r="W111" s="12"/>
       <c r="X111" s="12" t="s">
         <v>319</v>
@@ -12398,7 +12412,7 @@
       <c r="AN111" s="14" t="n">
         <v>110</v>
       </c>
-      <c r="AO111" s="52" t="s">
+      <c r="AO111" s="51" t="s">
         <v>320</v>
       </c>
       <c r="AP111" s="12"/>
@@ -12439,13 +12453,13 @@
       <c r="N112" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O112" s="43" t="s">
+      <c r="O112" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="P112" s="43" t="s">
+      <c r="P112" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="Q112" s="43"/>
+      <c r="Q112" s="42"/>
       <c r="R112" s="12" t="s">
         <v>55</v>
       </c>
@@ -12454,7 +12468,7 @@
       </c>
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
-      <c r="V112" s="39"/>
+      <c r="V112" s="38"/>
       <c r="W112" s="12"/>
       <c r="X112" s="12" t="s">
         <v>319</v>
@@ -12500,83 +12514,83 @@
       <c r="B113" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C113" s="59" t="s">
+      <c r="C113" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D113" s="60" t="s">
+      <c r="D113" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="60" t="s">
+      <c r="E113" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="F113" s="60"/>
-      <c r="G113" s="59" t="s">
+      <c r="F113" s="59"/>
+      <c r="G113" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="H113" s="59" t="s">
+      <c r="H113" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="I113" s="61" t="s">
+      <c r="I113" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="J113" s="61"/>
-      <c r="K113" s="61" t="n">
+      <c r="J113" s="60"/>
+      <c r="K113" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="L113" s="61"/>
-      <c r="M113" s="61"/>
-      <c r="N113" s="61"/>
-      <c r="O113" s="62"/>
-      <c r="P113" s="62"/>
-      <c r="Q113" s="62"/>
-      <c r="R113" s="59" t="s">
+      <c r="L113" s="60"/>
+      <c r="M113" s="60"/>
+      <c r="N113" s="60"/>
+      <c r="O113" s="61"/>
+      <c r="P113" s="61"/>
+      <c r="Q113" s="61"/>
+      <c r="R113" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="S113" s="59" t="s">
+      <c r="S113" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="T113" s="59"/>
-      <c r="U113" s="59"/>
-      <c r="V113" s="61" t="s">
+      <c r="T113" s="58"/>
+      <c r="U113" s="58"/>
+      <c r="V113" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="W113" s="59"/>
-      <c r="X113" s="59" t="s">
+      <c r="W113" s="58"/>
+      <c r="X113" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="Y113" s="59"/>
-      <c r="Z113" s="59"/>
+      <c r="Y113" s="58"/>
+      <c r="Z113" s="58"/>
       <c r="AA113" s="17" t="n">
         <v>101</v>
       </c>
-      <c r="AB113" s="59"/>
-      <c r="AC113" s="59"/>
-      <c r="AD113" s="59" t="s">
+      <c r="AB113" s="58"/>
+      <c r="AC113" s="58"/>
+      <c r="AD113" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AE113" s="61" t="s">
+      <c r="AE113" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AF113" s="63" t="n">
+      <c r="AF113" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="AG113" s="61"/>
-      <c r="AH113" s="61"/>
-      <c r="AI113" s="61"/>
-      <c r="AJ113" s="61"/>
-      <c r="AK113" s="61"/>
-      <c r="AL113" s="61"/>
-      <c r="AM113" s="59" t="n">
+      <c r="AG113" s="60"/>
+      <c r="AH113" s="60"/>
+      <c r="AI113" s="60"/>
+      <c r="AJ113" s="60"/>
+      <c r="AK113" s="60"/>
+      <c r="AL113" s="60"/>
+      <c r="AM113" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AN113" s="14" t="n">
         <v>112</v>
       </c>
-      <c r="AO113" s="59"/>
+      <c r="AO113" s="58"/>
       <c r="AP113" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="AQ113" s="59"/>
+      <c r="AQ113" s="58"/>
     </row>
     <row r="114" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="14" t="n">
@@ -12601,23 +12615,23 @@
       <c r="H114" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="I114" s="64" t="s">
+      <c r="I114" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="J114" s="64"/>
-      <c r="K114" s="65"/>
+      <c r="J114" s="63"/>
+      <c r="K114" s="64"/>
       <c r="L114" s="16"/>
       <c r="M114" s="16"/>
       <c r="N114" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="O114" s="43" t="n">
+      <c r="O114" s="42" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="P114" s="43" t="s">
+      <c r="P114" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="Q114" s="43"/>
+      <c r="Q114" s="42"/>
       <c r="R114" s="12" t="s">
         <v>55</v>
       </c>
@@ -12626,7 +12640,7 @@
       </c>
       <c r="T114" s="12"/>
       <c r="U114" s="12"/>
-      <c r="V114" s="39"/>
+      <c r="V114" s="38"/>
       <c r="W114" s="12"/>
       <c r="X114" s="12" t="s">
         <v>319</v>
@@ -12690,26 +12704,26 @@
       <c r="H115" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="I115" s="58" t="s">
+      <c r="I115" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J115" s="58"/>
+      <c r="J115" s="57"/>
       <c r="K115" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
-      <c r="O115" s="44"/>
-      <c r="P115" s="44"/>
-      <c r="Q115" s="44"/>
+      <c r="O115" s="43"/>
+      <c r="P115" s="43"/>
+      <c r="Q115" s="43"/>
       <c r="R115" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
       <c r="U115" s="12"/>
-      <c r="V115" s="39"/>
+      <c r="V115" s="38"/>
       <c r="W115" s="12"/>
       <c r="X115" s="12" t="s">
         <v>319</v>
@@ -12735,7 +12749,7 @@
       <c r="AI115" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="AJ115" s="61" t="s">
+      <c r="AJ115" s="60" t="s">
         <v>334</v>
       </c>
       <c r="AK115" s="16"/>
@@ -12746,7 +12760,7 @@
       <c r="AN115" s="14" t="n">
         <v>114</v>
       </c>
-      <c r="AO115" s="52" t="s">
+      <c r="AO115" s="51" t="s">
         <v>335</v>
       </c>
       <c r="AP115" s="12"/>
@@ -12787,20 +12801,20 @@
       <c r="N116" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="O116" s="43" t="n">
+      <c r="O116" s="42" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="P116" s="43"/>
-      <c r="Q116" s="43"/>
+      <c r="P116" s="42"/>
+      <c r="Q116" s="42"/>
       <c r="R116" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S116" s="55" t="s">
+      <c r="S116" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T116" s="12"/>
       <c r="U116" s="12"/>
-      <c r="V116" s="39"/>
+      <c r="V116" s="38"/>
       <c r="W116" s="12"/>
       <c r="X116" s="12" t="s">
         <v>319</v>
@@ -12874,20 +12888,20 @@
       <c r="N117" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="O117" s="43" t="n">
+      <c r="O117" s="42" t="n">
         <v>5449000012203</v>
       </c>
-      <c r="P117" s="43"/>
-      <c r="Q117" s="43"/>
+      <c r="P117" s="42"/>
+      <c r="Q117" s="42"/>
       <c r="R117" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S117" s="55" t="s">
+      <c r="S117" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T117" s="12"/>
       <c r="U117" s="12"/>
-      <c r="V117" s="39"/>
+      <c r="V117" s="38"/>
       <c r="W117" s="12"/>
       <c r="X117" s="12" t="s">
         <v>319</v>
@@ -12961,20 +12975,20 @@
       <c r="N118" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="O118" s="66" t="n">
+      <c r="O118" s="65" t="n">
         <v>5449000052926</v>
       </c>
-      <c r="P118" s="43"/>
-      <c r="Q118" s="43"/>
+      <c r="P118" s="42"/>
+      <c r="Q118" s="42"/>
       <c r="R118" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S118" s="55" t="s">
+      <c r="S118" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T118" s="12"/>
       <c r="U118" s="12"/>
-      <c r="V118" s="39"/>
+      <c r="V118" s="38"/>
       <c r="W118" s="12"/>
       <c r="X118" s="12" t="s">
         <v>319</v>
@@ -13012,7 +13026,7 @@
         <v>332</v>
       </c>
       <c r="AQ118" s="12"/>
-      <c r="AR118" s="67"/>
+      <c r="AR118" s="66"/>
     </row>
     <row r="119" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="19" t="n">
@@ -13037,26 +13051,26 @@
       <c r="H119" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="I119" s="58" t="s">
+      <c r="I119" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J119" s="58"/>
+      <c r="J119" s="57"/>
       <c r="K119" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
-      <c r="O119" s="43"/>
-      <c r="P119" s="43"/>
-      <c r="Q119" s="43"/>
+      <c r="O119" s="42"/>
+      <c r="P119" s="42"/>
+      <c r="Q119" s="42"/>
       <c r="R119" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S119" s="12"/>
       <c r="T119" s="12"/>
       <c r="U119" s="12"/>
-      <c r="V119" s="39"/>
+      <c r="V119" s="38"/>
       <c r="W119" s="12"/>
       <c r="X119" s="12" t="s">
         <v>319</v>
@@ -13089,7 +13103,7 @@
       <c r="AN119" s="14" t="n">
         <v>118</v>
       </c>
-      <c r="AO119" s="52" t="s">
+      <c r="AO119" s="51" t="s">
         <v>344</v>
       </c>
       <c r="AP119" s="12"/>
@@ -13130,13 +13144,13 @@
       <c r="N120" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O120" s="43" t="s">
+      <c r="O120" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="P120" s="43" t="s">
+      <c r="P120" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="Q120" s="43"/>
+      <c r="Q120" s="42"/>
       <c r="R120" s="12" t="s">
         <v>55</v>
       </c>
@@ -13145,7 +13159,7 @@
       </c>
       <c r="T120" s="12"/>
       <c r="U120" s="12"/>
-      <c r="V120" s="39"/>
+      <c r="V120" s="38"/>
       <c r="W120" s="12"/>
       <c r="X120" s="12" t="s">
         <v>319</v>
@@ -13191,83 +13205,83 @@
       <c r="B121" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C121" s="59" t="s">
+      <c r="C121" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D121" s="60" t="s">
+      <c r="D121" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E121" s="60" t="s">
+      <c r="E121" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="59" t="s">
+      <c r="F121" s="59"/>
+      <c r="G121" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="H121" s="59" t="s">
+      <c r="H121" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="I121" s="61" t="s">
+      <c r="I121" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61" t="n">
+      <c r="J121" s="60"/>
+      <c r="K121" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="L121" s="61"/>
-      <c r="M121" s="61"/>
-      <c r="N121" s="61"/>
-      <c r="O121" s="62"/>
-      <c r="P121" s="62"/>
-      <c r="Q121" s="62"/>
-      <c r="R121" s="59" t="s">
+      <c r="L121" s="60"/>
+      <c r="M121" s="60"/>
+      <c r="N121" s="60"/>
+      <c r="O121" s="61"/>
+      <c r="P121" s="61"/>
+      <c r="Q121" s="61"/>
+      <c r="R121" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="S121" s="59" t="s">
+      <c r="S121" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="T121" s="59"/>
-      <c r="U121" s="59"/>
-      <c r="V121" s="61" t="s">
+      <c r="T121" s="58"/>
+      <c r="U121" s="58"/>
+      <c r="V121" s="60" t="s">
         <v>349</v>
       </c>
-      <c r="W121" s="59"/>
-      <c r="X121" s="59" t="s">
+      <c r="W121" s="58"/>
+      <c r="X121" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="Y121" s="59"/>
-      <c r="Z121" s="59"/>
+      <c r="Y121" s="58"/>
+      <c r="Z121" s="58"/>
       <c r="AA121" s="17" t="n">
         <v>102</v>
       </c>
-      <c r="AB121" s="59"/>
-      <c r="AC121" s="59"/>
-      <c r="AD121" s="59" t="s">
+      <c r="AB121" s="58"/>
+      <c r="AC121" s="58"/>
+      <c r="AD121" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AE121" s="61" t="s">
+      <c r="AE121" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AF121" s="63" t="n">
+      <c r="AF121" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="AG121" s="61"/>
-      <c r="AH121" s="61"/>
-      <c r="AI121" s="61"/>
-      <c r="AJ121" s="61"/>
-      <c r="AK121" s="61"/>
-      <c r="AL121" s="61"/>
-      <c r="AM121" s="59" t="n">
+      <c r="AG121" s="60"/>
+      <c r="AH121" s="60"/>
+      <c r="AI121" s="60"/>
+      <c r="AJ121" s="60"/>
+      <c r="AK121" s="60"/>
+      <c r="AL121" s="60"/>
+      <c r="AM121" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AN121" s="14" t="n">
         <v>120</v>
       </c>
-      <c r="AO121" s="59"/>
-      <c r="AP121" s="59" t="s">
+      <c r="AO121" s="58"/>
+      <c r="AP121" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="AQ121" s="59"/>
+      <c r="AQ121" s="58"/>
     </row>
     <row r="122" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="14" t="n">
@@ -13279,24 +13293,24 @@
       <c r="C122" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D122" s="68" t="s">
+      <c r="D122" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="E122" s="68" t="s">
+      <c r="E122" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="F122" s="68"/>
+      <c r="F122" s="67"/>
       <c r="G122" s="16" t="s">
         <v>350</v>
       </c>
       <c r="H122" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="I122" s="64" t="s">
+      <c r="I122" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="J122" s="64"/>
-      <c r="K122" s="65"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="64"/>
       <c r="L122" s="16"/>
       <c r="M122" s="16"/>
       <c r="N122" s="16" t="s">
@@ -13317,7 +13331,7 @@
       </c>
       <c r="T122" s="12"/>
       <c r="U122" s="12"/>
-      <c r="V122" s="39"/>
+      <c r="V122" s="38"/>
       <c r="W122" s="12"/>
       <c r="X122" s="12" t="s">
         <v>319</v>
@@ -13381,26 +13395,26 @@
       <c r="H123" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="I123" s="58" t="s">
+      <c r="I123" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J123" s="58"/>
+      <c r="J123" s="57"/>
       <c r="K123" s="16" t="n">
         <v>2</v>
       </c>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
       <c r="N123" s="16"/>
-      <c r="O123" s="44"/>
-      <c r="P123" s="44"/>
-      <c r="Q123" s="44"/>
+      <c r="O123" s="43"/>
+      <c r="P123" s="43"/>
+      <c r="Q123" s="43"/>
       <c r="R123" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S123" s="12"/>
       <c r="T123" s="12"/>
       <c r="U123" s="12"/>
-      <c r="V123" s="39"/>
+      <c r="V123" s="38"/>
       <c r="W123" s="12"/>
       <c r="X123" s="12" t="s">
         <v>319</v>
@@ -13426,7 +13440,7 @@
       <c r="AI123" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="AJ123" s="61" t="s">
+      <c r="AJ123" s="60" t="s">
         <v>355</v>
       </c>
       <c r="AK123" s="16"/>
@@ -13437,7 +13451,7 @@
       <c r="AN123" s="14" t="n">
         <v>122</v>
       </c>
-      <c r="AO123" s="52" t="s">
+      <c r="AO123" s="51" t="s">
         <v>356</v>
       </c>
       <c r="AP123" s="12"/>
@@ -13486,12 +13500,12 @@
       <c r="R124" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S124" s="55" t="s">
+      <c r="S124" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T124" s="12"/>
       <c r="U124" s="12"/>
-      <c r="V124" s="39"/>
+      <c r="V124" s="38"/>
       <c r="W124" s="12"/>
       <c r="X124" s="12" t="s">
         <v>319</v>
@@ -13573,12 +13587,12 @@
       <c r="R125" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S125" s="55" t="s">
+      <c r="S125" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T125" s="12"/>
       <c r="U125" s="12"/>
-      <c r="V125" s="39"/>
+      <c r="V125" s="38"/>
       <c r="W125" s="12"/>
       <c r="X125" s="12" t="s">
         <v>319</v>
@@ -13640,26 +13654,26 @@
       <c r="H126" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="I126" s="58" t="s">
+      <c r="I126" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J126" s="58"/>
+      <c r="J126" s="57"/>
       <c r="K126" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L126" s="16"/>
       <c r="M126" s="16"/>
       <c r="N126" s="16"/>
-      <c r="O126" s="43"/>
-      <c r="P126" s="43"/>
-      <c r="Q126" s="43"/>
+      <c r="O126" s="42"/>
+      <c r="P126" s="42"/>
+      <c r="Q126" s="42"/>
       <c r="R126" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S126" s="12"/>
       <c r="T126" s="12"/>
       <c r="U126" s="12"/>
-      <c r="V126" s="39"/>
+      <c r="V126" s="38"/>
       <c r="W126" s="12"/>
       <c r="X126" s="12" t="s">
         <v>364</v>
@@ -13692,7 +13706,7 @@
       <c r="AN126" s="19" t="n">
         <v>125</v>
       </c>
-      <c r="AO126" s="52" t="s">
+      <c r="AO126" s="51" t="s">
         <v>365</v>
       </c>
       <c r="AP126" s="12"/>
@@ -13733,13 +13747,13 @@
       <c r="N127" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O127" s="43" t="s">
+      <c r="O127" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="P127" s="43" t="s">
+      <c r="P127" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="Q127" s="43"/>
+      <c r="Q127" s="42"/>
       <c r="R127" s="12" t="s">
         <v>55</v>
       </c>
@@ -13748,7 +13762,7 @@
       </c>
       <c r="T127" s="12"/>
       <c r="U127" s="12"/>
-      <c r="V127" s="39"/>
+      <c r="V127" s="38"/>
       <c r="W127" s="12"/>
       <c r="X127" s="12" t="s">
         <v>364</v>
@@ -13794,83 +13808,83 @@
       <c r="B128" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="59" t="s">
+      <c r="C128" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D128" s="60" t="s">
+      <c r="D128" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E128" s="60" t="s">
+      <c r="E128" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="F128" s="60"/>
-      <c r="G128" s="59" t="s">
+      <c r="F128" s="59"/>
+      <c r="G128" s="58" t="s">
         <v>368</v>
       </c>
-      <c r="H128" s="59" t="s">
+      <c r="H128" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="I128" s="61" t="s">
+      <c r="I128" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="J128" s="61"/>
-      <c r="K128" s="61" t="n">
+      <c r="J128" s="60"/>
+      <c r="K128" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="L128" s="61"/>
-      <c r="M128" s="61"/>
-      <c r="N128" s="61"/>
-      <c r="O128" s="62"/>
-      <c r="P128" s="62"/>
-      <c r="Q128" s="62"/>
-      <c r="R128" s="59" t="s">
+      <c r="L128" s="60"/>
+      <c r="M128" s="60"/>
+      <c r="N128" s="60"/>
+      <c r="O128" s="61"/>
+      <c r="P128" s="61"/>
+      <c r="Q128" s="61"/>
+      <c r="R128" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="S128" s="59" t="s">
+      <c r="S128" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="T128" s="59"/>
-      <c r="U128" s="59"/>
-      <c r="V128" s="61" t="s">
+      <c r="T128" s="58"/>
+      <c r="U128" s="58"/>
+      <c r="V128" s="60" t="s">
         <v>370</v>
       </c>
-      <c r="W128" s="59"/>
-      <c r="X128" s="59" t="s">
+      <c r="W128" s="58"/>
+      <c r="X128" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="Y128" s="59"/>
-      <c r="Z128" s="59"/>
+      <c r="Y128" s="58"/>
+      <c r="Z128" s="58"/>
       <c r="AA128" s="17" t="n">
         <v>1101</v>
       </c>
-      <c r="AB128" s="59"/>
-      <c r="AC128" s="59"/>
-      <c r="AD128" s="59" t="s">
+      <c r="AB128" s="58"/>
+      <c r="AC128" s="58"/>
+      <c r="AD128" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AE128" s="61" t="s">
+      <c r="AE128" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AF128" s="63" t="n">
+      <c r="AF128" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="AG128" s="61"/>
-      <c r="AH128" s="61"/>
-      <c r="AI128" s="61"/>
-      <c r="AJ128" s="61"/>
-      <c r="AK128" s="61"/>
-      <c r="AL128" s="61"/>
-      <c r="AM128" s="59" t="n">
+      <c r="AG128" s="60"/>
+      <c r="AH128" s="60"/>
+      <c r="AI128" s="60"/>
+      <c r="AJ128" s="60"/>
+      <c r="AK128" s="60"/>
+      <c r="AL128" s="60"/>
+      <c r="AM128" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AN128" s="19" t="n">
         <v>127</v>
       </c>
-      <c r="AO128" s="59"/>
-      <c r="AP128" s="59" t="s">
+      <c r="AO128" s="58"/>
+      <c r="AP128" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="AQ128" s="59"/>
+      <c r="AQ128" s="58"/>
     </row>
     <row r="129" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="19" t="n">
@@ -13882,17 +13896,17 @@
       <c r="C129" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D129" s="68" t="s">
+      <c r="D129" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="E129" s="68" t="s">
+      <c r="E129" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="F129" s="68"/>
+      <c r="F129" s="67"/>
       <c r="G129" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="H129" s="39" t="s">
+      <c r="H129" s="38" t="s">
         <v>372</v>
       </c>
       <c r="I129" s="16" t="s">
@@ -13905,16 +13919,16 @@
       <c r="L129" s="16"/>
       <c r="M129" s="16"/>
       <c r="N129" s="16"/>
-      <c r="O129" s="43"/>
-      <c r="P129" s="43"/>
-      <c r="Q129" s="43"/>
+      <c r="O129" s="42"/>
+      <c r="P129" s="42"/>
+      <c r="Q129" s="42"/>
       <c r="R129" s="12" t="s">
         <v>55</v>
       </c>
       <c r="S129" s="12"/>
       <c r="T129" s="12"/>
       <c r="U129" s="12"/>
-      <c r="V129" s="39"/>
+      <c r="V129" s="38"/>
       <c r="W129" s="12"/>
       <c r="X129" s="12" t="s">
         <v>364</v>
@@ -13947,7 +13961,7 @@
       <c r="AN129" s="14" t="n">
         <v>128</v>
       </c>
-      <c r="AO129" s="52" t="s">
+      <c r="AO129" s="51" t="s">
         <v>374</v>
       </c>
       <c r="AP129" s="12" t="s">
@@ -13978,17 +13992,17 @@
       <c r="H130" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="I130" s="64" t="s">
+      <c r="I130" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="J130" s="64"/>
-      <c r="K130" s="65"/>
+      <c r="J130" s="63"/>
+      <c r="K130" s="64"/>
       <c r="L130" s="16"/>
       <c r="M130" s="16"/>
-      <c r="N130" s="45" t="s">
+      <c r="N130" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="O130" s="54" t="n">
+      <c r="O130" s="53" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P130" s="25"/>
@@ -14001,7 +14015,7 @@
       </c>
       <c r="T130" s="12"/>
       <c r="U130" s="12"/>
-      <c r="V130" s="39"/>
+      <c r="V130" s="38"/>
       <c r="W130" s="12"/>
       <c r="X130" s="12" t="s">
         <v>364</v>
@@ -14065,14 +14079,14 @@
       <c r="H131" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="I131" s="64" t="s">
+      <c r="I131" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="J131" s="64"/>
-      <c r="K131" s="65"/>
+      <c r="J131" s="63"/>
+      <c r="K131" s="64"/>
       <c r="L131" s="16"/>
       <c r="M131" s="16"/>
-      <c r="N131" s="45" t="s">
+      <c r="N131" s="44" t="s">
         <v>170</v>
       </c>
       <c r="O131" s="25" t="n">
@@ -14088,7 +14102,7 @@
       </c>
       <c r="T131" s="12"/>
       <c r="U131" s="12"/>
-      <c r="V131" s="39"/>
+      <c r="V131" s="38"/>
       <c r="W131" s="12"/>
       <c r="X131" s="12" t="s">
         <v>364</v>
@@ -14152,26 +14166,26 @@
       <c r="H132" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="I132" s="58" t="s">
+      <c r="I132" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J132" s="58"/>
+      <c r="J132" s="57"/>
       <c r="K132" s="16" t="n">
         <v>4</v>
       </c>
       <c r="L132" s="16"/>
       <c r="M132" s="16"/>
       <c r="N132" s="16"/>
-      <c r="O132" s="44"/>
-      <c r="P132" s="44"/>
-      <c r="Q132" s="44"/>
+      <c r="O132" s="43"/>
+      <c r="P132" s="43"/>
+      <c r="Q132" s="43"/>
       <c r="R132" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S132" s="12"/>
       <c r="T132" s="12"/>
       <c r="U132" s="12"/>
-      <c r="V132" s="39"/>
+      <c r="V132" s="38"/>
       <c r="W132" s="12"/>
       <c r="X132" s="12" t="s">
         <v>364</v>
@@ -14197,7 +14211,7 @@
       <c r="AI132" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="AJ132" s="61" t="s">
+      <c r="AJ132" s="60" t="s">
         <v>383</v>
       </c>
       <c r="AK132" s="16"/>
@@ -14208,7 +14222,7 @@
       <c r="AN132" s="19" t="n">
         <v>131</v>
       </c>
-      <c r="AO132" s="52" t="s">
+      <c r="AO132" s="51" t="s">
         <v>384</v>
       </c>
       <c r="AP132" s="12"/>
@@ -14246,10 +14260,10 @@
       </c>
       <c r="L133" s="16"/>
       <c r="M133" s="16"/>
-      <c r="N133" s="45" t="s">
+      <c r="N133" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="O133" s="54" t="n">
+      <c r="O133" s="53" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P133" s="25"/>
@@ -14257,12 +14271,12 @@
       <c r="R133" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S133" s="55" t="s">
+      <c r="S133" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T133" s="12"/>
       <c r="U133" s="12"/>
-      <c r="V133" s="39"/>
+      <c r="V133" s="38"/>
       <c r="W133" s="12"/>
       <c r="X133" s="12" t="s">
         <v>364</v>
@@ -14333,7 +14347,7 @@
       </c>
       <c r="L134" s="16"/>
       <c r="M134" s="16"/>
-      <c r="N134" s="45" t="s">
+      <c r="N134" s="44" t="s">
         <v>170</v>
       </c>
       <c r="O134" s="25" t="n">
@@ -14344,12 +14358,12 @@
       <c r="R134" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S134" s="55" t="s">
+      <c r="S134" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T134" s="12"/>
       <c r="U134" s="12"/>
-      <c r="V134" s="39"/>
+      <c r="V134" s="38"/>
       <c r="W134" s="12"/>
       <c r="X134" s="12" t="s">
         <v>364</v>
@@ -14420,7 +14434,7 @@
       </c>
       <c r="L135" s="16"/>
       <c r="M135" s="16"/>
-      <c r="N135" s="45" t="s">
+      <c r="N135" s="44" t="s">
         <v>172</v>
       </c>
       <c r="O135" s="25" t="n">
@@ -14431,12 +14445,12 @@
       <c r="R135" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S135" s="55" t="s">
+      <c r="S135" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T135" s="12"/>
       <c r="U135" s="12"/>
-      <c r="V135" s="39"/>
+      <c r="V135" s="38"/>
       <c r="W135" s="12"/>
       <c r="X135" s="12" t="s">
         <v>364</v>
@@ -14507,7 +14521,7 @@
       </c>
       <c r="L136" s="16"/>
       <c r="M136" s="16"/>
-      <c r="N136" s="45" t="s">
+      <c r="N136" s="44" t="s">
         <v>174</v>
       </c>
       <c r="O136" s="25" t="n">
@@ -14518,12 +14532,12 @@
       <c r="R136" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S136" s="55" t="s">
+      <c r="S136" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T136" s="12"/>
       <c r="U136" s="12"/>
-      <c r="V136" s="39"/>
+      <c r="V136" s="38"/>
       <c r="W136" s="12"/>
       <c r="X136" s="12" t="s">
         <v>364</v>
@@ -14585,26 +14599,26 @@
       <c r="H137" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="I137" s="58" t="s">
+      <c r="I137" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J137" s="58"/>
+      <c r="J137" s="57"/>
       <c r="K137" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L137" s="16"/>
       <c r="M137" s="16"/>
       <c r="N137" s="16"/>
-      <c r="O137" s="43"/>
-      <c r="P137" s="43"/>
-      <c r="Q137" s="43"/>
+      <c r="O137" s="42"/>
+      <c r="P137" s="42"/>
+      <c r="Q137" s="42"/>
       <c r="R137" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S137" s="12"/>
       <c r="T137" s="12"/>
       <c r="U137" s="12"/>
-      <c r="V137" s="39"/>
+      <c r="V137" s="38"/>
       <c r="W137" s="12"/>
       <c r="X137" s="12" t="s">
         <v>395</v>
@@ -14635,7 +14649,7 @@
       <c r="AN137" s="14" t="n">
         <v>136</v>
       </c>
-      <c r="AO137" s="52" t="s">
+      <c r="AO137" s="51" t="s">
         <v>396</v>
       </c>
       <c r="AP137" s="12"/>
@@ -14676,13 +14690,13 @@
       <c r="N138" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O138" s="43" t="s">
+      <c r="O138" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="P138" s="44" t="s">
+      <c r="P138" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="Q138" s="43"/>
+      <c r="Q138" s="42"/>
       <c r="R138" s="12" t="s">
         <v>55</v>
       </c>
@@ -14691,7 +14705,7 @@
       </c>
       <c r="T138" s="12"/>
       <c r="U138" s="12"/>
-      <c r="V138" s="39"/>
+      <c r="V138" s="38"/>
       <c r="W138" s="12"/>
       <c r="X138" s="12" t="s">
         <v>395</v>
@@ -14735,81 +14749,81 @@
       <c r="B139" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C139" s="59" t="s">
+      <c r="C139" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D139" s="60" t="s">
+      <c r="D139" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E139" s="60" t="s">
+      <c r="E139" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="F139" s="60"/>
-      <c r="G139" s="59" t="s">
+      <c r="F139" s="59"/>
+      <c r="G139" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="H139" s="59" t="s">
+      <c r="H139" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="I139" s="61" t="s">
+      <c r="I139" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="J139" s="61"/>
-      <c r="K139" s="61" t="n">
+      <c r="J139" s="60"/>
+      <c r="K139" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="L139" s="61"/>
-      <c r="M139" s="61"/>
-      <c r="N139" s="61"/>
-      <c r="O139" s="62"/>
-      <c r="P139" s="62"/>
-      <c r="Q139" s="62"/>
-      <c r="R139" s="59" t="s">
+      <c r="L139" s="60"/>
+      <c r="M139" s="60"/>
+      <c r="N139" s="60"/>
+      <c r="O139" s="61"/>
+      <c r="P139" s="61"/>
+      <c r="Q139" s="61"/>
+      <c r="R139" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="S139" s="59" t="s">
+      <c r="S139" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="T139" s="59"/>
-      <c r="U139" s="59"/>
-      <c r="V139" s="61" t="s">
+      <c r="T139" s="58"/>
+      <c r="U139" s="58"/>
+      <c r="V139" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="W139" s="59"/>
-      <c r="X139" s="59" t="s">
+      <c r="W139" s="58"/>
+      <c r="X139" s="58" t="s">
         <v>395</v>
       </c>
-      <c r="Y139" s="59"/>
-      <c r="Z139" s="59"/>
+      <c r="Y139" s="58"/>
+      <c r="Z139" s="58"/>
       <c r="AA139" s="17"/>
-      <c r="AB139" s="59"/>
-      <c r="AC139" s="59"/>
-      <c r="AD139" s="59" t="s">
+      <c r="AB139" s="58"/>
+      <c r="AC139" s="58"/>
+      <c r="AD139" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AE139" s="61" t="s">
+      <c r="AE139" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AF139" s="63" t="n">
+      <c r="AF139" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="AG139" s="61"/>
-      <c r="AH139" s="61"/>
-      <c r="AI139" s="61"/>
-      <c r="AJ139" s="61"/>
-      <c r="AK139" s="61"/>
-      <c r="AL139" s="61"/>
-      <c r="AM139" s="59" t="n">
+      <c r="AG139" s="60"/>
+      <c r="AH139" s="60"/>
+      <c r="AI139" s="60"/>
+      <c r="AJ139" s="60"/>
+      <c r="AK139" s="60"/>
+      <c r="AL139" s="60"/>
+      <c r="AM139" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AN139" s="14" t="n">
         <v>138</v>
       </c>
-      <c r="AO139" s="59"/>
-      <c r="AP139" s="59" t="s">
+      <c r="AO139" s="58"/>
+      <c r="AP139" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="AQ139" s="59"/>
+      <c r="AQ139" s="58"/>
     </row>
     <row r="140" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="14" t="n">
@@ -14831,7 +14845,7 @@
       <c r="G140" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="H140" s="39" t="s">
+      <c r="H140" s="38" t="s">
         <v>403</v>
       </c>
       <c r="I140" s="16" t="s">
@@ -14844,16 +14858,16 @@
       <c r="L140" s="16"/>
       <c r="M140" s="16"/>
       <c r="N140" s="16"/>
-      <c r="O140" s="43"/>
-      <c r="P140" s="43"/>
-      <c r="Q140" s="43"/>
+      <c r="O140" s="42"/>
+      <c r="P140" s="42"/>
+      <c r="Q140" s="42"/>
       <c r="R140" s="12" t="s">
         <v>55</v>
       </c>
       <c r="S140" s="12"/>
       <c r="T140" s="12"/>
       <c r="U140" s="12"/>
-      <c r="V140" s="39"/>
+      <c r="V140" s="38"/>
       <c r="W140" s="12"/>
       <c r="X140" s="12" t="s">
         <v>395</v>
@@ -14884,7 +14898,7 @@
       <c r="AN140" s="19" t="n">
         <v>139</v>
       </c>
-      <c r="AO140" s="52" t="s">
+      <c r="AO140" s="51" t="s">
         <v>404</v>
       </c>
       <c r="AP140" s="12" t="s">
@@ -14915,21 +14929,21 @@
       <c r="H141" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="I141" s="64" t="s">
+      <c r="I141" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="J141" s="64"/>
-      <c r="K141" s="65"/>
+      <c r="J141" s="63"/>
+      <c r="K141" s="64"/>
       <c r="L141" s="16"/>
       <c r="M141" s="16"/>
-      <c r="N141" s="45" t="s">
+      <c r="N141" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="O141" s="47" t="n">
+      <c r="O141" s="46" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="P141" s="47"/>
-      <c r="Q141" s="47"/>
+      <c r="P141" s="46"/>
+      <c r="Q141" s="46"/>
       <c r="R141" s="12" t="s">
         <v>55</v>
       </c>
@@ -14938,7 +14952,7 @@
       </c>
       <c r="T141" s="12"/>
       <c r="U141" s="12"/>
-      <c r="V141" s="39"/>
+      <c r="V141" s="38"/>
       <c r="W141" s="12"/>
       <c r="X141" s="12" t="s">
         <v>395</v>
@@ -14973,7 +14987,7 @@
       </c>
       <c r="AO141" s="12"/>
       <c r="AP141" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AQ141" s="12"/>
     </row>
@@ -14995,26 +15009,26 @@
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H142" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="H142" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="I142" s="64" t="s">
+      <c r="I142" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="J142" s="64"/>
-      <c r="K142" s="65"/>
+      <c r="J142" s="63"/>
+      <c r="K142" s="64"/>
       <c r="L142" s="16"/>
       <c r="M142" s="16"/>
-      <c r="N142" s="45" t="s">
+      <c r="N142" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="O142" s="47" t="n">
+      <c r="O142" s="46" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="P142" s="47"/>
-      <c r="Q142" s="47"/>
+      <c r="P142" s="46"/>
+      <c r="Q142" s="46"/>
       <c r="R142" s="12" t="s">
         <v>55</v>
       </c>
@@ -15023,7 +15037,7 @@
       </c>
       <c r="T142" s="12"/>
       <c r="U142" s="12"/>
-      <c r="V142" s="39"/>
+      <c r="V142" s="38"/>
       <c r="W142" s="12"/>
       <c r="X142" s="12" t="s">
         <v>395</v>
@@ -15046,7 +15060,7 @@
       <c r="AH142" s="16"/>
       <c r="AI142" s="16"/>
       <c r="AJ142" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AK142" s="16"/>
       <c r="AL142" s="16"/>
@@ -15058,7 +15072,7 @@
       </c>
       <c r="AO142" s="12"/>
       <c r="AP142" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AQ142" s="12"/>
     </row>
@@ -15076,27 +15090,27 @@
         <v>45</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="H143" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="H143" s="12" t="s">
+      <c r="I143" s="16" t="s">
         <v>414</v>
-      </c>
-      <c r="I143" s="16" t="s">
-        <v>415</v>
       </c>
       <c r="J143" s="16"/>
       <c r="L143" s="16"/>
       <c r="M143" s="16"/>
       <c r="N143" s="16"/>
-      <c r="O143" s="43"/>
-      <c r="P143" s="43"/>
-      <c r="Q143" s="43"/>
+      <c r="O143" s="42"/>
+      <c r="P143" s="42"/>
+      <c r="Q143" s="42"/>
       <c r="R143" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="S143" s="12"/>
       <c r="T143" s="12"/>
@@ -15121,8 +15135,8 @@
       <c r="AG143" s="16"/>
       <c r="AH143" s="16"/>
       <c r="AI143" s="16"/>
-      <c r="AJ143" s="69" t="s">
-        <v>417</v>
+      <c r="AJ143" s="68" t="s">
+        <v>416</v>
       </c>
       <c r="AK143" s="16"/>
       <c r="AL143" s="16"/>
@@ -15132,8 +15146,8 @@
       <c r="AN143" s="14" t="n">
         <v>142</v>
       </c>
-      <c r="AO143" s="52" t="s">
-        <v>418</v>
+      <c r="AO143" s="51" t="s">
+        <v>417</v>
       </c>
       <c r="AP143" s="12"/>
       <c r="AQ143" s="12"/>
@@ -15152,19 +15166,19 @@
         <v>45</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="H144" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="H144" s="16" t="s">
+      <c r="I144" s="69" t="s">
         <v>420</v>
       </c>
-      <c r="I144" s="70" t="s">
-        <v>421</v>
-      </c>
-      <c r="J144" s="70"/>
+      <c r="J144" s="69"/>
       <c r="K144" s="16" t="n">
         <v>0.5</v>
       </c>
@@ -15175,21 +15189,21 @@
       <c r="N144" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O144" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="P144" s="44"/>
-      <c r="Q144" s="44"/>
+      <c r="O144" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="P144" s="43"/>
+      <c r="Q144" s="43"/>
       <c r="R144" s="12"/>
       <c r="S144" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T144" s="12"/>
       <c r="U144" s="12"/>
       <c r="V144" s="12"/>
       <c r="W144" s="12"/>
-      <c r="X144" s="71" t="s">
-        <v>424</v>
+      <c r="X144" s="70" t="s">
+        <v>423</v>
       </c>
       <c r="Y144" s="12"/>
       <c r="Z144" s="12"/>
@@ -15219,7 +15233,7 @@
       </c>
       <c r="AO144" s="12"/>
       <c r="AP144" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AQ144" s="12"/>
     </row>
@@ -15237,17 +15251,17 @@
         <v>45</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="H145" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="H145" s="16" t="s">
+      <c r="I145" s="16" t="s">
         <v>426</v>
-      </c>
-      <c r="I145" s="16" t="s">
-        <v>427</v>
       </c>
       <c r="J145" s="16"/>
       <c r="K145" s="16" t="n">
@@ -15258,21 +15272,21 @@
       <c r="N145" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O145" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="P145" s="43"/>
-      <c r="Q145" s="43"/>
+      <c r="O145" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="P145" s="42"/>
+      <c r="Q145" s="42"/>
       <c r="R145" s="12"/>
       <c r="S145" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T145" s="12"/>
       <c r="U145" s="12"/>
       <c r="V145" s="12"/>
       <c r="W145" s="12"/>
       <c r="X145" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y145" s="12"/>
       <c r="Z145" s="12"/>
@@ -15302,7 +15316,7 @@
       </c>
       <c r="AO145" s="12"/>
       <c r="AP145" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AQ145" s="12"/>
     </row>
@@ -15324,36 +15338,36 @@
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="H146" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="H146" s="45" t="s">
-        <v>430</v>
-      </c>
-      <c r="I146" s="45" t="s">
+      <c r="I146" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="J146" s="45"/>
-      <c r="K146" s="45" t="n">
+      <c r="J146" s="44"/>
+      <c r="K146" s="44" t="n">
         <v>1</v>
       </c>
       <c r="L146" s="16"/>
       <c r="M146" s="16"/>
       <c r="N146" s="16"/>
-      <c r="O146" s="43"/>
-      <c r="P146" s="43"/>
-      <c r="Q146" s="43"/>
+      <c r="O146" s="42"/>
+      <c r="P146" s="42"/>
+      <c r="Q146" s="42"/>
       <c r="R146" s="12"/>
-      <c r="S146" s="72" t="s">
-        <v>431</v>
+      <c r="S146" s="71" t="s">
+        <v>430</v>
       </c>
       <c r="T146" s="12"/>
       <c r="U146" s="12"/>
-      <c r="V146" s="61" t="s">
-        <v>432</v>
+      <c r="V146" s="60" t="s">
+        <v>431</v>
       </c>
       <c r="W146" s="12"/>
       <c r="X146" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y146" s="12"/>
       <c r="Z146" s="12"/>
@@ -15372,10 +15386,10 @@
       <c r="AG146" s="16"/>
       <c r="AH146" s="16"/>
       <c r="AI146" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ146" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ146" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK146" s="16"/>
       <c r="AL146" s="16"/>
@@ -15386,8 +15400,8 @@
         <v>145</v>
       </c>
       <c r="AO146" s="12"/>
-      <c r="AP146" s="74" t="s">
-        <v>434</v>
+      <c r="AP146" s="73" t="s">
+        <v>433</v>
       </c>
       <c r="AQ146" s="12"/>
     </row>
@@ -15409,28 +15423,28 @@
       </c>
       <c r="F147" s="15"/>
       <c r="G147" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="H147" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H147" s="16" t="s">
+      <c r="I147" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="I147" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="J147" s="58"/>
-      <c r="K147" s="70"/>
-      <c r="L147" s="45" t="n">
+      <c r="J147" s="57"/>
+      <c r="K147" s="69"/>
+      <c r="L147" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="M147" s="45" t="n">
+      <c r="M147" s="44" t="n">
         <v>23</v>
       </c>
       <c r="N147" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O147" s="43"/>
-      <c r="P147" s="43"/>
-      <c r="Q147" s="43"/>
+      <c r="O147" s="42"/>
+      <c r="P147" s="42"/>
+      <c r="Q147" s="42"/>
       <c r="R147" s="12"/>
       <c r="S147" s="12"/>
       <c r="T147" s="12"/>
@@ -15438,7 +15452,7 @@
       <c r="V147" s="12"/>
       <c r="W147" s="12"/>
       <c r="X147" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y147" s="12"/>
       <c r="Z147" s="12"/>
@@ -15456,11 +15470,11 @@
       </c>
       <c r="AG147" s="16"/>
       <c r="AH147" s="16"/>
-      <c r="AI147" s="75" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ147" s="73" t="s">
-        <v>433</v>
+      <c r="AI147" s="74" t="s">
+        <v>418</v>
+      </c>
+      <c r="AJ147" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK147" s="16"/>
       <c r="AL147" s="16"/>
@@ -15471,8 +15485,8 @@
         <v>146</v>
       </c>
       <c r="AO147" s="12"/>
-      <c r="AP147" s="74" t="s">
-        <v>434</v>
+      <c r="AP147" s="73" t="s">
+        <v>433</v>
       </c>
       <c r="AQ147" s="12"/>
     </row>
@@ -15494,24 +15508,24 @@
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="H148" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="H148" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="I148" s="45" t="s">
+      <c r="I148" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="J148" s="45"/>
+      <c r="J148" s="44"/>
       <c r="K148" s="16" t="n">
         <v>16</v>
       </c>
       <c r="L148" s="16"/>
       <c r="M148" s="16"/>
       <c r="N148" s="16"/>
-      <c r="O148" s="56"/>
-      <c r="P148" s="43"/>
-      <c r="Q148" s="43"/>
+      <c r="O148" s="55"/>
+      <c r="P148" s="42"/>
+      <c r="Q148" s="42"/>
       <c r="R148" s="16" t="s">
         <v>252</v>
       </c>
@@ -15521,7 +15535,7 @@
       <c r="V148" s="12"/>
       <c r="W148" s="12"/>
       <c r="X148" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y148" s="12"/>
       <c r="Z148" s="12"/>
@@ -15531,23 +15545,23 @@
       <c r="AD148" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE148" s="76" t="s">
-        <v>440</v>
+      <c r="AE148" s="75" t="s">
+        <v>439</v>
       </c>
       <c r="AF148" s="26" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AG148" s="77" t="n">
+      <c r="AG148" s="76" t="n">
         <v>0.8</v>
       </c>
-      <c r="AH148" s="61" t="n">
+      <c r="AH148" s="60" t="n">
         <v>1</v>
       </c>
       <c r="AI148" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ148" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ148" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK148" s="16"/>
       <c r="AL148" s="16"/>
@@ -15557,11 +15571,11 @@
       <c r="AN148" s="19" t="n">
         <v>147</v>
       </c>
-      <c r="AO148" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="AP148" s="74" t="s">
-        <v>434</v>
+      <c r="AO148" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="AP148" s="73" t="s">
+        <v>433</v>
       </c>
       <c r="AQ148" s="12"/>
     </row>
@@ -15583,10 +15597,10 @@
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="H149" s="22" t="s">
         <v>442</v>
-      </c>
-      <c r="H149" s="22" t="s">
-        <v>443</v>
       </c>
       <c r="I149" s="16" t="s">
         <v>54</v>
@@ -15603,8 +15617,8 @@
       <c r="O149" s="25" t="n">
         <v>40822426</v>
       </c>
-      <c r="P149" s="43"/>
-      <c r="Q149" s="43"/>
+      <c r="P149" s="42"/>
+      <c r="Q149" s="42"/>
       <c r="R149" s="16" t="s">
         <v>55</v>
       </c>
@@ -15616,7 +15630,7 @@
       <c r="V149" s="12"/>
       <c r="W149" s="12"/>
       <c r="X149" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y149" s="12"/>
       <c r="Z149" s="12"/>
@@ -15635,10 +15649,10 @@
       <c r="AG149" s="16"/>
       <c r="AH149" s="16"/>
       <c r="AI149" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ149" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ149" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK149" s="16"/>
       <c r="AL149" s="16"/>
@@ -15650,7 +15664,7 @@
       </c>
       <c r="AO149" s="12"/>
       <c r="AP149" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ149" s="12"/>
     </row>
@@ -15672,10 +15686,10 @@
       </c>
       <c r="F150" s="15"/>
       <c r="G150" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="H150" s="22" t="s">
         <v>444</v>
-      </c>
-      <c r="H150" s="22" t="s">
-        <v>445</v>
       </c>
       <c r="I150" s="16" t="s">
         <v>54</v>
@@ -15692,8 +15706,8 @@
       <c r="O150" s="25" t="n">
         <v>5449000131768</v>
       </c>
-      <c r="P150" s="43"/>
-      <c r="Q150" s="43"/>
+      <c r="P150" s="42"/>
+      <c r="Q150" s="42"/>
       <c r="R150" s="16" t="s">
         <v>55</v>
       </c>
@@ -15705,7 +15719,7 @@
       <c r="V150" s="12"/>
       <c r="W150" s="12"/>
       <c r="X150" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y150" s="12"/>
       <c r="Z150" s="12"/>
@@ -15724,10 +15738,10 @@
       <c r="AG150" s="16"/>
       <c r="AH150" s="16"/>
       <c r="AI150" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ150" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ150" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK150" s="16"/>
       <c r="AL150" s="16"/>
@@ -15739,7 +15753,7 @@
       </c>
       <c r="AO150" s="12"/>
       <c r="AP150" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ150" s="12"/>
     </row>
@@ -15761,10 +15775,10 @@
       </c>
       <c r="F151" s="15"/>
       <c r="G151" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="H151" s="22" t="s">
         <v>446</v>
-      </c>
-      <c r="H151" s="22" t="s">
-        <v>447</v>
       </c>
       <c r="I151" s="16" t="s">
         <v>54</v>
@@ -15781,8 +15795,8 @@
       <c r="O151" s="25" t="n">
         <v>5449000000996</v>
       </c>
-      <c r="P151" s="43"/>
-      <c r="Q151" s="43"/>
+      <c r="P151" s="42"/>
+      <c r="Q151" s="42"/>
       <c r="R151" s="16" t="s">
         <v>55</v>
       </c>
@@ -15794,7 +15808,7 @@
       <c r="V151" s="12"/>
       <c r="W151" s="12"/>
       <c r="X151" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y151" s="12"/>
       <c r="Z151" s="12"/>
@@ -15813,10 +15827,10 @@
       <c r="AG151" s="16"/>
       <c r="AH151" s="16"/>
       <c r="AI151" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ151" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ151" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK151" s="16"/>
       <c r="AL151" s="16"/>
@@ -15828,7 +15842,7 @@
       </c>
       <c r="AO151" s="12"/>
       <c r="AP151" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ151" s="12"/>
     </row>
@@ -15850,10 +15864,10 @@
       </c>
       <c r="F152" s="15"/>
       <c r="G152" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="H152" s="22" t="s">
         <v>448</v>
-      </c>
-      <c r="H152" s="22" t="s">
-        <v>449</v>
       </c>
       <c r="I152" s="16" t="s">
         <v>54</v>
@@ -15870,8 +15884,8 @@
       <c r="O152" s="25" t="n">
         <v>54491472</v>
       </c>
-      <c r="P152" s="43"/>
-      <c r="Q152" s="43"/>
+      <c r="P152" s="42"/>
+      <c r="Q152" s="42"/>
       <c r="R152" s="16" t="s">
         <v>55</v>
       </c>
@@ -15883,7 +15897,7 @@
       <c r="V152" s="12"/>
       <c r="W152" s="12"/>
       <c r="X152" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y152" s="12"/>
       <c r="Z152" s="12"/>
@@ -15902,10 +15916,10 @@
       <c r="AG152" s="16"/>
       <c r="AH152" s="16"/>
       <c r="AI152" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ152" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ152" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK152" s="16"/>
       <c r="AL152" s="16"/>
@@ -15917,7 +15931,7 @@
       </c>
       <c r="AO152" s="12"/>
       <c r="AP152" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ152" s="12"/>
     </row>
@@ -15938,11 +15952,11 @@
         <v>248</v>
       </c>
       <c r="F153" s="15"/>
-      <c r="G153" s="69" t="s">
+      <c r="G153" s="68" t="s">
+        <v>449</v>
+      </c>
+      <c r="H153" s="27" t="s">
         <v>450</v>
-      </c>
-      <c r="H153" s="27" t="s">
-        <v>451</v>
       </c>
       <c r="I153" s="16" t="s">
         <v>54</v>
@@ -15953,14 +15967,14 @@
       </c>
       <c r="L153" s="16"/>
       <c r="M153" s="16"/>
-      <c r="N153" s="69" t="s">
+      <c r="N153" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="O153" s="78" t="s">
+      <c r="O153" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="P153" s="43"/>
-      <c r="Q153" s="43"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
       <c r="R153" s="16" t="s">
         <v>55</v>
       </c>
@@ -15972,7 +15986,7 @@
       <c r="V153" s="12"/>
       <c r="W153" s="12"/>
       <c r="X153" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y153" s="12"/>
       <c r="Z153" s="12"/>
@@ -15991,10 +16005,10 @@
       <c r="AG153" s="16"/>
       <c r="AH153" s="16"/>
       <c r="AI153" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ153" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ153" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK153" s="16"/>
       <c r="AL153" s="16"/>
@@ -16006,7 +16020,7 @@
       </c>
       <c r="AO153" s="12"/>
       <c r="AP153" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ153" s="12"/>
     </row>
@@ -16028,10 +16042,10 @@
       </c>
       <c r="F154" s="15"/>
       <c r="G154" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="H154" s="22" t="s">
         <v>452</v>
-      </c>
-      <c r="H154" s="22" t="s">
-        <v>453</v>
       </c>
       <c r="I154" s="16" t="s">
         <v>54</v>
@@ -16048,8 +16062,8 @@
       <c r="O154" s="25" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P154" s="43"/>
-      <c r="Q154" s="43"/>
+      <c r="P154" s="42"/>
+      <c r="Q154" s="42"/>
       <c r="R154" s="16" t="s">
         <v>55</v>
       </c>
@@ -16061,7 +16075,7 @@
       <c r="V154" s="12"/>
       <c r="W154" s="12"/>
       <c r="X154" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y154" s="12"/>
       <c r="Z154" s="12"/>
@@ -16080,10 +16094,10 @@
       <c r="AG154" s="16"/>
       <c r="AH154" s="16"/>
       <c r="AI154" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ154" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ154" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK154" s="16"/>
       <c r="AL154" s="16"/>
@@ -16095,7 +16109,7 @@
       </c>
       <c r="AO154" s="12"/>
       <c r="AP154" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ154" s="12"/>
     </row>
@@ -16116,11 +16130,11 @@
         <v>248</v>
       </c>
       <c r="F155" s="15"/>
-      <c r="G155" s="69" t="s">
+      <c r="G155" s="68" t="s">
+        <v>453</v>
+      </c>
+      <c r="H155" s="27" t="s">
         <v>454</v>
-      </c>
-      <c r="H155" s="27" t="s">
-        <v>455</v>
       </c>
       <c r="I155" s="16" t="s">
         <v>54</v>
@@ -16131,14 +16145,14 @@
       </c>
       <c r="L155" s="16"/>
       <c r="M155" s="16"/>
-      <c r="N155" s="69" t="s">
+      <c r="N155" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="O155" s="78" t="s">
+      <c r="O155" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="P155" s="43"/>
-      <c r="Q155" s="43"/>
+      <c r="P155" s="42"/>
+      <c r="Q155" s="42"/>
       <c r="R155" s="16" t="s">
         <v>55</v>
       </c>
@@ -16150,7 +16164,7 @@
       <c r="V155" s="12"/>
       <c r="W155" s="12"/>
       <c r="X155" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y155" s="12"/>
       <c r="Z155" s="12"/>
@@ -16169,10 +16183,10 @@
       <c r="AG155" s="16"/>
       <c r="AH155" s="16"/>
       <c r="AI155" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ155" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ155" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK155" s="16"/>
       <c r="AL155" s="16"/>
@@ -16184,7 +16198,7 @@
       </c>
       <c r="AO155" s="12"/>
       <c r="AP155" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ155" s="12"/>
     </row>
@@ -16206,10 +16220,10 @@
       </c>
       <c r="F156" s="15"/>
       <c r="G156" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="H156" s="22" t="s">
         <v>456</v>
-      </c>
-      <c r="H156" s="22" t="s">
-        <v>457</v>
       </c>
       <c r="I156" s="16" t="s">
         <v>54</v>
@@ -16226,8 +16240,8 @@
       <c r="O156" s="25" t="n">
         <v>5449000011527</v>
       </c>
-      <c r="P156" s="43"/>
-      <c r="Q156" s="43"/>
+      <c r="P156" s="42"/>
+      <c r="Q156" s="42"/>
       <c r="R156" s="16" t="s">
         <v>55</v>
       </c>
@@ -16239,7 +16253,7 @@
       <c r="V156" s="12"/>
       <c r="W156" s="12"/>
       <c r="X156" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y156" s="12"/>
       <c r="Z156" s="12"/>
@@ -16258,10 +16272,10 @@
       <c r="AG156" s="16"/>
       <c r="AH156" s="16"/>
       <c r="AI156" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ156" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ156" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK156" s="16"/>
       <c r="AL156" s="16"/>
@@ -16273,7 +16287,7 @@
       </c>
       <c r="AO156" s="12"/>
       <c r="AP156" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ156" s="12"/>
     </row>
@@ -16295,10 +16309,10 @@
       </c>
       <c r="F157" s="15"/>
       <c r="G157" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="H157" s="22" t="s">
         <v>458</v>
-      </c>
-      <c r="H157" s="22" t="s">
-        <v>459</v>
       </c>
       <c r="I157" s="16" t="s">
         <v>54</v>
@@ -16315,8 +16329,8 @@
       <c r="O157" s="25" t="n">
         <v>40822938</v>
       </c>
-      <c r="P157" s="43"/>
-      <c r="Q157" s="43"/>
+      <c r="P157" s="42"/>
+      <c r="Q157" s="42"/>
       <c r="R157" s="16" t="s">
         <v>55</v>
       </c>
@@ -16328,7 +16342,7 @@
       <c r="V157" s="12"/>
       <c r="W157" s="12"/>
       <c r="X157" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y157" s="12"/>
       <c r="Z157" s="12"/>
@@ -16347,10 +16361,10 @@
       <c r="AG157" s="16"/>
       <c r="AH157" s="16"/>
       <c r="AI157" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ157" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ157" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK157" s="16"/>
       <c r="AL157" s="16"/>
@@ -16362,7 +16376,7 @@
       </c>
       <c r="AO157" s="12"/>
       <c r="AP157" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ157" s="12"/>
     </row>
@@ -16383,11 +16397,11 @@
         <v>248</v>
       </c>
       <c r="F158" s="15"/>
-      <c r="G158" s="69" t="s">
+      <c r="G158" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="H158" s="27" t="s">
         <v>460</v>
-      </c>
-      <c r="H158" s="27" t="s">
-        <v>461</v>
       </c>
       <c r="I158" s="16" t="s">
         <v>54</v>
@@ -16398,14 +16412,14 @@
       </c>
       <c r="L158" s="16"/>
       <c r="M158" s="16"/>
-      <c r="N158" s="69" t="s">
+      <c r="N158" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="O158" s="78" t="s">
+      <c r="O158" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="P158" s="43"/>
-      <c r="Q158" s="43"/>
+      <c r="P158" s="42"/>
+      <c r="Q158" s="42"/>
       <c r="R158" s="16" t="s">
         <v>55</v>
       </c>
@@ -16417,7 +16431,7 @@
       <c r="V158" s="12"/>
       <c r="W158" s="12"/>
       <c r="X158" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y158" s="12"/>
       <c r="Z158" s="12"/>
@@ -16436,10 +16450,10 @@
       <c r="AG158" s="16"/>
       <c r="AH158" s="16"/>
       <c r="AI158" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ158" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ158" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK158" s="16"/>
       <c r="AL158" s="16"/>
@@ -16451,7 +16465,7 @@
       </c>
       <c r="AO158" s="12"/>
       <c r="AP158" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ158" s="12"/>
     </row>
@@ -16473,10 +16487,10 @@
       </c>
       <c r="F159" s="15"/>
       <c r="G159" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="H159" s="22" t="s">
         <v>462</v>
-      </c>
-      <c r="H159" s="22" t="s">
-        <v>463</v>
       </c>
       <c r="I159" s="16" t="s">
         <v>54</v>
@@ -16488,13 +16502,13 @@
       <c r="L159" s="16"/>
       <c r="M159" s="16"/>
       <c r="N159" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="O159" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="O159" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="P159" s="43"/>
-      <c r="Q159" s="43"/>
+      <c r="P159" s="42"/>
+      <c r="Q159" s="42"/>
       <c r="R159" s="16" t="s">
         <v>55</v>
       </c>
@@ -16506,7 +16520,7 @@
       <c r="V159" s="12"/>
       <c r="W159" s="12"/>
       <c r="X159" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y159" s="12"/>
       <c r="Z159" s="12"/>
@@ -16525,10 +16539,10 @@
       <c r="AG159" s="16"/>
       <c r="AH159" s="16"/>
       <c r="AI159" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ159" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ159" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK159" s="16"/>
       <c r="AL159" s="16"/>
@@ -16540,7 +16554,7 @@
       </c>
       <c r="AO159" s="12"/>
       <c r="AP159" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ159" s="12"/>
     </row>
@@ -16562,10 +16576,10 @@
       </c>
       <c r="F160" s="15"/>
       <c r="G160" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="H160" s="22" t="s">
         <v>466</v>
-      </c>
-      <c r="H160" s="22" t="s">
-        <v>467</v>
       </c>
       <c r="I160" s="16" t="s">
         <v>54</v>
@@ -16577,13 +16591,13 @@
       <c r="L160" s="16"/>
       <c r="M160" s="16"/>
       <c r="N160" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="O160" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="O160" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="P160" s="43"/>
-      <c r="Q160" s="43"/>
+      <c r="P160" s="42"/>
+      <c r="Q160" s="42"/>
       <c r="R160" s="16" t="s">
         <v>55</v>
       </c>
@@ -16595,7 +16609,7 @@
       <c r="V160" s="12"/>
       <c r="W160" s="12"/>
       <c r="X160" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y160" s="12"/>
       <c r="Z160" s="12"/>
@@ -16614,10 +16628,10 @@
       <c r="AG160" s="16"/>
       <c r="AH160" s="16"/>
       <c r="AI160" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ160" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ160" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK160" s="16"/>
       <c r="AL160" s="16"/>
@@ -16629,7 +16643,7 @@
       </c>
       <c r="AO160" s="12"/>
       <c r="AP160" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ160" s="12"/>
     </row>
@@ -16651,10 +16665,10 @@
       </c>
       <c r="F161" s="15"/>
       <c r="G161" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="H161" s="22" t="s">
         <v>470</v>
-      </c>
-      <c r="H161" s="22" t="s">
-        <v>471</v>
       </c>
       <c r="I161" s="16" t="s">
         <v>54</v>
@@ -16671,8 +16685,8 @@
       <c r="O161" s="25" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="P161" s="43"/>
-      <c r="Q161" s="43"/>
+      <c r="P161" s="42"/>
+      <c r="Q161" s="42"/>
       <c r="R161" s="16" t="s">
         <v>55</v>
       </c>
@@ -16684,7 +16698,7 @@
       <c r="V161" s="12"/>
       <c r="W161" s="12"/>
       <c r="X161" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y161" s="12"/>
       <c r="Z161" s="12"/>
@@ -16703,10 +16717,10 @@
       <c r="AG161" s="16"/>
       <c r="AH161" s="16"/>
       <c r="AI161" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ161" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ161" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK161" s="16"/>
       <c r="AL161" s="16"/>
@@ -16718,7 +16732,7 @@
       </c>
       <c r="AO161" s="12"/>
       <c r="AP161" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ161" s="12"/>
     </row>
@@ -16740,10 +16754,10 @@
       </c>
       <c r="F162" s="15"/>
       <c r="G162" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H162" s="22" t="s">
         <v>472</v>
-      </c>
-      <c r="H162" s="22" t="s">
-        <v>473</v>
       </c>
       <c r="I162" s="16" t="s">
         <v>54</v>
@@ -16760,8 +16774,8 @@
       <c r="O162" s="25" t="n">
         <v>5449000014535</v>
       </c>
-      <c r="P162" s="43"/>
-      <c r="Q162" s="43"/>
+      <c r="P162" s="42"/>
+      <c r="Q162" s="42"/>
       <c r="R162" s="16" t="s">
         <v>55</v>
       </c>
@@ -16773,7 +16787,7 @@
       <c r="V162" s="12"/>
       <c r="W162" s="12"/>
       <c r="X162" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y162" s="12"/>
       <c r="Z162" s="12"/>
@@ -16792,10 +16806,10 @@
       <c r="AG162" s="16"/>
       <c r="AH162" s="16"/>
       <c r="AI162" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ162" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ162" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK162" s="16"/>
       <c r="AL162" s="16"/>
@@ -16807,7 +16821,7 @@
       </c>
       <c r="AO162" s="12"/>
       <c r="AP162" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ162" s="12"/>
     </row>
@@ -16829,10 +16843,10 @@
       </c>
       <c r="F163" s="15"/>
       <c r="G163" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="H163" s="22" t="s">
         <v>474</v>
-      </c>
-      <c r="H163" s="22" t="s">
-        <v>475</v>
       </c>
       <c r="I163" s="16" t="s">
         <v>54</v>
@@ -16849,8 +16863,8 @@
       <c r="O163" s="25" t="n">
         <v>54491069</v>
       </c>
-      <c r="P163" s="43"/>
-      <c r="Q163" s="43"/>
+      <c r="P163" s="42"/>
+      <c r="Q163" s="42"/>
       <c r="R163" s="16" t="s">
         <v>55</v>
       </c>
@@ -16862,7 +16876,7 @@
       <c r="V163" s="12"/>
       <c r="W163" s="12"/>
       <c r="X163" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y163" s="12"/>
       <c r="Z163" s="12"/>
@@ -16881,10 +16895,10 @@
       <c r="AG163" s="16"/>
       <c r="AH163" s="16"/>
       <c r="AI163" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ163" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ163" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK163" s="16"/>
       <c r="AL163" s="16"/>
@@ -16896,7 +16910,7 @@
       </c>
       <c r="AO163" s="12"/>
       <c r="AP163" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ163" s="12"/>
     </row>
@@ -16917,11 +16931,11 @@
         <v>248</v>
       </c>
       <c r="F164" s="15"/>
-      <c r="G164" s="69" t="s">
+      <c r="G164" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="H164" s="27" t="s">
         <v>476</v>
-      </c>
-      <c r="H164" s="27" t="s">
-        <v>477</v>
       </c>
       <c r="I164" s="16" t="s">
         <v>54</v>
@@ -16932,14 +16946,14 @@
       </c>
       <c r="L164" s="16"/>
       <c r="M164" s="16"/>
-      <c r="N164" s="69" t="s">
+      <c r="N164" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="O164" s="78" t="s">
+      <c r="O164" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="P164" s="43"/>
-      <c r="Q164" s="43"/>
+      <c r="P164" s="42"/>
+      <c r="Q164" s="42"/>
       <c r="R164" s="16" t="s">
         <v>55</v>
       </c>
@@ -16951,7 +16965,7 @@
       <c r="V164" s="12"/>
       <c r="W164" s="12"/>
       <c r="X164" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y164" s="12"/>
       <c r="Z164" s="12"/>
@@ -16970,10 +16984,10 @@
       <c r="AG164" s="16"/>
       <c r="AH164" s="16"/>
       <c r="AI164" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ164" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ164" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK164" s="16"/>
       <c r="AL164" s="16"/>
@@ -16985,7 +16999,7 @@
       </c>
       <c r="AO164" s="12"/>
       <c r="AP164" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ164" s="12"/>
     </row>
@@ -17007,36 +17021,36 @@
       </c>
       <c r="F165" s="15"/>
       <c r="G165" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="H165" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="H165" s="12" t="s">
+      <c r="I165" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="I165" s="45" t="s">
-        <v>480</v>
-      </c>
-      <c r="J165" s="45"/>
+      <c r="J165" s="44"/>
       <c r="K165" s="16"/>
       <c r="L165" s="16"/>
       <c r="M165" s="16"/>
       <c r="N165" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O165" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="P165" s="44"/>
-      <c r="Q165" s="44"/>
+      <c r="O165" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="P165" s="43"/>
+      <c r="Q165" s="43"/>
       <c r="R165" s="12"/>
       <c r="S165" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T165" s="16"/>
       <c r="U165" s="16"/>
       <c r="V165" s="12"/>
       <c r="W165" s="12"/>
       <c r="X165" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y165" s="16"/>
       <c r="Z165" s="12"/>
@@ -17055,10 +17069,10 @@
       <c r="AG165" s="16"/>
       <c r="AH165" s="16"/>
       <c r="AI165" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ165" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ165" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK165" s="16"/>
       <c r="AL165" s="16"/>
@@ -17069,8 +17083,8 @@
         <v>164</v>
       </c>
       <c r="AO165" s="12"/>
-      <c r="AP165" s="74" t="s">
-        <v>434</v>
+      <c r="AP165" s="73" t="s">
+        <v>433</v>
       </c>
       <c r="AQ165" s="12"/>
     </row>
@@ -17087,18 +17101,18 @@
       <c r="D166" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="E166" s="79" t="s">
+      <c r="E166" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="F166" s="79"/>
+      <c r="F166" s="78"/>
       <c r="G166" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="H166" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="H166" s="12" t="s">
-        <v>482</v>
-      </c>
       <c r="I166" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J166" s="16"/>
       <c r="K166" s="16" t="n">
@@ -17107,9 +17121,9 @@
       <c r="L166" s="16"/>
       <c r="M166" s="16"/>
       <c r="N166" s="16"/>
-      <c r="O166" s="44"/>
-      <c r="P166" s="44"/>
-      <c r="Q166" s="44"/>
+      <c r="O166" s="43"/>
+      <c r="P166" s="43"/>
+      <c r="Q166" s="43"/>
       <c r="R166" s="12" t="s">
         <v>55</v>
       </c>
@@ -17119,7 +17133,7 @@
       <c r="V166" s="16"/>
       <c r="W166" s="16"/>
       <c r="X166" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Y166" s="16"/>
       <c r="Z166" s="16"/>
@@ -17147,11 +17161,11 @@
       <c r="AN166" s="19" t="n">
         <v>165</v>
       </c>
-      <c r="AO166" s="80" t="s">
+      <c r="AO166" s="79" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP166" s="73" t="s">
         <v>483</v>
-      </c>
-      <c r="AP166" s="74" t="s">
-        <v>484</v>
       </c>
       <c r="AQ166" s="12"/>
     </row>
@@ -17168,21 +17182,21 @@
       <c r="D167" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="E167" s="79" t="s">
+      <c r="E167" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="F167" s="79"/>
+      <c r="F167" s="78"/>
       <c r="G167" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="H167" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="H167" s="12" t="s">
+      <c r="I167" s="71" t="s">
         <v>486</v>
       </c>
-      <c r="I167" s="72" t="s">
-        <v>487</v>
-      </c>
-      <c r="J167" s="72"/>
-      <c r="K167" s="72" t="n">
+      <c r="J167" s="71"/>
+      <c r="K167" s="71" t="n">
         <v>1</v>
       </c>
       <c r="L167" s="16" t="n">
@@ -17192,23 +17206,23 @@
       <c r="N167" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O167" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="P167" s="44"/>
-      <c r="Q167" s="44"/>
+      <c r="O167" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="P167" s="43"/>
+      <c r="Q167" s="43"/>
       <c r="R167" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="S167" s="72" t="s">
-        <v>423</v>
+      <c r="S167" s="71" t="s">
+        <v>422</v>
       </c>
       <c r="T167" s="16"/>
       <c r="U167" s="16"/>
       <c r="V167" s="16"/>
       <c r="W167" s="16"/>
       <c r="X167" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Y167" s="16"/>
       <c r="Z167" s="16"/>
@@ -17219,7 +17233,7 @@
         <v>50</v>
       </c>
       <c r="AE167" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF167" s="26" t="n">
         <v>1</v>
@@ -17227,8 +17241,8 @@
       <c r="AG167" s="16"/>
       <c r="AH167" s="16"/>
       <c r="AI167" s="16"/>
-      <c r="AJ167" s="81" t="s">
-        <v>489</v>
+      <c r="AJ167" s="80" t="s">
+        <v>488</v>
       </c>
       <c r="AK167" s="16"/>
       <c r="AL167" s="16"/>
@@ -17239,8 +17253,8 @@
         <v>166</v>
       </c>
       <c r="AO167" s="12"/>
-      <c r="AP167" s="82" t="s">
-        <v>481</v>
+      <c r="AP167" s="81" t="s">
+        <v>480</v>
       </c>
       <c r="AQ167" s="12"/>
     </row>
@@ -17262,10 +17276,10 @@
       </c>
       <c r="F168" s="15"/>
       <c r="G168" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="H168" s="12" t="s">
         <v>490</v>
-      </c>
-      <c r="H168" s="12" t="s">
-        <v>491</v>
       </c>
       <c r="I168" s="16" t="s">
         <v>251</v>
@@ -17277,9 +17291,9 @@
       <c r="L168" s="16"/>
       <c r="M168" s="16"/>
       <c r="N168" s="16"/>
-      <c r="O168" s="44"/>
-      <c r="P168" s="44"/>
-      <c r="Q168" s="44"/>
+      <c r="O168" s="43"/>
+      <c r="P168" s="43"/>
+      <c r="Q168" s="43"/>
       <c r="R168" s="16" t="s">
         <v>55</v>
       </c>
@@ -17315,11 +17329,11 @@
       <c r="AN168" s="19" t="n">
         <v>167</v>
       </c>
-      <c r="AO168" s="52" t="s">
+      <c r="AO168" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="AP168" s="82" t="s">
         <v>492</v>
-      </c>
-      <c r="AP168" s="83" t="s">
-        <v>493</v>
       </c>
       <c r="AQ168" s="12"/>
     </row>
@@ -17341,10 +17355,10 @@
       </c>
       <c r="F169" s="15"/>
       <c r="G169" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="H169" s="12" t="s">
         <v>494</v>
-      </c>
-      <c r="H169" s="12" t="s">
-        <v>495</v>
       </c>
       <c r="I169" s="12" t="s">
         <v>325</v>
@@ -17356,9 +17370,9 @@
       <c r="L169" s="16"/>
       <c r="M169" s="16"/>
       <c r="N169" s="16"/>
-      <c r="O169" s="44"/>
-      <c r="P169" s="44"/>
-      <c r="Q169" s="44"/>
+      <c r="O169" s="43"/>
+      <c r="P169" s="43"/>
+      <c r="Q169" s="43"/>
       <c r="R169" s="16" t="s">
         <v>55</v>
       </c>
@@ -17370,8 +17384,8 @@
       <c r="V169" s="16"/>
       <c r="W169" s="16"/>
       <c r="X169" s="16"/>
-      <c r="Y169" s="84" t="s">
-        <v>496</v>
+      <c r="Y169" s="83" t="s">
+        <v>495</v>
       </c>
       <c r="Z169" s="16"/>
       <c r="AA169" s="17"/>
@@ -17400,7 +17414,7 @@
       </c>
       <c r="AO169" s="16"/>
       <c r="AP169" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ169" s="12"/>
     </row>
@@ -17422,10 +17436,10 @@
       </c>
       <c r="F170" s="15"/>
       <c r="G170" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="H170" s="12" t="s">
         <v>497</v>
-      </c>
-      <c r="H170" s="12" t="s">
-        <v>498</v>
       </c>
       <c r="I170" s="12" t="s">
         <v>325</v>
@@ -17437,9 +17451,9 @@
       <c r="L170" s="16"/>
       <c r="M170" s="16"/>
       <c r="N170" s="16"/>
-      <c r="O170" s="44"/>
-      <c r="P170" s="44"/>
-      <c r="Q170" s="44"/>
+      <c r="O170" s="43"/>
+      <c r="P170" s="43"/>
+      <c r="Q170" s="43"/>
       <c r="R170" s="16" t="s">
         <v>55</v>
       </c>
@@ -17452,7 +17466,7 @@
       <c r="W170" s="16"/>
       <c r="X170" s="16"/>
       <c r="Y170" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Z170" s="16"/>
       <c r="AA170" s="17"/>
@@ -17481,7 +17495,7 @@
       </c>
       <c r="AO170" s="16"/>
       <c r="AP170" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ170" s="12"/>
     </row>
@@ -17503,10 +17517,10 @@
       </c>
       <c r="F171" s="15"/>
       <c r="G171" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="H171" s="12" t="s">
         <v>500</v>
-      </c>
-      <c r="H171" s="12" t="s">
-        <v>501</v>
       </c>
       <c r="I171" s="12" t="s">
         <v>325</v>
@@ -17518,9 +17532,9 @@
       <c r="L171" s="16"/>
       <c r="M171" s="16"/>
       <c r="N171" s="16"/>
-      <c r="O171" s="44"/>
-      <c r="P171" s="44"/>
-      <c r="Q171" s="44"/>
+      <c r="O171" s="43"/>
+      <c r="P171" s="43"/>
+      <c r="Q171" s="43"/>
       <c r="R171" s="16" t="s">
         <v>55</v>
       </c>
@@ -17533,7 +17547,7 @@
       <c r="W171" s="16"/>
       <c r="X171" s="16"/>
       <c r="Y171" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Z171" s="16"/>
       <c r="AA171" s="17"/>
@@ -17562,7 +17576,7 @@
       </c>
       <c r="AO171" s="16"/>
       <c r="AP171" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ171" s="12"/>
     </row>
@@ -17584,10 +17598,10 @@
       </c>
       <c r="F172" s="15"/>
       <c r="G172" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="H172" s="12" t="s">
         <v>503</v>
-      </c>
-      <c r="H172" s="12" t="s">
-        <v>504</v>
       </c>
       <c r="I172" s="12" t="s">
         <v>325</v>
@@ -17599,9 +17613,9 @@
       <c r="L172" s="16"/>
       <c r="M172" s="16"/>
       <c r="N172" s="16"/>
-      <c r="O172" s="44"/>
-      <c r="P172" s="44"/>
-      <c r="Q172" s="44"/>
+      <c r="O172" s="43"/>
+      <c r="P172" s="43"/>
+      <c r="Q172" s="43"/>
       <c r="R172" s="16" t="s">
         <v>55</v>
       </c>
@@ -17614,7 +17628,7 @@
       <c r="W172" s="16"/>
       <c r="X172" s="16"/>
       <c r="Y172" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z172" s="16"/>
       <c r="AA172" s="17"/>
@@ -17643,7 +17657,7 @@
       </c>
       <c r="AO172" s="16"/>
       <c r="AP172" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ172" s="12"/>
     </row>
@@ -17657,66 +17671,66 @@
       <c r="C173" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D173" s="85" t="s">
+      <c r="D173" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E173" s="85" t="s">
         <v>506</v>
       </c>
-      <c r="E173" s="86" t="s">
+      <c r="F173" s="85" t="s">
         <v>507</v>
       </c>
-      <c r="F173" s="86" t="s">
+      <c r="G173" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="H173" s="87"/>
+      <c r="I173" s="88" t="s">
         <v>508</v>
       </c>
-      <c r="G173" s="87" t="s">
-        <v>255</v>
-      </c>
-      <c r="H173" s="88"/>
-      <c r="I173" s="89" t="s">
+      <c r="J173" s="89" t="s">
         <v>509</v>
       </c>
-      <c r="J173" s="90" t="s">
+      <c r="K173" s="89"/>
+      <c r="L173" s="89"/>
+      <c r="M173" s="90"/>
+      <c r="N173" s="90"/>
+      <c r="O173" s="89"/>
+      <c r="P173" s="89"/>
+      <c r="Q173" s="89"/>
+      <c r="R173" s="89"/>
+      <c r="S173" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="K173" s="90"/>
-      <c r="L173" s="90"/>
-      <c r="M173" s="91"/>
-      <c r="N173" s="91"/>
-      <c r="O173" s="90"/>
-      <c r="P173" s="90"/>
-      <c r="Q173" s="90"/>
-      <c r="R173" s="90"/>
-      <c r="S173" s="90" t="s">
-        <v>511</v>
-      </c>
-      <c r="T173" s="90"/>
-      <c r="U173" s="90"/>
-      <c r="V173" s="90"/>
-      <c r="W173" s="90"/>
-      <c r="X173" s="90"/>
-      <c r="Y173" s="90"/>
-      <c r="Z173" s="90"/>
-      <c r="AA173" s="90"/>
-      <c r="AB173" s="90"/>
-      <c r="AC173" s="90"/>
-      <c r="AD173" s="90"/>
-      <c r="AE173" s="90"/>
-      <c r="AF173" s="92" t="n">
+      <c r="T173" s="89"/>
+      <c r="U173" s="89"/>
+      <c r="V173" s="89"/>
+      <c r="W173" s="89"/>
+      <c r="X173" s="89"/>
+      <c r="Y173" s="89"/>
+      <c r="Z173" s="89"/>
+      <c r="AA173" s="89"/>
+      <c r="AB173" s="89"/>
+      <c r="AC173" s="89"/>
+      <c r="AD173" s="89"/>
+      <c r="AE173" s="89"/>
+      <c r="AF173" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="AG173" s="90"/>
-      <c r="AH173" s="90"/>
-      <c r="AI173" s="90"/>
-      <c r="AJ173" s="90"/>
-      <c r="AK173" s="90"/>
-      <c r="AL173" s="93"/>
-      <c r="AM173" s="94"/>
+      <c r="AG173" s="89"/>
+      <c r="AH173" s="89"/>
+      <c r="AI173" s="89"/>
+      <c r="AJ173" s="89"/>
+      <c r="AK173" s="89"/>
+      <c r="AL173" s="92"/>
+      <c r="AM173" s="93"/>
       <c r="AN173" s="14" t="n">
         <v>172</v>
       </c>
-      <c r="AO173" s="95" t="s">
-        <v>512</v>
-      </c>
-      <c r="AP173" s="90"/>
-      <c r="AQ173" s="90"/>
+      <c r="AO173" s="94" t="s">
+        <v>511</v>
+      </c>
+      <c r="AP173" s="89"/>
+      <c r="AQ173" s="89"/>
     </row>
     <row r="174" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="14" t="n">
@@ -17728,66 +17742,66 @@
       <c r="C174" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D174" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E174" s="96" t="s">
+      <c r="D174" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E174" s="95" t="s">
+        <v>512</v>
+      </c>
+      <c r="F174" s="95" t="s">
         <v>513</v>
       </c>
-      <c r="F174" s="96" t="s">
+      <c r="G174" s="96" t="s">
+        <v>492</v>
+      </c>
+      <c r="H174" s="97"/>
+      <c r="I174" s="88" t="s">
         <v>514</v>
       </c>
-      <c r="G174" s="97" t="s">
-        <v>493</v>
-      </c>
-      <c r="H174" s="98"/>
-      <c r="I174" s="89" t="s">
-        <v>515</v>
-      </c>
-      <c r="J174" s="90" t="s">
+      <c r="J174" s="89" t="s">
+        <v>509</v>
+      </c>
+      <c r="K174" s="89"/>
+      <c r="L174" s="89"/>
+      <c r="M174" s="90"/>
+      <c r="N174" s="90"/>
+      <c r="O174" s="89"/>
+      <c r="P174" s="89"/>
+      <c r="Q174" s="89"/>
+      <c r="R174" s="89"/>
+      <c r="S174" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="K174" s="90"/>
-      <c r="L174" s="90"/>
-      <c r="M174" s="91"/>
-      <c r="N174" s="91"/>
-      <c r="O174" s="90"/>
-      <c r="P174" s="90"/>
-      <c r="Q174" s="90"/>
-      <c r="R174" s="90"/>
-      <c r="S174" s="90" t="s">
-        <v>511</v>
-      </c>
-      <c r="T174" s="90"/>
-      <c r="U174" s="90"/>
-      <c r="V174" s="90"/>
-      <c r="W174" s="90"/>
-      <c r="X174" s="90"/>
-      <c r="Y174" s="90"/>
-      <c r="Z174" s="90"/>
-      <c r="AA174" s="90"/>
-      <c r="AB174" s="90"/>
-      <c r="AC174" s="90"/>
-      <c r="AD174" s="90"/>
-      <c r="AE174" s="90"/>
-      <c r="AF174" s="99" t="n">
+      <c r="T174" s="89"/>
+      <c r="U174" s="89"/>
+      <c r="V174" s="89"/>
+      <c r="W174" s="89"/>
+      <c r="X174" s="89"/>
+      <c r="Y174" s="89"/>
+      <c r="Z174" s="89"/>
+      <c r="AA174" s="89"/>
+      <c r="AB174" s="89"/>
+      <c r="AC174" s="89"/>
+      <c r="AD174" s="89"/>
+      <c r="AE174" s="89"/>
+      <c r="AF174" s="98" t="n">
         <v>0</v>
       </c>
-      <c r="AG174" s="90"/>
-      <c r="AH174" s="90"/>
-      <c r="AI174" s="90"/>
-      <c r="AJ174" s="90"/>
-      <c r="AK174" s="90"/>
-      <c r="AL174" s="100"/>
-      <c r="AM174" s="94"/>
+      <c r="AG174" s="89"/>
+      <c r="AH174" s="89"/>
+      <c r="AI174" s="89"/>
+      <c r="AJ174" s="89"/>
+      <c r="AK174" s="89"/>
+      <c r="AL174" s="99"/>
+      <c r="AM174" s="93"/>
       <c r="AN174" s="14" t="n">
         <v>173</v>
       </c>
-      <c r="AO174" s="95" t="n">
+      <c r="AO174" s="94" t="n">
         <v>167</v>
       </c>
-      <c r="AP174" s="90"/>
-      <c r="AQ174" s="90"/>
+      <c r="AP174" s="89"/>
+      <c r="AQ174" s="89"/>
     </row>
     <row r="175" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="n">
@@ -17799,66 +17813,66 @@
       <c r="C175" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D175" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E175" s="96" t="s">
+      <c r="D175" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E175" s="95" t="s">
+        <v>515</v>
+      </c>
+      <c r="F175" s="95" t="s">
         <v>516</v>
       </c>
-      <c r="F175" s="96" t="s">
+      <c r="G175" s="100" t="s">
+        <v>433</v>
+      </c>
+      <c r="H175" s="97"/>
+      <c r="I175" s="88" t="s">
         <v>517</v>
       </c>
-      <c r="G175" s="101" t="s">
-        <v>434</v>
-      </c>
-      <c r="H175" s="98"/>
-      <c r="I175" s="89" t="s">
+      <c r="J175" s="89" t="s">
         <v>518</v>
       </c>
-      <c r="J175" s="90" t="s">
-        <v>519</v>
-      </c>
-      <c r="K175" s="90"/>
-      <c r="L175" s="90"/>
-      <c r="M175" s="91"/>
-      <c r="N175" s="91"/>
-      <c r="O175" s="90"/>
-      <c r="P175" s="90"/>
-      <c r="Q175" s="90"/>
-      <c r="R175" s="90"/>
-      <c r="S175" s="90" t="s">
-        <v>511</v>
-      </c>
-      <c r="T175" s="90"/>
-      <c r="U175" s="90"/>
-      <c r="V175" s="90"/>
-      <c r="W175" s="90"/>
-      <c r="X175" s="90"/>
-      <c r="Y175" s="90"/>
-      <c r="Z175" s="90"/>
-      <c r="AA175" s="90"/>
-      <c r="AB175" s="90"/>
-      <c r="AC175" s="90"/>
-      <c r="AD175" s="90"/>
-      <c r="AE175" s="90"/>
-      <c r="AF175" s="92" t="n">
+      <c r="K175" s="89"/>
+      <c r="L175" s="89"/>
+      <c r="M175" s="90"/>
+      <c r="N175" s="90"/>
+      <c r="O175" s="89"/>
+      <c r="P175" s="89"/>
+      <c r="Q175" s="89"/>
+      <c r="R175" s="89"/>
+      <c r="S175" s="89" t="s">
+        <v>510</v>
+      </c>
+      <c r="T175" s="89"/>
+      <c r="U175" s="89"/>
+      <c r="V175" s="89"/>
+      <c r="W175" s="89"/>
+      <c r="X175" s="89"/>
+      <c r="Y175" s="89"/>
+      <c r="Z175" s="89"/>
+      <c r="AA175" s="89"/>
+      <c r="AB175" s="89"/>
+      <c r="AC175" s="89"/>
+      <c r="AD175" s="89"/>
+      <c r="AE175" s="89"/>
+      <c r="AF175" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="AG175" s="90"/>
-      <c r="AH175" s="90"/>
-      <c r="AI175" s="90"/>
-      <c r="AJ175" s="90"/>
-      <c r="AK175" s="90"/>
-      <c r="AL175" s="93"/>
-      <c r="AM175" s="94"/>
+      <c r="AG175" s="89"/>
+      <c r="AH175" s="89"/>
+      <c r="AI175" s="89"/>
+      <c r="AJ175" s="89"/>
+      <c r="AK175" s="89"/>
+      <c r="AL175" s="92"/>
+      <c r="AM175" s="93"/>
       <c r="AN175" s="14" t="n">
         <v>174</v>
       </c>
-      <c r="AO175" s="95" t="s">
-        <v>520</v>
-      </c>
-      <c r="AP175" s="90"/>
-      <c r="AQ175" s="90"/>
+      <c r="AO175" s="94" t="s">
+        <v>519</v>
+      </c>
+      <c r="AP175" s="89"/>
+      <c r="AQ175" s="89"/>
     </row>
     <row r="176" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="n">
@@ -17870,66 +17884,66 @@
       <c r="C176" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D176" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E176" s="96" t="s">
+      <c r="D176" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E176" s="95" t="s">
+        <v>520</v>
+      </c>
+      <c r="F176" s="95" t="s">
         <v>521</v>
       </c>
-      <c r="F176" s="96" t="s">
-        <v>522</v>
-      </c>
-      <c r="G176" s="101" t="s">
-        <v>484</v>
-      </c>
-      <c r="H176" s="98"/>
-      <c r="I176" s="89" t="s">
-        <v>515</v>
-      </c>
-      <c r="J176" s="90" t="s">
-        <v>519</v>
-      </c>
-      <c r="K176" s="90"/>
-      <c r="L176" s="90"/>
-      <c r="M176" s="91"/>
-      <c r="N176" s="91"/>
-      <c r="O176" s="90"/>
-      <c r="P176" s="90"/>
-      <c r="Q176" s="90"/>
-      <c r="R176" s="90"/>
-      <c r="S176" s="90" t="s">
-        <v>511</v>
-      </c>
-      <c r="T176" s="90"/>
-      <c r="U176" s="90"/>
-      <c r="V176" s="90"/>
-      <c r="W176" s="90"/>
-      <c r="X176" s="90"/>
-      <c r="Y176" s="90"/>
-      <c r="Z176" s="90"/>
-      <c r="AA176" s="90"/>
-      <c r="AB176" s="90"/>
-      <c r="AC176" s="90"/>
-      <c r="AD176" s="90"/>
-      <c r="AE176" s="90"/>
-      <c r="AF176" s="92" t="n">
+      <c r="G176" s="100" t="s">
+        <v>483</v>
+      </c>
+      <c r="H176" s="97"/>
+      <c r="I176" s="88" t="s">
+        <v>514</v>
+      </c>
+      <c r="J176" s="89" t="s">
+        <v>518</v>
+      </c>
+      <c r="K176" s="89"/>
+      <c r="L176" s="89"/>
+      <c r="M176" s="90"/>
+      <c r="N176" s="90"/>
+      <c r="O176" s="89"/>
+      <c r="P176" s="89"/>
+      <c r="Q176" s="89"/>
+      <c r="R176" s="89"/>
+      <c r="S176" s="89" t="s">
+        <v>510</v>
+      </c>
+      <c r="T176" s="89"/>
+      <c r="U176" s="89"/>
+      <c r="V176" s="89"/>
+      <c r="W176" s="89"/>
+      <c r="X176" s="89"/>
+      <c r="Y176" s="89"/>
+      <c r="Z176" s="89"/>
+      <c r="AA176" s="89"/>
+      <c r="AB176" s="89"/>
+      <c r="AC176" s="89"/>
+      <c r="AD176" s="89"/>
+      <c r="AE176" s="89"/>
+      <c r="AF176" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="AG176" s="90"/>
-      <c r="AH176" s="90"/>
-      <c r="AI176" s="90"/>
-      <c r="AJ176" s="90"/>
-      <c r="AK176" s="90"/>
-      <c r="AL176" s="100"/>
-      <c r="AM176" s="94"/>
+      <c r="AG176" s="89"/>
+      <c r="AH176" s="89"/>
+      <c r="AI176" s="89"/>
+      <c r="AJ176" s="89"/>
+      <c r="AK176" s="89"/>
+      <c r="AL176" s="99"/>
+      <c r="AM176" s="93"/>
       <c r="AN176" s="14" t="n">
         <v>175</v>
       </c>
-      <c r="AO176" s="95" t="n">
+      <c r="AO176" s="94" t="n">
         <v>165</v>
       </c>
-      <c r="AP176" s="90"/>
-      <c r="AQ176" s="90"/>
+      <c r="AP176" s="89"/>
+      <c r="AQ176" s="89"/>
     </row>
     <row r="177" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="n">
@@ -17941,66 +17955,66 @@
       <c r="C177" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D177" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E177" s="96" t="s">
+      <c r="D177" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E177" s="95" t="s">
+        <v>522</v>
+      </c>
+      <c r="F177" s="95" t="s">
         <v>523</v>
       </c>
-      <c r="F177" s="96" t="s">
+      <c r="G177" s="100" t="s">
         <v>524</v>
       </c>
-      <c r="G177" s="101" t="s">
-        <v>525</v>
-      </c>
-      <c r="H177" s="98"/>
-      <c r="I177" s="102" t="s">
+      <c r="H177" s="97"/>
+      <c r="I177" s="101" t="s">
+        <v>508</v>
+      </c>
+      <c r="J177" s="90" t="s">
         <v>509</v>
       </c>
-      <c r="J177" s="91" t="s">
+      <c r="K177" s="89"/>
+      <c r="L177" s="89"/>
+      <c r="M177" s="90"/>
+      <c r="N177" s="90"/>
+      <c r="O177" s="89"/>
+      <c r="P177" s="89"/>
+      <c r="Q177" s="89"/>
+      <c r="R177" s="89"/>
+      <c r="S177" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="K177" s="90"/>
-      <c r="L177" s="90"/>
-      <c r="M177" s="91"/>
-      <c r="N177" s="91"/>
-      <c r="O177" s="90"/>
-      <c r="P177" s="90"/>
-      <c r="Q177" s="90"/>
-      <c r="R177" s="90"/>
-      <c r="S177" s="90" t="s">
-        <v>511</v>
-      </c>
-      <c r="T177" s="90"/>
-      <c r="U177" s="90"/>
-      <c r="V177" s="90"/>
-      <c r="W177" s="90"/>
-      <c r="X177" s="90"/>
-      <c r="Y177" s="90"/>
-      <c r="Z177" s="90"/>
-      <c r="AA177" s="90"/>
-      <c r="AB177" s="90"/>
-      <c r="AC177" s="90"/>
-      <c r="AD177" s="90"/>
-      <c r="AE177" s="90"/>
-      <c r="AF177" s="92" t="n">
+      <c r="T177" s="89"/>
+      <c r="U177" s="89"/>
+      <c r="V177" s="89"/>
+      <c r="W177" s="89"/>
+      <c r="X177" s="89"/>
+      <c r="Y177" s="89"/>
+      <c r="Z177" s="89"/>
+      <c r="AA177" s="89"/>
+      <c r="AB177" s="89"/>
+      <c r="AC177" s="89"/>
+      <c r="AD177" s="89"/>
+      <c r="AE177" s="89"/>
+      <c r="AF177" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="AG177" s="90"/>
-      <c r="AH177" s="90"/>
-      <c r="AI177" s="90"/>
-      <c r="AJ177" s="90"/>
-      <c r="AK177" s="90"/>
-      <c r="AL177" s="93"/>
-      <c r="AM177" s="94"/>
+      <c r="AG177" s="89"/>
+      <c r="AH177" s="89"/>
+      <c r="AI177" s="89"/>
+      <c r="AJ177" s="89"/>
+      <c r="AK177" s="89"/>
+      <c r="AL177" s="92"/>
+      <c r="AM177" s="93"/>
       <c r="AN177" s="14" t="n">
         <v>176</v>
       </c>
-      <c r="AO177" s="95" t="s">
-        <v>526</v>
-      </c>
-      <c r="AP177" s="90"/>
-      <c r="AQ177" s="90"/>
+      <c r="AO177" s="94" t="s">
+        <v>525</v>
+      </c>
+      <c r="AP177" s="89"/>
+      <c r="AQ177" s="89"/>
     </row>
     <row r="178" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="n">
@@ -18012,68 +18026,68 @@
       <c r="C178" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D178" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E178" s="96" t="s">
+      <c r="D178" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E178" s="95" t="s">
+        <v>526</v>
+      </c>
+      <c r="F178" s="95" t="s">
         <v>527</v>
       </c>
-      <c r="F178" s="96" t="s">
+      <c r="G178" s="100" t="s">
         <v>528</v>
       </c>
-      <c r="G178" s="101" t="s">
+      <c r="H178" s="97"/>
+      <c r="I178" s="101" t="s">
         <v>529</v>
       </c>
-      <c r="H178" s="98"/>
-      <c r="I178" s="102" t="s">
+      <c r="J178" s="90" t="s">
+        <v>518</v>
+      </c>
+      <c r="K178" s="89"/>
+      <c r="L178" s="89"/>
+      <c r="M178" s="90"/>
+      <c r="N178" s="90"/>
+      <c r="O178" s="89" t="s">
         <v>530</v>
       </c>
-      <c r="J178" s="91" t="s">
-        <v>519</v>
-      </c>
-      <c r="K178" s="90"/>
-      <c r="L178" s="90"/>
-      <c r="M178" s="91"/>
-      <c r="N178" s="91"/>
-      <c r="O178" s="90" t="s">
+      <c r="P178" s="89"/>
+      <c r="Q178" s="89"/>
+      <c r="R178" s="89"/>
+      <c r="S178" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="P178" s="90"/>
-      <c r="Q178" s="90"/>
-      <c r="R178" s="90"/>
-      <c r="S178" s="90" t="s">
+      <c r="T178" s="89"/>
+      <c r="U178" s="89"/>
+      <c r="V178" s="89"/>
+      <c r="W178" s="89"/>
+      <c r="X178" s="89"/>
+      <c r="Y178" s="90" t="s">
         <v>532</v>
       </c>
-      <c r="T178" s="90"/>
-      <c r="U178" s="90"/>
-      <c r="V178" s="90"/>
-      <c r="W178" s="90"/>
-      <c r="X178" s="90"/>
-      <c r="Y178" s="91" t="s">
-        <v>533</v>
-      </c>
-      <c r="Z178" s="90"/>
-      <c r="AA178" s="90"/>
-      <c r="AB178" s="90"/>
-      <c r="AC178" s="90"/>
-      <c r="AD178" s="90"/>
-      <c r="AE178" s="90"/>
-      <c r="AF178" s="90" t="n">
+      <c r="Z178" s="89"/>
+      <c r="AA178" s="89"/>
+      <c r="AB178" s="89"/>
+      <c r="AC178" s="89"/>
+      <c r="AD178" s="89"/>
+      <c r="AE178" s="89"/>
+      <c r="AF178" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG178" s="90"/>
-      <c r="AH178" s="90"/>
-      <c r="AI178" s="90"/>
-      <c r="AJ178" s="90"/>
-      <c r="AK178" s="90"/>
-      <c r="AL178" s="100"/>
-      <c r="AM178" s="94"/>
+      <c r="AG178" s="89"/>
+      <c r="AH178" s="89"/>
+      <c r="AI178" s="89"/>
+      <c r="AJ178" s="89"/>
+      <c r="AK178" s="89"/>
+      <c r="AL178" s="99"/>
+      <c r="AM178" s="93"/>
       <c r="AN178" s="14" t="n">
         <v>177</v>
       </c>
-      <c r="AO178" s="90"/>
-      <c r="AP178" s="90"/>
-      <c r="AQ178" s="90"/>
+      <c r="AO178" s="89"/>
+      <c r="AP178" s="89"/>
+      <c r="AQ178" s="89"/>
     </row>
     <row r="179" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="14" t="n">
@@ -18085,68 +18099,68 @@
       <c r="C179" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D179" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E179" s="96" t="s">
+      <c r="D179" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E179" s="95" t="s">
+        <v>533</v>
+      </c>
+      <c r="F179" s="95" t="s">
         <v>534</v>
       </c>
-      <c r="F179" s="96" t="s">
+      <c r="G179" s="100" t="s">
         <v>535</v>
       </c>
-      <c r="G179" s="101" t="s">
+      <c r="H179" s="97"/>
+      <c r="I179" s="101" t="s">
         <v>536</v>
       </c>
-      <c r="H179" s="98"/>
-      <c r="I179" s="102" t="s">
+      <c r="J179" s="90" t="s">
         <v>537</v>
       </c>
-      <c r="J179" s="91" t="s">
+      <c r="K179" s="89"/>
+      <c r="L179" s="89"/>
+      <c r="M179" s="90"/>
+      <c r="N179" s="90"/>
+      <c r="O179" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="P179" s="89"/>
+      <c r="Q179" s="89"/>
+      <c r="R179" s="89"/>
+      <c r="S179" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="T179" s="89"/>
+      <c r="U179" s="89"/>
+      <c r="V179" s="89"/>
+      <c r="W179" s="89"/>
+      <c r="X179" s="89"/>
+      <c r="Y179" s="90" t="s">
         <v>538</v>
       </c>
-      <c r="K179" s="90"/>
-      <c r="L179" s="90"/>
-      <c r="M179" s="91"/>
-      <c r="N179" s="91"/>
-      <c r="O179" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="P179" s="90"/>
-      <c r="Q179" s="90"/>
-      <c r="R179" s="90"/>
-      <c r="S179" s="90" t="s">
-        <v>532</v>
-      </c>
-      <c r="T179" s="90"/>
-      <c r="U179" s="90"/>
-      <c r="V179" s="90"/>
-      <c r="W179" s="90"/>
-      <c r="X179" s="90"/>
-      <c r="Y179" s="91" t="s">
-        <v>539</v>
-      </c>
-      <c r="Z179" s="90"/>
-      <c r="AA179" s="90"/>
-      <c r="AB179" s="90"/>
-      <c r="AC179" s="90"/>
-      <c r="AD179" s="90"/>
-      <c r="AE179" s="90"/>
-      <c r="AF179" s="90" t="n">
+      <c r="Z179" s="89"/>
+      <c r="AA179" s="89"/>
+      <c r="AB179" s="89"/>
+      <c r="AC179" s="89"/>
+      <c r="AD179" s="89"/>
+      <c r="AE179" s="89"/>
+      <c r="AF179" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG179" s="90"/>
-      <c r="AH179" s="90"/>
-      <c r="AI179" s="90"/>
-      <c r="AJ179" s="90"/>
-      <c r="AK179" s="90"/>
-      <c r="AL179" s="93"/>
-      <c r="AM179" s="94"/>
+      <c r="AG179" s="89"/>
+      <c r="AH179" s="89"/>
+      <c r="AI179" s="89"/>
+      <c r="AJ179" s="89"/>
+      <c r="AK179" s="89"/>
+      <c r="AL179" s="92"/>
+      <c r="AM179" s="93"/>
       <c r="AN179" s="14" t="n">
         <v>178</v>
       </c>
-      <c r="AO179" s="90"/>
-      <c r="AP179" s="90"/>
-      <c r="AQ179" s="90"/>
+      <c r="AO179" s="89"/>
+      <c r="AP179" s="89"/>
+      <c r="AQ179" s="89"/>
     </row>
     <row r="180" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="n">
@@ -18158,68 +18172,68 @@
       <c r="C180" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D180" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E180" s="96" t="s">
+      <c r="D180" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E180" s="95" t="s">
+        <v>539</v>
+      </c>
+      <c r="F180" s="95" t="s">
         <v>540</v>
       </c>
-      <c r="F180" s="96" t="s">
+      <c r="G180" s="100" t="s">
         <v>541</v>
       </c>
-      <c r="G180" s="101" t="s">
+      <c r="H180" s="97"/>
+      <c r="I180" s="101" t="s">
+        <v>536</v>
+      </c>
+      <c r="J180" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="K180" s="89"/>
+      <c r="L180" s="89"/>
+      <c r="M180" s="90"/>
+      <c r="N180" s="90"/>
+      <c r="O180" s="89" t="s">
         <v>542</v>
       </c>
-      <c r="H180" s="98"/>
-      <c r="I180" s="102" t="s">
-        <v>537</v>
-      </c>
-      <c r="J180" s="91" t="s">
+      <c r="P180" s="89"/>
+      <c r="Q180" s="89"/>
+      <c r="R180" s="89"/>
+      <c r="S180" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="T180" s="89"/>
+      <c r="U180" s="89"/>
+      <c r="V180" s="89"/>
+      <c r="W180" s="89"/>
+      <c r="X180" s="89"/>
+      <c r="Y180" s="90" t="s">
         <v>538</v>
       </c>
-      <c r="K180" s="90"/>
-      <c r="L180" s="90"/>
-      <c r="M180" s="91"/>
-      <c r="N180" s="91"/>
-      <c r="O180" s="90" t="s">
-        <v>543</v>
-      </c>
-      <c r="P180" s="90"/>
-      <c r="Q180" s="90"/>
-      <c r="R180" s="90"/>
-      <c r="S180" s="90" t="s">
-        <v>532</v>
-      </c>
-      <c r="T180" s="90"/>
-      <c r="U180" s="90"/>
-      <c r="V180" s="90"/>
-      <c r="W180" s="90"/>
-      <c r="X180" s="90"/>
-      <c r="Y180" s="91" t="s">
-        <v>539</v>
-      </c>
-      <c r="Z180" s="90"/>
-      <c r="AA180" s="90"/>
-      <c r="AB180" s="90"/>
-      <c r="AC180" s="90"/>
-      <c r="AD180" s="90"/>
-      <c r="AE180" s="90"/>
-      <c r="AF180" s="90" t="n">
+      <c r="Z180" s="89"/>
+      <c r="AA180" s="89"/>
+      <c r="AB180" s="89"/>
+      <c r="AC180" s="89"/>
+      <c r="AD180" s="89"/>
+      <c r="AE180" s="89"/>
+      <c r="AF180" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG180" s="90"/>
-      <c r="AH180" s="90"/>
-      <c r="AI180" s="90"/>
-      <c r="AJ180" s="90"/>
-      <c r="AK180" s="90"/>
-      <c r="AL180" s="100"/>
-      <c r="AM180" s="94"/>
+      <c r="AG180" s="89"/>
+      <c r="AH180" s="89"/>
+      <c r="AI180" s="89"/>
+      <c r="AJ180" s="89"/>
+      <c r="AK180" s="89"/>
+      <c r="AL180" s="99"/>
+      <c r="AM180" s="93"/>
       <c r="AN180" s="14" t="n">
         <v>179</v>
       </c>
-      <c r="AO180" s="90"/>
-      <c r="AP180" s="90"/>
-      <c r="AQ180" s="90"/>
+      <c r="AO180" s="89"/>
+      <c r="AP180" s="89"/>
+      <c r="AQ180" s="89"/>
     </row>
     <row r="181" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="n">
@@ -18231,72 +18245,72 @@
       <c r="C181" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D181" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E181" s="96" t="s">
+      <c r="D181" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E181" s="95" t="s">
+        <v>543</v>
+      </c>
+      <c r="F181" s="95" t="s">
         <v>544</v>
       </c>
-      <c r="F181" s="96" t="s">
+      <c r="G181" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="G181" s="101" t="s">
+      <c r="H181" s="97" t="s">
+        <v>316</v>
+      </c>
+      <c r="I181" s="101" t="s">
         <v>546</v>
       </c>
-      <c r="H181" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="I181" s="102" t="s">
+      <c r="J181" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="K181" s="89"/>
+      <c r="L181" s="89"/>
+      <c r="M181" s="90"/>
+      <c r="N181" s="90"/>
+      <c r="O181" s="90" t="s">
         <v>547</v>
       </c>
-      <c r="J181" s="91" t="s">
-        <v>538</v>
-      </c>
-      <c r="K181" s="90"/>
-      <c r="L181" s="90"/>
-      <c r="M181" s="91"/>
-      <c r="N181" s="91"/>
-      <c r="O181" s="91" t="s">
+      <c r="P181" s="89"/>
+      <c r="Q181" s="89"/>
+      <c r="R181" s="89"/>
+      <c r="S181" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="T181" s="89"/>
+      <c r="U181" s="89"/>
+      <c r="V181" s="89"/>
+      <c r="W181" s="89"/>
+      <c r="X181" s="89"/>
+      <c r="Y181" s="90" t="s">
         <v>548</v>
       </c>
-      <c r="P181" s="90"/>
-      <c r="Q181" s="90"/>
-      <c r="R181" s="90"/>
-      <c r="S181" s="90" t="s">
-        <v>532</v>
-      </c>
-      <c r="T181" s="90"/>
-      <c r="U181" s="90"/>
-      <c r="V181" s="90"/>
-      <c r="W181" s="90"/>
-      <c r="X181" s="90"/>
-      <c r="Y181" s="91" t="s">
-        <v>549</v>
-      </c>
-      <c r="Z181" s="90"/>
-      <c r="AA181" s="90"/>
-      <c r="AB181" s="90"/>
-      <c r="AC181" s="90"/>
-      <c r="AD181" s="90"/>
-      <c r="AE181" s="90"/>
-      <c r="AF181" s="90" t="n">
+      <c r="Z181" s="89"/>
+      <c r="AA181" s="89"/>
+      <c r="AB181" s="89"/>
+      <c r="AC181" s="89"/>
+      <c r="AD181" s="89"/>
+      <c r="AE181" s="89"/>
+      <c r="AF181" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG181" s="90"/>
-      <c r="AH181" s="90"/>
-      <c r="AI181" s="90"/>
-      <c r="AJ181" s="90"/>
-      <c r="AK181" s="90"/>
-      <c r="AL181" s="100"/>
-      <c r="AM181" s="94"/>
+      <c r="AG181" s="89"/>
+      <c r="AH181" s="89"/>
+      <c r="AI181" s="89"/>
+      <c r="AJ181" s="89"/>
+      <c r="AK181" s="89"/>
+      <c r="AL181" s="99"/>
+      <c r="AM181" s="93"/>
       <c r="AN181" s="14" t="n">
         <v>181</v>
       </c>
-      <c r="AO181" s="95" t="n">
+      <c r="AO181" s="94" t="n">
         <v>110</v>
       </c>
-      <c r="AP181" s="90"/>
-      <c r="AQ181" s="90"/>
+      <c r="AP181" s="89"/>
+      <c r="AQ181" s="89"/>
     </row>
     <row r="182" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="n">
@@ -18308,72 +18322,72 @@
       <c r="C182" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D182" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E182" s="96" t="s">
+      <c r="D182" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E182" s="95" t="s">
+        <v>543</v>
+      </c>
+      <c r="F182" s="95" t="s">
         <v>544</v>
       </c>
-      <c r="F182" s="96" t="s">
+      <c r="G182" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="G182" s="101" t="s">
+      <c r="H182" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="I182" s="101" t="s">
         <v>546</v>
       </c>
-      <c r="H182" s="98" t="s">
-        <v>342</v>
-      </c>
-      <c r="I182" s="102" t="s">
-        <v>547</v>
-      </c>
-      <c r="J182" s="91" t="s">
-        <v>538</v>
-      </c>
-      <c r="K182" s="90"/>
-      <c r="L182" s="90"/>
-      <c r="M182" s="91"/>
-      <c r="N182" s="91"/>
-      <c r="O182" s="91" t="s">
+      <c r="J182" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="K182" s="89"/>
+      <c r="L182" s="89"/>
+      <c r="M182" s="90"/>
+      <c r="N182" s="90"/>
+      <c r="O182" s="90" t="s">
+        <v>549</v>
+      </c>
+      <c r="P182" s="89"/>
+      <c r="Q182" s="89"/>
+      <c r="R182" s="89"/>
+      <c r="S182" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="T182" s="89"/>
+      <c r="U182" s="89"/>
+      <c r="V182" s="89"/>
+      <c r="W182" s="89"/>
+      <c r="X182" s="89"/>
+      <c r="Y182" s="90" t="s">
         <v>550</v>
       </c>
-      <c r="P182" s="90"/>
-      <c r="Q182" s="90"/>
-      <c r="R182" s="90"/>
-      <c r="S182" s="90" t="s">
-        <v>532</v>
-      </c>
-      <c r="T182" s="90"/>
-      <c r="U182" s="90"/>
-      <c r="V182" s="90"/>
-      <c r="W182" s="90"/>
-      <c r="X182" s="90"/>
-      <c r="Y182" s="91" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z182" s="90"/>
-      <c r="AA182" s="90"/>
-      <c r="AB182" s="90"/>
-      <c r="AC182" s="90"/>
-      <c r="AD182" s="90"/>
-      <c r="AE182" s="90"/>
-      <c r="AF182" s="90" t="n">
+      <c r="Z182" s="89"/>
+      <c r="AA182" s="89"/>
+      <c r="AB182" s="89"/>
+      <c r="AC182" s="89"/>
+      <c r="AD182" s="89"/>
+      <c r="AE182" s="89"/>
+      <c r="AF182" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG182" s="90"/>
-      <c r="AH182" s="90"/>
-      <c r="AI182" s="90"/>
-      <c r="AJ182" s="90"/>
-      <c r="AK182" s="90"/>
-      <c r="AL182" s="93"/>
-      <c r="AM182" s="94"/>
+      <c r="AG182" s="89"/>
+      <c r="AH182" s="89"/>
+      <c r="AI182" s="89"/>
+      <c r="AJ182" s="89"/>
+      <c r="AK182" s="89"/>
+      <c r="AL182" s="92"/>
+      <c r="AM182" s="93"/>
       <c r="AN182" s="14" t="n">
         <v>182</v>
       </c>
-      <c r="AO182" s="95" t="n">
+      <c r="AO182" s="94" t="n">
         <v>118</v>
       </c>
-      <c r="AP182" s="90"/>
-      <c r="AQ182" s="90"/>
+      <c r="AP182" s="89"/>
+      <c r="AQ182" s="89"/>
     </row>
     <row r="183" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="14" t="n">
@@ -18385,72 +18399,72 @@
       <c r="C183" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D183" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E183" s="96" t="s">
+      <c r="D183" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E183" s="95" t="s">
+        <v>543</v>
+      </c>
+      <c r="F183" s="95" t="s">
         <v>544</v>
       </c>
-      <c r="F183" s="96" t="s">
+      <c r="G183" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="G183" s="101" t="s">
+      <c r="H183" s="97" t="s">
+        <v>362</v>
+      </c>
+      <c r="I183" s="101" t="s">
         <v>546</v>
       </c>
-      <c r="H183" s="98" t="s">
-        <v>362</v>
-      </c>
-      <c r="I183" s="102" t="s">
-        <v>547</v>
-      </c>
-      <c r="J183" s="91" t="s">
-        <v>538</v>
-      </c>
-      <c r="K183" s="90"/>
-      <c r="L183" s="90"/>
-      <c r="M183" s="91"/>
-      <c r="N183" s="91"/>
-      <c r="O183" s="91" t="s">
-        <v>550</v>
-      </c>
-      <c r="P183" s="90"/>
-      <c r="Q183" s="90"/>
-      <c r="R183" s="90"/>
-      <c r="S183" s="90" t="s">
-        <v>532</v>
-      </c>
-      <c r="T183" s="90"/>
-      <c r="U183" s="90"/>
-      <c r="V183" s="90"/>
-      <c r="W183" s="90"/>
-      <c r="X183" s="90"/>
-      <c r="Y183" s="91" t="s">
-        <v>552</v>
-      </c>
-      <c r="Z183" s="90"/>
-      <c r="AA183" s="90"/>
-      <c r="AB183" s="90"/>
-      <c r="AC183" s="90"/>
-      <c r="AD183" s="90"/>
-      <c r="AE183" s="90"/>
-      <c r="AF183" s="90" t="n">
+      <c r="J183" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="K183" s="89"/>
+      <c r="L183" s="89"/>
+      <c r="M183" s="90"/>
+      <c r="N183" s="90"/>
+      <c r="O183" s="90" t="s">
+        <v>549</v>
+      </c>
+      <c r="P183" s="89"/>
+      <c r="Q183" s="89"/>
+      <c r="R183" s="89"/>
+      <c r="S183" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="T183" s="89"/>
+      <c r="U183" s="89"/>
+      <c r="V183" s="89"/>
+      <c r="W183" s="89"/>
+      <c r="X183" s="89"/>
+      <c r="Y183" s="90" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z183" s="89"/>
+      <c r="AA183" s="89"/>
+      <c r="AB183" s="89"/>
+      <c r="AC183" s="89"/>
+      <c r="AD183" s="89"/>
+      <c r="AE183" s="89"/>
+      <c r="AF183" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG183" s="90"/>
-      <c r="AH183" s="90"/>
-      <c r="AI183" s="90"/>
-      <c r="AJ183" s="90"/>
-      <c r="AK183" s="90"/>
-      <c r="AL183" s="100"/>
-      <c r="AM183" s="94"/>
+      <c r="AG183" s="89"/>
+      <c r="AH183" s="89"/>
+      <c r="AI183" s="89"/>
+      <c r="AJ183" s="89"/>
+      <c r="AK183" s="89"/>
+      <c r="AL183" s="99"/>
+      <c r="AM183" s="93"/>
       <c r="AN183" s="14" t="n">
         <v>183</v>
       </c>
-      <c r="AO183" s="95" t="n">
+      <c r="AO183" s="94" t="n">
         <v>125</v>
       </c>
-      <c r="AP183" s="90"/>
-      <c r="AQ183" s="90"/>
+      <c r="AP183" s="89"/>
+      <c r="AQ183" s="89"/>
     </row>
     <row r="184" customFormat="false" ht="55.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="14" t="n">
@@ -18462,72 +18476,72 @@
       <c r="C184" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D184" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E184" s="96" t="s">
+      <c r="D184" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E184" s="95" t="s">
+        <v>543</v>
+      </c>
+      <c r="F184" s="95" t="s">
         <v>544</v>
       </c>
-      <c r="F184" s="96" t="s">
+      <c r="G184" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="G184" s="101" t="s">
+      <c r="H184" s="97" t="s">
+        <v>393</v>
+      </c>
+      <c r="I184" s="101" t="s">
         <v>546</v>
       </c>
-      <c r="H184" s="98" t="s">
-        <v>393</v>
-      </c>
-      <c r="I184" s="102" t="s">
-        <v>547</v>
-      </c>
-      <c r="J184" s="91" t="s">
-        <v>538</v>
-      </c>
-      <c r="K184" s="90"/>
-      <c r="L184" s="90"/>
-      <c r="M184" s="91"/>
-      <c r="N184" s="91"/>
-      <c r="O184" s="91" t="s">
+      <c r="J184" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="K184" s="89"/>
+      <c r="L184" s="89"/>
+      <c r="M184" s="90"/>
+      <c r="N184" s="90"/>
+      <c r="O184" s="90" t="s">
+        <v>552</v>
+      </c>
+      <c r="P184" s="89"/>
+      <c r="Q184" s="89"/>
+      <c r="R184" s="89"/>
+      <c r="S184" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="T184" s="89"/>
+      <c r="U184" s="89"/>
+      <c r="V184" s="89"/>
+      <c r="W184" s="89"/>
+      <c r="X184" s="89"/>
+      <c r="Y184" s="90" t="s">
         <v>553</v>
       </c>
-      <c r="P184" s="90"/>
-      <c r="Q184" s="90"/>
-      <c r="R184" s="90"/>
-      <c r="S184" s="90" t="s">
-        <v>532</v>
-      </c>
-      <c r="T184" s="90"/>
-      <c r="U184" s="90"/>
-      <c r="V184" s="90"/>
-      <c r="W184" s="90"/>
-      <c r="X184" s="90"/>
-      <c r="Y184" s="91" t="s">
-        <v>554</v>
-      </c>
-      <c r="Z184" s="90"/>
-      <c r="AA184" s="90"/>
-      <c r="AB184" s="90"/>
-      <c r="AC184" s="90"/>
-      <c r="AD184" s="90"/>
-      <c r="AE184" s="90"/>
-      <c r="AF184" s="90" t="n">
+      <c r="Z184" s="89"/>
+      <c r="AA184" s="89"/>
+      <c r="AB184" s="89"/>
+      <c r="AC184" s="89"/>
+      <c r="AD184" s="89"/>
+      <c r="AE184" s="89"/>
+      <c r="AF184" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG184" s="90"/>
-      <c r="AH184" s="90"/>
-      <c r="AI184" s="90"/>
-      <c r="AJ184" s="90"/>
-      <c r="AK184" s="90"/>
-      <c r="AL184" s="100"/>
-      <c r="AM184" s="94"/>
+      <c r="AG184" s="89"/>
+      <c r="AH184" s="89"/>
+      <c r="AI184" s="89"/>
+      <c r="AJ184" s="89"/>
+      <c r="AK184" s="89"/>
+      <c r="AL184" s="99"/>
+      <c r="AM184" s="93"/>
       <c r="AN184" s="14" t="n">
         <v>184</v>
       </c>
-      <c r="AO184" s="95" t="n">
+      <c r="AO184" s="94" t="n">
         <v>136</v>
       </c>
-      <c r="AP184" s="90"/>
-      <c r="AQ184" s="90"/>
+      <c r="AP184" s="89"/>
+      <c r="AQ184" s="89"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ172"/>
@@ -18564,13 +18578,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="103" t="s">
-        <v>496</v>
+      <c r="A1" s="102" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="104" t="s">
-        <v>433</v>
+      <c r="A2" s="103" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -18601,36 +18615,36 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="105" t="s">
-        <v>419</v>
+      <c r="B1" s="104" t="s">
+        <v>418</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="104" t="s">
+        <v>477</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="H1" s="105" t="s">
-        <v>478</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>559</v>
-      </c>
       <c r="K1" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="105"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -18638,19 +18652,19 @@
         <f aca="false">C2*$C$6</f>
         <v>19.6</v>
       </c>
-      <c r="E2" s="106" t="n">
+      <c r="E2" s="105" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="105"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="107" t="n">
+      <c r="J2" s="106" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="105"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -18658,19 +18672,19 @@
         <f aca="false">C3*$C$6</f>
         <v>28</v>
       </c>
-      <c r="E3" s="108" t="n">
+      <c r="E3" s="107" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="105"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="109" t="n">
+      <c r="J3" s="108" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="105"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -18678,28 +18692,28 @@
         <f aca="false">C4*$C$6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="108" t="n">
+      <c r="E4" s="107" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="110" t="n">
+      <c r="F4" s="109" t="n">
         <f aca="false">C2/SUM(C2:C4)</f>
         <v>0.189189189189189</v>
       </c>
-      <c r="H4" s="105"/>
+      <c r="H4" s="104"/>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="107" t="n">
+      <c r="J4" s="106" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="111" t="n">
+      <c r="K4" s="110" t="n">
         <f aca="false">SUM(I2,I4)/SUM(I2:I4)</f>
         <v>0.72972972972973</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>28</v>
@@ -18733,49 +18747,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="112" t="s">
+        <v>560</v>
+      </c>
+      <c r="H1" s="112" t="s">
         <v>561</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="I1" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="112" t="s">
         <v>562</v>
       </c>
-      <c r="I1" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="113" t="s">
+      <c r="L1" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="112" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="113" t="s">
         <v>563</v>
-      </c>
-      <c r="L1" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="113" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="114" t="s">
-        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Big" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,6 +52,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1470,10 +1471,10 @@
     <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Max 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+    <t xml:space="preserve">Cooler: Max 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 26 СКЮ на дверь</t>
   </si>
   <si>
     <t xml:space="preserve">number of SKU per Door RANGE</t>
@@ -1971,9 +1972,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0%"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
@@ -2154,7 +2155,7 @@
     </border>
   </borders>
   <cellStyleXfs count="21">
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2176,43 +2177,99 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2220,75 +2277,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2296,31 +2297,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2328,31 +2329,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2360,23 +2357,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2396,20 +2397,9 @@
         <name val="Calibri"/>
         <charset val="1"/>
         <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <color rgb="FF000000"/>
-        <u val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -2486,19 +2476,19 @@
   </sheetPr>
   <dimension ref="A1:AR184"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AG149" activeCellId="0" sqref="AG149"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="M148" activeCellId="0" sqref="M148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="48.7044534412956"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="14.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="14.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="14.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15216,7 +15206,7 @@
         <v>1</v>
       </c>
       <c r="M147" s="12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N147" s="9" t="s">
         <v>242</v>
@@ -18352,9 +18342,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
@@ -18389,9 +18376,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="39" t="s">
@@ -18521,9 +18505,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">

--- a/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Big" sheetId="1" state="visible" r:id="rId2"/>
@@ -53,6 +53,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="573">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -747,22 +748,40 @@
     <t xml:space="preserve">Рич - Вишня - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Мультифрут - 1л</t>
+    <t xml:space="preserve">Moya Semya - Berry Mix - 0.95L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Ягода-Вкуснягода - 0.95л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Mix - 0.95L, Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075421239, 4607174578449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple mix - 0.95L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблочный Микс - 0.95л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple mix - 0.95L, Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075421178, 4607174578029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Pineapple Mango - 0.95L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Ананас-Маракас - 0.95л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Pineapple Mango - 0.95L, Moya Semya - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075421536, 4607174578548</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
@@ -807,10 +826,14 @@
     <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Pouch smoothie1 - 0.11L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Смузи 1 - 0.11л</t>
+    <t xml:space="preserve">Dobriy - Berry Smoothie – 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Смуззи - Ягодный Дэнс - 110 гр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Berry Smoothie - 0.11L
+</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Vegetable Mix - 1L</t>
@@ -819,10 +842,10 @@
     <t xml:space="preserve">Добрый Уголки - Овощной микс - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Pouch smoothie2 - 0.11L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Смузи 2 - 0.11л</t>
+    <t xml:space="preserve">Dobriy - Strawberry Smoothie - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Смуззи - Клубника Банана Гоу - 110 гр</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
@@ -831,10 +854,16 @@
     <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
   </si>
   <si>
-    <t xml:space="preserve">Moya Semya - Citrus Mix - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Цитрус микс - 1л</t>
+    <t xml:space="preserve">Moya Semya - Strawberry - 0.95L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Клубничина-Земляничина - 0.95л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple-Strawberry - 0.95L, Moya Semya - Citrus Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075421574, 4607174579477</t>
   </si>
   <si>
     <t xml:space="preserve">Rich - Mango-Orange - 1L</t>
@@ -1009,16 +1038,16 @@
     <t xml:space="preserve">Сок полка: Добрый - Апельсин - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Shelf: Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок полка: Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Shelf: Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок полка: Моя Семья - Яблоко - 1л</t>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Berry Mix - 0.95L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Моя Семья - Ягода-Вкуснягода - 0.95л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Apple mix - 0.95L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Моя Семья - Яблочный Микс - 0.95л</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 21</t>
@@ -1978,7 +2007,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2054,6 +2083,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -2083,7 +2119,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2094,6 +2130,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2184,7 +2226,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2277,15 +2319,47 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2309,7 +2383,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2333,11 +2407,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2345,19 +2419,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2369,15 +2443,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2391,7 +2465,15 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -2477,18 +2559,18 @@
   <dimension ref="A1:AR184"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M148" activeCellId="0" sqref="M148"/>
+      <selection pane="bottomLeft" activeCell="J91" activeCellId="0" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="48.7044534412956"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="14.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="14.6882591093117"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8455,10 +8537,10 @@
         <v>123</v>
       </c>
       <c r="F69" s="13"/>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="24" t="s">
         <v>203</v>
       </c>
       <c r="I69" s="9" t="s">
@@ -8470,11 +8552,11 @@
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
-      <c r="N69" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="O69" s="15" t="n">
-        <v>4607174578449</v>
+      <c r="N69" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O69" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
@@ -8543,11 +8625,11 @@
         <v>123</v>
       </c>
       <c r="F70" s="13"/>
-      <c r="G70" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>205</v>
+      <c r="G70" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>54</v>
@@ -8558,11 +8640,11 @@
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
-      <c r="N70" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="O70" s="15" t="n">
-        <v>4607174578029</v>
+      <c r="N70" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O70" s="25" t="s">
+        <v>209</v>
       </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
@@ -8631,11 +8713,11 @@
         <v>123</v>
       </c>
       <c r="F71" s="13"/>
-      <c r="G71" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>207</v>
+      <c r="G71" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>54</v>
@@ -8646,11 +8728,11 @@
       </c>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
-      <c r="N71" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="O71" s="15" t="n">
-        <v>4607174578548</v>
+      <c r="N71" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O71" s="25" t="s">
+        <v>213</v>
       </c>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
@@ -8720,10 +8802,10 @@
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>54</v>
@@ -8735,7 +8817,7 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="12" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O72" s="15" t="n">
         <v>4607174577145</v>
@@ -8808,10 +8890,10 @@
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>54</v>
@@ -8823,7 +8905,7 @@
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="12" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O73" s="15" t="n">
         <v>4607042438998</v>
@@ -8896,10 +8978,10 @@
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>54</v>
@@ -8911,7 +8993,7 @@
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="12" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O74" s="15" t="n">
         <v>4607042431371</v>
@@ -8984,10 +9066,10 @@
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>54</v>
@@ -8999,7 +9081,7 @@
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="O75" s="15" t="n">
         <v>4607174579385</v>
@@ -9072,10 +9154,10 @@
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>54</v>
@@ -9087,7 +9169,7 @@
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="O76" s="15" t="n">
         <v>4650075420287</v>
@@ -9160,10 +9242,10 @@
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>54</v>
@@ -9175,7 +9257,7 @@
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="12" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="O77" s="15" t="n">
         <v>4650075420249</v>
@@ -9248,10 +9330,10 @@
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>54</v>
@@ -9263,7 +9345,7 @@
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="14" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O78" s="15" t="n">
         <v>4650075420980</v>
@@ -9335,11 +9417,11 @@
         <v>123</v>
       </c>
       <c r="F79" s="13"/>
-      <c r="G79" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>223</v>
+      <c r="G79" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>54</v>
@@ -9350,11 +9432,11 @@
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
-      <c r="N79" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="O79" s="15" t="n">
-        <v>4607042430824</v>
+      <c r="N79" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O79" s="25" t="n">
+        <v>4650075421970</v>
       </c>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
@@ -9424,10 +9506,10 @@
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>54</v>
@@ -9439,7 +9521,7 @@
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O80" s="15" t="n">
         <v>4650075421147</v>
@@ -9511,11 +9593,11 @@
         <v>123</v>
       </c>
       <c r="F81" s="13"/>
-      <c r="G81" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>227</v>
+      <c r="G81" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>234</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>54</v>
@@ -9526,11 +9608,11 @@
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
-      <c r="N81" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="O81" s="15" t="n">
-        <v>4607042430886</v>
+      <c r="N81" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="O81" s="28" t="n">
+        <v>4650075421932</v>
       </c>
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
@@ -9600,10 +9682,10 @@
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="9" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>54</v>
@@ -9615,7 +9697,7 @@
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="O82" s="15" t="n">
         <v>4607174579729</v>
@@ -9664,7 +9746,7 @@
         <v>81</v>
       </c>
       <c r="AO82" s="8"/>
-      <c r="AP82" s="24" t="s">
+      <c r="AP82" s="29" t="s">
         <v>165</v>
       </c>
       <c r="AQ82" s="12"/>
@@ -9687,11 +9769,11 @@
         <v>123</v>
       </c>
       <c r="F83" s="13"/>
-      <c r="G83" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>231</v>
+      <c r="G83" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="H83" s="30" t="s">
+        <v>238</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>54</v>
@@ -9702,11 +9784,11 @@
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
-      <c r="N83" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="O83" s="15" t="n">
-        <v>4607174579477</v>
+      <c r="N83" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="O83" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
@@ -9752,7 +9834,7 @@
         <v>82</v>
       </c>
       <c r="AO83" s="8"/>
-      <c r="AP83" s="24" t="s">
+      <c r="AP83" s="29" t="s">
         <v>165</v>
       </c>
       <c r="AQ83" s="12"/>
@@ -9776,10 +9858,10 @@
       </c>
       <c r="F84" s="13"/>
       <c r="G84" s="9" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>54</v>
@@ -9791,7 +9873,7 @@
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="12" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="O84" s="15" t="n">
         <v>4607174579668</v>
@@ -9840,7 +9922,7 @@
         <v>83</v>
       </c>
       <c r="AO84" s="8"/>
-      <c r="AP84" s="24" t="s">
+      <c r="AP84" s="29" t="s">
         <v>165</v>
       </c>
       <c r="AQ84" s="12"/>
@@ -9864,10 +9946,10 @@
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="9" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>54</v>
@@ -9878,8 +9960,8 @@
       </c>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
-      <c r="N85" s="23" t="s">
-        <v>234</v>
+      <c r="N85" s="31" t="s">
+        <v>243</v>
       </c>
       <c r="O85" s="15" t="n">
         <v>4607042438967</v>
@@ -9928,7 +10010,7 @@
         <v>84</v>
       </c>
       <c r="AO85" s="8"/>
-      <c r="AP85" s="24" t="s">
+      <c r="AP85" s="29" t="s">
         <v>165</v>
       </c>
       <c r="AQ85" s="12"/>
@@ -9952,10 +10034,10 @@
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="9" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>54</v>
@@ -9966,8 +10048,8 @@
       </c>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
-      <c r="N86" s="23" t="s">
-        <v>236</v>
+      <c r="N86" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="O86" s="15" t="n">
         <v>4607174579248</v>
@@ -10016,7 +10098,7 @@
         <v>85</v>
       </c>
       <c r="AO86" s="8"/>
-      <c r="AP86" s="24" t="s">
+      <c r="AP86" s="29" t="s">
         <v>165</v>
       </c>
       <c r="AQ86" s="12"/>
@@ -10036,17 +10118,17 @@
         <v>45</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="9" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9" t="n">
@@ -10055,25 +10137,25 @@
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O87" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P87" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q87" s="22"/>
       <c r="R87" s="8"/>
       <c r="S87" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
       <c r="X87" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
@@ -10084,7 +10166,7 @@
         <v>50</v>
       </c>
       <c r="AE87" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF87" s="17" t="n">
         <v>0.06</v>
@@ -10102,7 +10184,7 @@
         <v>86</v>
       </c>
       <c r="AO87" s="8"/>
-      <c r="AP87" s="24"/>
+      <c r="AP87" s="29"/>
       <c r="AQ87" s="8"/>
       <c r="AR87" s="0"/>
     </row>
@@ -10117,20 +10199,20 @@
         <v>44</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9" t="n">
@@ -10143,7 +10225,7 @@
       <c r="P88" s="22"/>
       <c r="Q88" s="22"/>
       <c r="R88" s="9" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S88" s="8"/>
       <c r="T88" s="8"/>
@@ -10151,14 +10233,14 @@
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
       <c r="X88" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
       <c r="AC88" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD88" s="9" t="s">
         <v>50</v>
@@ -10182,10 +10264,10 @@
         <v>87</v>
       </c>
       <c r="AO88" s="11" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AP88" s="14" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AQ88" s="8"/>
       <c r="AR88" s="0"/>
@@ -10201,17 +10283,17 @@
         <v>44</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="9" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>54</v>
@@ -10241,14 +10323,14 @@
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
       <c r="X89" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
       <c r="AA89" s="8"/>
       <c r="AB89" s="8"/>
       <c r="AC89" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD89" s="9" t="s">
         <v>50</v>
@@ -10273,7 +10355,7 @@
       </c>
       <c r="AO89" s="8"/>
       <c r="AP89" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ89" s="8"/>
       <c r="AR89" s="0"/>
@@ -10289,17 +10371,17 @@
         <v>44</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="9" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>54</v>
@@ -10329,14 +10411,14 @@
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
       <c r="X90" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8"/>
       <c r="AB90" s="8"/>
       <c r="AC90" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD90" s="9" t="s">
         <v>50</v>
@@ -10361,7 +10443,7 @@
       </c>
       <c r="AO90" s="8"/>
       <c r="AP90" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ90" s="8"/>
       <c r="AR90" s="0"/>
@@ -10377,17 +10459,17 @@
         <v>44</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="9" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>54</v>
@@ -10417,14 +10499,14 @@
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
       <c r="X91" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8"/>
       <c r="AB91" s="8"/>
       <c r="AC91" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD91" s="9" t="s">
         <v>50</v>
@@ -10449,7 +10531,7 @@
       </c>
       <c r="AO91" s="8"/>
       <c r="AP91" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ91" s="8"/>
       <c r="AR91" s="0"/>
@@ -10465,17 +10547,17 @@
         <v>44</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="9" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>54</v>
@@ -10505,14 +10587,14 @@
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
       <c r="X92" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
       <c r="AB92" s="8"/>
       <c r="AC92" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD92" s="9" t="s">
         <v>50</v>
@@ -10537,7 +10619,7 @@
       </c>
       <c r="AO92" s="8"/>
       <c r="AP92" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ92" s="8"/>
       <c r="AR92" s="0"/>
@@ -10553,17 +10635,17 @@
         <v>44</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="9" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>54</v>
@@ -10575,7 +10657,7 @@
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O93" s="16" t="s">
         <v>62</v>
@@ -10593,14 +10675,14 @@
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
       <c r="X93" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8"/>
       <c r="AB93" s="8"/>
       <c r="AC93" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD93" s="9" t="s">
         <v>50</v>
@@ -10625,7 +10707,7 @@
       </c>
       <c r="AO93" s="8"/>
       <c r="AP93" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ93" s="8"/>
       <c r="AR93" s="0"/>
@@ -10641,17 +10723,17 @@
         <v>44</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="9" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>54</v>
@@ -10663,7 +10745,7 @@
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O94" s="16" t="s">
         <v>77</v>
@@ -10681,14 +10763,14 @@
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
       <c r="X94" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
       <c r="AA94" s="8"/>
       <c r="AB94" s="8"/>
       <c r="AC94" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD94" s="9" t="s">
         <v>50</v>
@@ -10713,7 +10795,7 @@
       </c>
       <c r="AO94" s="8"/>
       <c r="AP94" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ94" s="8"/>
       <c r="AR94" s="0"/>
@@ -10729,17 +10811,17 @@
         <v>44</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="9" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>54</v>
@@ -10751,7 +10833,7 @@
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="O95" s="16" t="s">
         <v>74</v>
@@ -10769,14 +10851,14 @@
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
       <c r="X95" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8"/>
       <c r="AB95" s="8"/>
       <c r="AC95" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD95" s="9" t="s">
         <v>50</v>
@@ -10801,7 +10883,7 @@
       </c>
       <c r="AO95" s="8"/>
       <c r="AP95" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ95" s="8"/>
       <c r="AR95" s="0"/>
@@ -10820,17 +10902,17 @@
         <v>45</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="9" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9" t="n">
@@ -10839,25 +10921,25 @@
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O96" s="22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="P96" s="22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q96" s="22"/>
       <c r="R96" s="8"/>
       <c r="S96" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
       <c r="X96" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
@@ -10868,7 +10950,7 @@
         <v>50</v>
       </c>
       <c r="AE96" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF96" s="17" t="n">
         <v>0.05</v>
@@ -10886,7 +10968,7 @@
         <v>95</v>
       </c>
       <c r="AO96" s="8"/>
-      <c r="AP96" s="24"/>
+      <c r="AP96" s="29"/>
       <c r="AQ96" s="8"/>
       <c r="AR96" s="0"/>
     </row>
@@ -10901,20 +10983,20 @@
         <v>44</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="n">
@@ -10927,7 +11009,7 @@
       <c r="P97" s="22"/>
       <c r="Q97" s="22"/>
       <c r="R97" s="9" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -10935,14 +11017,14 @@
       <c r="V97" s="8"/>
       <c r="W97" s="8"/>
       <c r="X97" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8"/>
       <c r="AB97" s="8"/>
       <c r="AC97" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD97" s="9" t="s">
         <v>50</v>
@@ -10966,10 +11048,10 @@
         <v>96</v>
       </c>
       <c r="AO97" s="11" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="AP97" s="14" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AQ97" s="8"/>
       <c r="AR97" s="0"/>
@@ -10985,17 +11067,17 @@
         <v>44</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="9" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>54</v>
@@ -11014,10 +11096,10 @@
       </c>
       <c r="P98" s="16"/>
       <c r="Q98" s="16"/>
-      <c r="R98" s="25" t="s">
+      <c r="R98" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S98" s="25" t="s">
+      <c r="S98" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T98" s="8"/>
@@ -11025,14 +11107,14 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
       <c r="X98" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8"/>
       <c r="AB98" s="8"/>
       <c r="AC98" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD98" s="9" t="s">
         <v>50</v>
@@ -11057,7 +11139,7 @@
       </c>
       <c r="AO98" s="8"/>
       <c r="AP98" s="9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AQ98" s="8"/>
       <c r="AR98" s="0"/>
@@ -11073,17 +11155,17 @@
         <v>44</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="9" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>54</v>
@@ -11102,10 +11184,10 @@
       </c>
       <c r="P99" s="16"/>
       <c r="Q99" s="16"/>
-      <c r="R99" s="25" t="s">
+      <c r="R99" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S99" s="25" t="s">
+      <c r="S99" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T99" s="8"/>
@@ -11113,14 +11195,14 @@
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
       <c r="X99" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
       <c r="AA99" s="8"/>
       <c r="AB99" s="8"/>
       <c r="AC99" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD99" s="9" t="s">
         <v>50</v>
@@ -11145,7 +11227,7 @@
       </c>
       <c r="AO99" s="8"/>
       <c r="AP99" s="9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AQ99" s="8"/>
       <c r="AR99" s="0"/>
@@ -11161,17 +11243,17 @@
         <v>44</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="9" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>54</v>
@@ -11190,10 +11272,10 @@
       </c>
       <c r="P100" s="16"/>
       <c r="Q100" s="16"/>
-      <c r="R100" s="25" t="s">
+      <c r="R100" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S100" s="25" t="s">
+      <c r="S100" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T100" s="8"/>
@@ -11201,14 +11283,14 @@
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
       <c r="X100" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
       <c r="AA100" s="8"/>
       <c r="AB100" s="8"/>
       <c r="AC100" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD100" s="9" t="s">
         <v>50</v>
@@ -11233,7 +11315,7 @@
       </c>
       <c r="AO100" s="8"/>
       <c r="AP100" s="9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AQ100" s="8"/>
       <c r="AR100" s="0"/>
@@ -11249,17 +11331,17 @@
         <v>44</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F101" s="8"/>
-      <c r="G101" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>287</v>
+      <c r="G101" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="H101" s="27" t="s">
+        <v>296</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>54</v>
@@ -11270,18 +11352,18 @@
       </c>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
-      <c r="N101" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="O101" s="26" t="n">
-        <v>4607174578449</v>
-      </c>
-      <c r="P101" s="26"/>
-      <c r="Q101" s="26"/>
-      <c r="R101" s="25" t="s">
+      <c r="N101" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O101" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="P101" s="34"/>
+      <c r="Q101" s="34"/>
+      <c r="R101" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S101" s="25" t="s">
+      <c r="S101" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T101" s="8"/>
@@ -11289,14 +11371,14 @@
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
       <c r="X101" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
       <c r="AA101" s="8"/>
       <c r="AB101" s="8"/>
       <c r="AC101" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD101" s="9" t="s">
         <v>50</v>
@@ -11321,7 +11403,7 @@
       </c>
       <c r="AO101" s="8"/>
       <c r="AP101" s="9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AQ101" s="8"/>
       <c r="AR101" s="0"/>
@@ -11337,17 +11419,17 @@
         <v>44</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F102" s="8"/>
-      <c r="G102" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>289</v>
+      <c r="G102" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="H102" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>54</v>
@@ -11358,18 +11440,18 @@
       </c>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
-      <c r="N102" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="O102" s="26" t="n">
-        <v>4607174578029</v>
-      </c>
-      <c r="P102" s="26"/>
-      <c r="Q102" s="26"/>
-      <c r="R102" s="25" t="s">
+      <c r="N102" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O102" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="P102" s="34"/>
+      <c r="Q102" s="34"/>
+      <c r="R102" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S102" s="25" t="s">
+      <c r="S102" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T102" s="8"/>
@@ -11377,14 +11459,14 @@
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
       <c r="X102" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
       <c r="AA102" s="8"/>
       <c r="AB102" s="8"/>
       <c r="AC102" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD102" s="9" t="s">
         <v>50</v>
@@ -11409,7 +11491,7 @@
       </c>
       <c r="AO102" s="8"/>
       <c r="AP102" s="9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AQ102" s="8"/>
       <c r="AR102" s="0"/>
@@ -11428,17 +11510,17 @@
         <v>45</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="9" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9" t="n">
@@ -11447,25 +11529,25 @@
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O103" s="22" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="P103" s="22" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q103" s="22"/>
       <c r="R103" s="8"/>
       <c r="S103" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
       <c r="X103" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
@@ -11476,7 +11558,7 @@
         <v>50</v>
       </c>
       <c r="AE103" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF103" s="17" t="n">
         <v>0.015</v>
@@ -11494,7 +11576,7 @@
         <v>102</v>
       </c>
       <c r="AO103" s="8"/>
-      <c r="AP103" s="24"/>
+      <c r="AP103" s="29"/>
       <c r="AQ103" s="8"/>
       <c r="AR103" s="0"/>
     </row>
@@ -11509,20 +11591,20 @@
         <v>44</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F104" s="8"/>
       <c r="G104" s="9" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9" t="n">
@@ -11535,7 +11617,7 @@
       <c r="P104" s="22"/>
       <c r="Q104" s="22"/>
       <c r="R104" s="12" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S104" s="8"/>
       <c r="T104" s="8"/>
@@ -11543,14 +11625,14 @@
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
       <c r="X104" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
       <c r="AA104" s="8"/>
       <c r="AB104" s="8"/>
       <c r="AC104" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD104" s="9" t="s">
         <v>50</v>
@@ -11573,11 +11655,11 @@
       <c r="AN104" s="13" t="n">
         <v>103</v>
       </c>
-      <c r="AO104" s="27" t="s">
-        <v>296</v>
+      <c r="AO104" s="35" t="s">
+        <v>305</v>
       </c>
       <c r="AP104" s="14" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AQ104" s="8"/>
       <c r="AR104" s="0"/>
@@ -11593,17 +11675,17 @@
         <v>44</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="9" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>54</v>
@@ -11615,7 +11697,7 @@
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="12" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="O105" s="16" t="n">
         <v>5449000005489</v>
@@ -11625,7 +11707,7 @@
       <c r="R105" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S105" s="25" t="s">
+      <c r="S105" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T105" s="8"/>
@@ -11633,14 +11715,14 @@
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
       <c r="X105" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
       <c r="AA105" s="8"/>
       <c r="AB105" s="8"/>
       <c r="AC105" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD105" s="9" t="s">
         <v>50</v>
@@ -11665,7 +11747,7 @@
       </c>
       <c r="AO105" s="8"/>
       <c r="AP105" s="9" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AQ105" s="8"/>
       <c r="AR105" s="0"/>
@@ -11684,17 +11766,17 @@
         <v>45</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="9" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="9" t="n">
@@ -11703,25 +11785,25 @@
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O106" s="10" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="P106" s="10" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q106" s="10"/>
-      <c r="R106" s="25"/>
+      <c r="R106" s="32"/>
       <c r="S106" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
       <c r="X106" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
@@ -11732,7 +11814,7 @@
         <v>50</v>
       </c>
       <c r="AE106" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF106" s="17" t="n">
         <v>0.03</v>
@@ -11750,7 +11832,7 @@
         <v>105</v>
       </c>
       <c r="AO106" s="8"/>
-      <c r="AP106" s="24"/>
+      <c r="AP106" s="29"/>
       <c r="AQ106" s="8"/>
       <c r="AR106" s="0"/>
     </row>
@@ -11765,20 +11847,20 @@
         <v>44</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="9" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9" t="n">
@@ -11791,7 +11873,7 @@
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
       <c r="R107" s="12" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
@@ -11799,14 +11881,14 @@
       <c r="V107" s="8"/>
       <c r="W107" s="8"/>
       <c r="X107" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y107" s="8"/>
       <c r="Z107" s="8"/>
       <c r="AA107" s="8"/>
       <c r="AB107" s="8"/>
       <c r="AC107" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD107" s="9" t="s">
         <v>50</v>
@@ -11830,10 +11912,10 @@
         <v>106</v>
       </c>
       <c r="AO107" s="11" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AP107" s="14" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AQ107" s="8"/>
       <c r="AR107" s="0"/>
@@ -11849,17 +11931,17 @@
         <v>44</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="9" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>54</v>
@@ -11881,7 +11963,7 @@
       <c r="R108" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S108" s="25" t="s">
+      <c r="S108" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T108" s="8"/>
@@ -11889,14 +11971,14 @@
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
       <c r="X108" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y108" s="8"/>
       <c r="Z108" s="8"/>
       <c r="AA108" s="8"/>
       <c r="AB108" s="8"/>
       <c r="AC108" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD108" s="9" t="s">
         <v>50</v>
@@ -11921,7 +12003,7 @@
       </c>
       <c r="AO108" s="8"/>
       <c r="AP108" s="9" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AQ108" s="8"/>
       <c r="AR108" s="0"/>
@@ -11937,17 +12019,17 @@
         <v>44</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="9" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="I109" s="9" t="s">
         <v>54</v>
@@ -11969,7 +12051,7 @@
       <c r="R109" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S109" s="25" t="s">
+      <c r="S109" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T109" s="8"/>
@@ -11977,14 +12059,14 @@
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
       <c r="X109" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
       <c r="AA109" s="8"/>
       <c r="AB109" s="8"/>
       <c r="AC109" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD109" s="9" t="s">
         <v>50</v>
@@ -12009,7 +12091,7 @@
       </c>
       <c r="AO109" s="8"/>
       <c r="AP109" s="9" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AQ109" s="8"/>
       <c r="AR109" s="0"/>
@@ -12028,17 +12110,17 @@
         <v>45</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="9" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="9" t="n">
@@ -12047,25 +12129,25 @@
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O110" s="10" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P110" s="10" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q110" s="10"/>
       <c r="R110" s="8"/>
       <c r="S110" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
       <c r="V110" s="8"/>
       <c r="W110" s="8"/>
       <c r="X110" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
@@ -12076,7 +12158,7 @@
         <v>50</v>
       </c>
       <c r="AE110" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF110" s="17" t="n">
         <v>0.025</v>
@@ -12112,17 +12194,17 @@
         <v>45</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J111" s="0"/>
       <c r="K111" s="9" t="n">
@@ -12135,7 +12217,7 @@
       <c r="P111" s="22"/>
       <c r="Q111" s="22"/>
       <c r="R111" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S111" s="8"/>
       <c r="T111" s="8"/>
@@ -12143,7 +12225,7 @@
       <c r="V111" s="9"/>
       <c r="W111" s="8"/>
       <c r="X111" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
@@ -12174,7 +12256,7 @@
         <v>110</v>
       </c>
       <c r="AO111" s="11" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="AP111" s="8"/>
       <c r="AQ111" s="8"/>
@@ -12194,14 +12276,14 @@
         <v>45</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F112" s="8"/>
       <c r="G112" s="9" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>54</v>
@@ -12213,27 +12295,27 @@
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O112" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P112" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q112" s="22"/>
       <c r="R112" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S112" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
       <c r="V112" s="9"/>
       <c r="W112" s="8"/>
       <c r="X112" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y112" s="8"/>
       <c r="Z112" s="8"/>
@@ -12265,7 +12347,7 @@
       </c>
       <c r="AO112" s="8"/>
       <c r="AP112" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AQ112" s="8"/>
       <c r="AR112" s="0"/>
@@ -12284,17 +12366,17 @@
         <v>45</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F113" s="8"/>
       <c r="G113" s="8" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9" t="n">
@@ -12310,16 +12392,16 @@
         <v>55</v>
       </c>
       <c r="S113" s="8" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
       <c r="V113" s="9" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="W113" s="8"/>
       <c r="X113" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y113" s="8"/>
       <c r="Z113" s="8"/>
@@ -12351,7 +12433,7 @@
       </c>
       <c r="AO113" s="8"/>
       <c r="AP113" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AQ113" s="8"/>
       <c r="AR113" s="0"/>
@@ -12370,17 +12452,17 @@
         <v>45</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F114" s="8"/>
       <c r="G114" s="9" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -12393,7 +12475,7 @@
         <v>5449000000439</v>
       </c>
       <c r="P114" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q114" s="22"/>
       <c r="R114" s="8" t="s">
@@ -12407,7 +12489,7 @@
       <c r="V114" s="9"/>
       <c r="W114" s="8"/>
       <c r="X114" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y114" s="8"/>
       <c r="Z114" s="8"/>
@@ -12429,7 +12511,7 @@
       <c r="AH114" s="9"/>
       <c r="AI114" s="9"/>
       <c r="AJ114" s="9" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AK114" s="9"/>
       <c r="AL114" s="9"/>
@@ -12441,7 +12523,7 @@
       </c>
       <c r="AO114" s="8"/>
       <c r="AP114" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AQ114" s="8"/>
       <c r="AR114" s="0"/>
@@ -12457,20 +12539,20 @@
         <v>44</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F115" s="8"/>
       <c r="G115" s="8" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J115" s="0"/>
       <c r="K115" s="9" t="n">
@@ -12483,7 +12565,7 @@
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
       <c r="R115" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S115" s="8"/>
       <c r="T115" s="8"/>
@@ -12491,7 +12573,7 @@
       <c r="V115" s="9"/>
       <c r="W115" s="8"/>
       <c r="X115" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y115" s="8"/>
       <c r="Z115" s="8"/>
@@ -12512,10 +12594,10 @@
       <c r="AG115" s="9"/>
       <c r="AH115" s="9"/>
       <c r="AI115" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AJ115" s="9" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AK115" s="9"/>
       <c r="AL115" s="9"/>
@@ -12526,7 +12608,7 @@
         <v>114</v>
       </c>
       <c r="AO115" s="11" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="AP115" s="8"/>
       <c r="AQ115" s="8"/>
@@ -12543,17 +12625,17 @@
         <v>44</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="9" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>54</v>
@@ -12575,7 +12657,7 @@
       <c r="R116" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S116" s="25" t="s">
+      <c r="S116" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T116" s="8"/>
@@ -12583,7 +12665,7 @@
       <c r="V116" s="9"/>
       <c r="W116" s="8"/>
       <c r="X116" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y116" s="8"/>
       <c r="Z116" s="8"/>
@@ -12615,7 +12697,7 @@
       </c>
       <c r="AO116" s="8"/>
       <c r="AP116" s="8" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AQ116" s="8"/>
       <c r="AR116" s="0"/>
@@ -12631,17 +12713,17 @@
         <v>44</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F117" s="8"/>
       <c r="G117" s="9" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="I117" s="9" t="s">
         <v>54</v>
@@ -12663,7 +12745,7 @@
       <c r="R117" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S117" s="25" t="s">
+      <c r="S117" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T117" s="8"/>
@@ -12671,7 +12753,7 @@
       <c r="V117" s="9"/>
       <c r="W117" s="8"/>
       <c r="X117" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y117" s="8"/>
       <c r="Z117" s="8"/>
@@ -12703,7 +12785,7 @@
       </c>
       <c r="AO117" s="8"/>
       <c r="AP117" s="8" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AQ117" s="8"/>
       <c r="AR117" s="0"/>
@@ -12719,17 +12801,17 @@
         <v>44</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F118" s="8"/>
       <c r="G118" s="9" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>54</v>
@@ -12751,7 +12833,7 @@
       <c r="R118" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S118" s="25" t="s">
+      <c r="S118" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T118" s="8"/>
@@ -12759,7 +12841,7 @@
       <c r="V118" s="9"/>
       <c r="W118" s="8"/>
       <c r="X118" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y118" s="8"/>
       <c r="Z118" s="8"/>
@@ -12791,10 +12873,10 @@
       </c>
       <c r="AO118" s="8"/>
       <c r="AP118" s="8" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AQ118" s="8"/>
-      <c r="AR118" s="28"/>
+      <c r="AR118" s="36"/>
     </row>
     <row r="119" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="n">
@@ -12810,17 +12892,17 @@
         <v>45</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="8" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J119" s="0"/>
       <c r="K119" s="9" t="n">
@@ -12833,7 +12915,7 @@
       <c r="P119" s="22"/>
       <c r="Q119" s="22"/>
       <c r="R119" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S119" s="8"/>
       <c r="T119" s="8"/>
@@ -12841,7 +12923,7 @@
       <c r="V119" s="9"/>
       <c r="W119" s="8"/>
       <c r="X119" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y119" s="8"/>
       <c r="Z119" s="8"/>
@@ -12872,7 +12954,7 @@
         <v>118</v>
       </c>
       <c r="AO119" s="11" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AP119" s="8"/>
       <c r="AQ119" s="8"/>
@@ -12891,14 +12973,14 @@
         <v>45</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="9" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="I120" s="9" t="s">
         <v>54</v>
@@ -12910,27 +12992,27 @@
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
       <c r="N120" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O120" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P120" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q120" s="22"/>
       <c r="R120" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
       <c r="V120" s="9"/>
       <c r="W120" s="8"/>
       <c r="X120" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
@@ -12962,7 +13044,7 @@
       </c>
       <c r="AO120" s="8"/>
       <c r="AP120" s="8" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AQ120" s="8"/>
     </row>
@@ -12980,17 +13062,17 @@
         <v>45</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="n">
@@ -13006,16 +13088,16 @@
         <v>55</v>
       </c>
       <c r="S121" s="8" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
       <c r="V121" s="9" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="W121" s="8"/>
       <c r="X121" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
@@ -13047,7 +13129,7 @@
       </c>
       <c r="AO121" s="8"/>
       <c r="AP121" s="8" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AQ121" s="8"/>
     </row>
@@ -13065,30 +13147,30 @@
         <v>45</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="9" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
       <c r="M122" s="9"/>
       <c r="N122" s="9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O122" s="16" t="s">
         <v>62</v>
       </c>
       <c r="P122" s="16" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q122" s="16"/>
       <c r="R122" s="8" t="s">
@@ -13102,7 +13184,7 @@
       <c r="V122" s="9"/>
       <c r="W122" s="8"/>
       <c r="X122" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
@@ -13124,7 +13206,7 @@
       <c r="AH122" s="9"/>
       <c r="AI122" s="9"/>
       <c r="AJ122" s="9" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AK122" s="9"/>
       <c r="AL122" s="9"/>
@@ -13136,7 +13218,7 @@
       </c>
       <c r="AO122" s="8"/>
       <c r="AP122" s="8" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AQ122" s="8"/>
     </row>
@@ -13151,20 +13233,20 @@
         <v>44</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J123" s="0"/>
       <c r="K123" s="9" t="n">
@@ -13177,7 +13259,7 @@
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
       <c r="R123" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S123" s="8"/>
       <c r="T123" s="8"/>
@@ -13185,7 +13267,7 @@
       <c r="V123" s="9"/>
       <c r="W123" s="8"/>
       <c r="X123" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
@@ -13206,10 +13288,10 @@
       <c r="AG123" s="9"/>
       <c r="AH123" s="9"/>
       <c r="AI123" s="9" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AJ123" s="9" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="AK123" s="9"/>
       <c r="AL123" s="9"/>
@@ -13220,7 +13302,7 @@
         <v>122</v>
       </c>
       <c r="AO123" s="11" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="AP123" s="8"/>
       <c r="AQ123" s="8"/>
@@ -13236,17 +13318,17 @@
         <v>44</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="9" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="I124" s="9" t="s">
         <v>54</v>
@@ -13258,7 +13340,7 @@
       <c r="L124" s="9"/>
       <c r="M124" s="9"/>
       <c r="N124" s="9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O124" s="16" t="s">
         <v>62</v>
@@ -13268,7 +13350,7 @@
       <c r="R124" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S124" s="25" t="s">
+      <c r="S124" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T124" s="8"/>
@@ -13276,7 +13358,7 @@
       <c r="V124" s="9"/>
       <c r="W124" s="8"/>
       <c r="X124" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
@@ -13308,7 +13390,7 @@
       </c>
       <c r="AO124" s="8"/>
       <c r="AP124" s="8" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AQ124" s="8"/>
     </row>
@@ -13323,17 +13405,17 @@
         <v>44</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="9" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="I125" s="9" t="s">
         <v>54</v>
@@ -13345,7 +13427,7 @@
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="O125" s="16" t="s">
         <v>71</v>
@@ -13355,7 +13437,7 @@
       <c r="R125" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S125" s="25" t="s">
+      <c r="S125" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T125" s="8"/>
@@ -13363,7 +13445,7 @@
       <c r="V125" s="9"/>
       <c r="W125" s="8"/>
       <c r="X125" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
@@ -13395,7 +13477,7 @@
       </c>
       <c r="AO125" s="8"/>
       <c r="AP125" s="8" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AQ125" s="8"/>
     </row>
@@ -13413,17 +13495,17 @@
         <v>45</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F126" s="8"/>
       <c r="G126" s="8" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J126" s="0"/>
       <c r="K126" s="9" t="n">
@@ -13436,7 +13518,7 @@
       <c r="P126" s="22"/>
       <c r="Q126" s="22"/>
       <c r="R126" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S126" s="8"/>
       <c r="T126" s="8"/>
@@ -13444,7 +13526,7 @@
       <c r="V126" s="9"/>
       <c r="W126" s="8"/>
       <c r="X126" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
@@ -13475,7 +13557,7 @@
         <v>125</v>
       </c>
       <c r="AO126" s="11" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AP126" s="8"/>
       <c r="AQ126" s="8"/>
@@ -13494,14 +13576,14 @@
         <v>45</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="9" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="I127" s="9" t="s">
         <v>54</v>
@@ -13513,27 +13595,27 @@
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
       <c r="N127" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O127" s="22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="P127" s="22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q127" s="22"/>
       <c r="R127" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S127" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
       <c r="V127" s="9"/>
       <c r="W127" s="8"/>
       <c r="X127" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
@@ -13565,7 +13647,7 @@
       </c>
       <c r="AO127" s="8"/>
       <c r="AP127" s="8" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AQ127" s="8"/>
     </row>
@@ -13583,17 +13665,17 @@
         <v>45</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="8" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9" t="n">
@@ -13609,16 +13691,16 @@
         <v>55</v>
       </c>
       <c r="S128" s="8" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
       <c r="V128" s="9" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="W128" s="8"/>
       <c r="X128" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y128" s="8"/>
       <c r="Z128" s="8"/>
@@ -13650,7 +13732,7 @@
       </c>
       <c r="AO128" s="8"/>
       <c r="AP128" s="8" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AQ128" s="8"/>
     </row>
@@ -13668,17 +13750,17 @@
         <v>45</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="9" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9" t="n">
@@ -13699,7 +13781,7 @@
       <c r="V129" s="9"/>
       <c r="W129" s="8"/>
       <c r="X129" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y129" s="8"/>
       <c r="Z129" s="8"/>
@@ -13730,10 +13812,10 @@
         <v>128</v>
       </c>
       <c r="AO129" s="11" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AP129" s="8" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AQ129" s="8"/>
     </row>
@@ -13751,17 +13833,17 @@
         <v>45</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F130" s="8"/>
       <c r="G130" s="9" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -13786,7 +13868,7 @@
       <c r="V130" s="9"/>
       <c r="W130" s="8"/>
       <c r="X130" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y130" s="8"/>
       <c r="Z130" s="8"/>
@@ -13808,7 +13890,7 @@
       <c r="AH130" s="9"/>
       <c r="AI130" s="9"/>
       <c r="AJ130" s="9" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="AK130" s="9"/>
       <c r="AL130" s="9"/>
@@ -13820,7 +13902,7 @@
       </c>
       <c r="AO130" s="8"/>
       <c r="AP130" s="9" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AQ130" s="8"/>
     </row>
@@ -13838,17 +13920,17 @@
         <v>45</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="9" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
@@ -13873,7 +13955,7 @@
       <c r="V131" s="9"/>
       <c r="W131" s="8"/>
       <c r="X131" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
@@ -13895,7 +13977,7 @@
       <c r="AH131" s="9"/>
       <c r="AI131" s="9"/>
       <c r="AJ131" s="9" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="AK131" s="9"/>
       <c r="AL131" s="9"/>
@@ -13907,7 +13989,7 @@
       </c>
       <c r="AO131" s="8"/>
       <c r="AP131" s="9" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AQ131" s="8"/>
     </row>
@@ -13922,20 +14004,20 @@
         <v>44</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="8" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J132" s="0"/>
       <c r="K132" s="9" t="n">
@@ -13948,7 +14030,7 @@
       <c r="P132" s="10"/>
       <c r="Q132" s="10"/>
       <c r="R132" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S132" s="8"/>
       <c r="T132" s="8"/>
@@ -13956,7 +14038,7 @@
       <c r="V132" s="9"/>
       <c r="W132" s="8"/>
       <c r="X132" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
@@ -13977,10 +14059,10 @@
       <c r="AG132" s="9"/>
       <c r="AH132" s="9"/>
       <c r="AI132" s="9" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AJ132" s="9" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="AK132" s="9"/>
       <c r="AL132" s="9"/>
@@ -13991,7 +14073,7 @@
         <v>131</v>
       </c>
       <c r="AO132" s="11" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="AP132" s="8"/>
       <c r="AQ132" s="8"/>
@@ -14007,17 +14089,17 @@
         <v>44</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="9" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="I133" s="9" t="s">
         <v>54</v>
@@ -14039,7 +14121,7 @@
       <c r="R133" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S133" s="25" t="s">
+      <c r="S133" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T133" s="8"/>
@@ -14047,7 +14129,7 @@
       <c r="V133" s="9"/>
       <c r="W133" s="8"/>
       <c r="X133" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
@@ -14079,7 +14161,7 @@
       </c>
       <c r="AO133" s="8"/>
       <c r="AP133" s="8" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AQ133" s="8"/>
     </row>
@@ -14094,17 +14176,17 @@
         <v>44</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F134" s="8"/>
       <c r="G134" s="9" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="I134" s="9" t="s">
         <v>54</v>
@@ -14126,7 +14208,7 @@
       <c r="R134" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S134" s="25" t="s">
+      <c r="S134" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T134" s="8"/>
@@ -14134,7 +14216,7 @@
       <c r="V134" s="9"/>
       <c r="W134" s="8"/>
       <c r="X134" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
@@ -14166,7 +14248,7 @@
       </c>
       <c r="AO134" s="8"/>
       <c r="AP134" s="8" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AQ134" s="8"/>
     </row>
@@ -14181,17 +14263,17 @@
         <v>44</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="9" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>54</v>
@@ -14213,7 +14295,7 @@
       <c r="R135" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S135" s="25" t="s">
+      <c r="S135" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T135" s="8"/>
@@ -14221,7 +14303,7 @@
       <c r="V135" s="9"/>
       <c r="W135" s="8"/>
       <c r="X135" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y135" s="8"/>
       <c r="Z135" s="8"/>
@@ -14253,7 +14335,7 @@
       </c>
       <c r="AO135" s="8"/>
       <c r="AP135" s="8" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AQ135" s="8"/>
     </row>
@@ -14268,17 +14350,17 @@
         <v>44</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F136" s="8"/>
       <c r="G136" s="9" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="I136" s="9" t="s">
         <v>54</v>
@@ -14300,7 +14382,7 @@
       <c r="R136" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S136" s="25" t="s">
+      <c r="S136" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T136" s="8"/>
@@ -14308,7 +14390,7 @@
       <c r="V136" s="9"/>
       <c r="W136" s="8"/>
       <c r="X136" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y136" s="8"/>
       <c r="Z136" s="8"/>
@@ -14340,7 +14422,7 @@
       </c>
       <c r="AO136" s="8"/>
       <c r="AP136" s="8" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AQ136" s="8"/>
     </row>
@@ -14358,17 +14440,17 @@
         <v>45</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J137" s="0"/>
       <c r="K137" s="9" t="n">
@@ -14381,7 +14463,7 @@
       <c r="P137" s="22"/>
       <c r="Q137" s="22"/>
       <c r="R137" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S137" s="8"/>
       <c r="T137" s="8"/>
@@ -14389,7 +14471,7 @@
       <c r="V137" s="9"/>
       <c r="W137" s="8"/>
       <c r="X137" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
@@ -14418,7 +14500,7 @@
         <v>136</v>
       </c>
       <c r="AO137" s="11" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AP137" s="8"/>
       <c r="AQ137" s="8"/>
@@ -14437,14 +14519,14 @@
         <v>45</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="9" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="I138" s="9" t="s">
         <v>54</v>
@@ -14456,27 +14538,27 @@
       <c r="L138" s="9"/>
       <c r="M138" s="9"/>
       <c r="N138" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O138" s="22" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="P138" s="10" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q138" s="22"/>
       <c r="R138" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S138" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T138" s="8"/>
       <c r="U138" s="8"/>
       <c r="V138" s="9"/>
       <c r="W138" s="8"/>
       <c r="X138" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Y138" s="8"/>
       <c r="Z138" s="8"/>
@@ -14506,7 +14588,7 @@
       </c>
       <c r="AO138" s="8"/>
       <c r="AP138" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AQ138" s="8"/>
     </row>
@@ -14524,17 +14606,17 @@
         <v>45</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="8" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="n">
@@ -14550,16 +14632,16 @@
         <v>55</v>
       </c>
       <c r="S139" s="8" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
       <c r="V139" s="9" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="W139" s="8"/>
       <c r="X139" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
@@ -14589,7 +14671,7 @@
       </c>
       <c r="AO139" s="8"/>
       <c r="AP139" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AQ139" s="8"/>
     </row>
@@ -14607,17 +14689,17 @@
         <v>45</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F140" s="8"/>
       <c r="G140" s="9" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="n">
@@ -14638,7 +14720,7 @@
       <c r="V140" s="9"/>
       <c r="W140" s="8"/>
       <c r="X140" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
@@ -14667,10 +14749,10 @@
         <v>139</v>
       </c>
       <c r="AO140" s="11" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="AP140" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AQ140" s="8"/>
     </row>
@@ -14688,17 +14770,17 @@
         <v>45</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="9" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
@@ -14723,7 +14805,7 @@
       <c r="V141" s="9"/>
       <c r="W141" s="8"/>
       <c r="X141" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Y141" s="8"/>
       <c r="Z141" s="8"/>
@@ -14743,7 +14825,7 @@
       <c r="AH141" s="9"/>
       <c r="AI141" s="9"/>
       <c r="AJ141" s="9" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="AK141" s="9"/>
       <c r="AL141" s="9"/>
@@ -14755,7 +14837,7 @@
       </c>
       <c r="AO141" s="8"/>
       <c r="AP141" s="8" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="AQ141" s="8"/>
     </row>
@@ -14773,17 +14855,17 @@
         <v>45</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F142" s="8"/>
       <c r="G142" s="9" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -14808,7 +14890,7 @@
       <c r="V142" s="9"/>
       <c r="W142" s="8"/>
       <c r="X142" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Y142" s="8"/>
       <c r="Z142" s="8"/>
@@ -14828,7 +14910,7 @@
       <c r="AH142" s="9"/>
       <c r="AI142" s="9"/>
       <c r="AJ142" s="9" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AK142" s="9"/>
       <c r="AL142" s="9"/>
@@ -14840,7 +14922,7 @@
       </c>
       <c r="AO142" s="8"/>
       <c r="AP142" s="8" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="AQ142" s="8"/>
     </row>
@@ -14858,17 +14940,17 @@
         <v>45</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="0"/>
@@ -14879,7 +14961,7 @@
       <c r="P143" s="22"/>
       <c r="Q143" s="22"/>
       <c r="R143" s="8" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="S143" s="8"/>
       <c r="T143" s="8"/>
@@ -14896,7 +14978,7 @@
         <v>50</v>
       </c>
       <c r="AE143" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF143" s="17" t="n">
         <v>0.09</v>
@@ -14905,7 +14987,7 @@
       <c r="AH143" s="9"/>
       <c r="AI143" s="9"/>
       <c r="AJ143" s="9" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="AK143" s="9"/>
       <c r="AL143" s="9"/>
@@ -14916,7 +14998,7 @@
         <v>142</v>
       </c>
       <c r="AO143" s="11" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AP143" s="8"/>
       <c r="AQ143" s="8"/>
@@ -14935,17 +15017,17 @@
         <v>45</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="9" t="n">
@@ -14956,23 +15038,23 @@
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O144" s="10" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
       <c r="R144" s="8"/>
       <c r="S144" s="9" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="T144" s="8"/>
       <c r="U144" s="8"/>
       <c r="V144" s="8"/>
       <c r="W144" s="8"/>
       <c r="X144" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y144" s="8"/>
       <c r="Z144" s="8"/>
@@ -15002,7 +15084,7 @@
       </c>
       <c r="AO144" s="8"/>
       <c r="AP144" s="8" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AQ144" s="8"/>
     </row>
@@ -15020,17 +15102,17 @@
         <v>45</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="9" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9" t="n">
@@ -15039,23 +15121,23 @@
       <c r="L145" s="9"/>
       <c r="M145" s="9"/>
       <c r="N145" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O145" s="22" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="P145" s="22"/>
       <c r="Q145" s="22"/>
       <c r="R145" s="8"/>
       <c r="S145" s="8" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="T145" s="8"/>
       <c r="U145" s="8"/>
       <c r="V145" s="8"/>
       <c r="W145" s="8"/>
       <c r="X145" s="9" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="Y145" s="8"/>
       <c r="Z145" s="8"/>
@@ -15085,7 +15167,7 @@
       </c>
       <c r="AO145" s="8"/>
       <c r="AP145" s="8" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AQ145" s="8"/>
     </row>
@@ -15103,17 +15185,17 @@
         <v>45</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="9" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J146" s="12"/>
       <c r="K146" s="12" t="n">
@@ -15127,16 +15209,16 @@
       <c r="Q146" s="22"/>
       <c r="R146" s="8"/>
       <c r="S146" s="1" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="T146" s="8"/>
       <c r="U146" s="8"/>
       <c r="V146" s="9" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="W146" s="8"/>
       <c r="X146" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y146" s="8"/>
       <c r="Z146" s="8"/>
@@ -15155,10 +15237,10 @@
       <c r="AG146" s="9"/>
       <c r="AH146" s="9"/>
       <c r="AI146" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ146" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK146" s="9"/>
       <c r="AL146" s="9"/>
@@ -15169,8 +15251,8 @@
         <v>145</v>
       </c>
       <c r="AO146" s="8"/>
-      <c r="AP146" s="29" t="s">
-        <v>433</v>
+      <c r="AP146" s="37" t="s">
+        <v>442</v>
       </c>
       <c r="AQ146" s="8"/>
     </row>
@@ -15188,17 +15270,17 @@
         <v>45</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="9" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="J147" s="0"/>
       <c r="K147" s="2"/>
@@ -15209,7 +15291,7 @@
         <v>26</v>
       </c>
       <c r="N147" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O147" s="22"/>
       <c r="P147" s="22"/>
@@ -15221,7 +15303,7 @@
       <c r="V147" s="8"/>
       <c r="W147" s="8"/>
       <c r="X147" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
@@ -15232,7 +15314,7 @@
         <v>50</v>
       </c>
       <c r="AE147" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF147" s="17" t="n">
         <v>0.0225</v>
@@ -15240,10 +15322,10 @@
       <c r="AG147" s="9"/>
       <c r="AH147" s="9"/>
       <c r="AI147" s="12" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ147" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK147" s="9"/>
       <c r="AL147" s="9"/>
@@ -15254,8 +15336,8 @@
         <v>146</v>
       </c>
       <c r="AO147" s="8"/>
-      <c r="AP147" s="29" t="s">
-        <v>433</v>
+      <c r="AP147" s="37" t="s">
+        <v>442</v>
       </c>
       <c r="AQ147" s="8"/>
     </row>
@@ -15273,17 +15355,17 @@
         <v>45</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J148" s="12"/>
       <c r="K148" s="9" t="n">
@@ -15292,11 +15374,11 @@
       <c r="L148" s="9"/>
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
-      <c r="O148" s="26"/>
+      <c r="O148" s="34"/>
       <c r="P148" s="22"/>
       <c r="Q148" s="22"/>
       <c r="R148" s="9" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S148" s="8"/>
       <c r="T148" s="8"/>
@@ -15304,7 +15386,7 @@
       <c r="V148" s="8"/>
       <c r="W148" s="8"/>
       <c r="X148" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
@@ -15315,22 +15397,22 @@
         <v>50</v>
       </c>
       <c r="AE148" s="9" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="AF148" s="17" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AG148" s="30" t="n">
+      <c r="AG148" s="38" t="n">
         <v>0.6</v>
       </c>
       <c r="AH148" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AI148" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ148" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK148" s="9"/>
       <c r="AL148" s="9"/>
@@ -15341,10 +15423,10 @@
         <v>147</v>
       </c>
       <c r="AO148" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="AP148" s="29" t="s">
-        <v>433</v>
+        <v>449</v>
+      </c>
+      <c r="AP148" s="37" t="s">
+        <v>442</v>
       </c>
       <c r="AQ148" s="8"/>
     </row>
@@ -15362,14 +15444,14 @@
         <v>45</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F149" s="8"/>
       <c r="G149" s="9" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="I149" s="9" t="s">
         <v>54</v>
@@ -15399,7 +15481,7 @@
       <c r="V149" s="8"/>
       <c r="W149" s="8"/>
       <c r="X149" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
@@ -15418,10 +15500,10 @@
       <c r="AG149" s="9"/>
       <c r="AH149" s="9"/>
       <c r="AI149" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ149" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK149" s="9"/>
       <c r="AL149" s="9"/>
@@ -15433,7 +15515,7 @@
       </c>
       <c r="AO149" s="8"/>
       <c r="AP149" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ149" s="8"/>
     </row>
@@ -15451,14 +15533,14 @@
         <v>45</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F150" s="8"/>
       <c r="G150" s="9" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="I150" s="9" t="s">
         <v>54</v>
@@ -15488,7 +15570,7 @@
       <c r="V150" s="8"/>
       <c r="W150" s="8"/>
       <c r="X150" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
@@ -15507,10 +15589,10 @@
       <c r="AG150" s="9"/>
       <c r="AH150" s="9"/>
       <c r="AI150" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ150" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK150" s="9"/>
       <c r="AL150" s="9"/>
@@ -15522,7 +15604,7 @@
       </c>
       <c r="AO150" s="8"/>
       <c r="AP150" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ150" s="8"/>
     </row>
@@ -15540,14 +15622,14 @@
         <v>45</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F151" s="8"/>
       <c r="G151" s="9" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>54</v>
@@ -15577,7 +15659,7 @@
       <c r="V151" s="8"/>
       <c r="W151" s="8"/>
       <c r="X151" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
@@ -15596,10 +15678,10 @@
       <c r="AG151" s="9"/>
       <c r="AH151" s="9"/>
       <c r="AI151" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ151" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK151" s="9"/>
       <c r="AL151" s="9"/>
@@ -15611,7 +15693,7 @@
       </c>
       <c r="AO151" s="8"/>
       <c r="AP151" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ151" s="8"/>
     </row>
@@ -15629,14 +15711,14 @@
         <v>45</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F152" s="8"/>
       <c r="G152" s="9" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="I152" s="9" t="s">
         <v>54</v>
@@ -15666,7 +15748,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="8"/>
       <c r="X152" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
@@ -15685,10 +15767,10 @@
       <c r="AG152" s="9"/>
       <c r="AH152" s="9"/>
       <c r="AI152" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ152" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK152" s="9"/>
       <c r="AL152" s="9"/>
@@ -15700,7 +15782,7 @@
       </c>
       <c r="AO152" s="8"/>
       <c r="AP152" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ152" s="8"/>
     </row>
@@ -15718,14 +15800,14 @@
         <v>45</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F153" s="8"/>
       <c r="G153" s="9" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="I153" s="9" t="s">
         <v>54</v>
@@ -15755,7 +15837,7 @@
       <c r="V153" s="8"/>
       <c r="W153" s="8"/>
       <c r="X153" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
@@ -15774,10 +15856,10 @@
       <c r="AG153" s="9"/>
       <c r="AH153" s="9"/>
       <c r="AI153" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ153" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK153" s="9"/>
       <c r="AL153" s="9"/>
@@ -15789,7 +15871,7 @@
       </c>
       <c r="AO153" s="8"/>
       <c r="AP153" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ153" s="8"/>
     </row>
@@ -15807,14 +15889,14 @@
         <v>45</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F154" s="8"/>
       <c r="G154" s="9" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="I154" s="9" t="s">
         <v>54</v>
@@ -15844,7 +15926,7 @@
       <c r="V154" s="8"/>
       <c r="W154" s="8"/>
       <c r="X154" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
@@ -15863,10 +15945,10 @@
       <c r="AG154" s="9"/>
       <c r="AH154" s="9"/>
       <c r="AI154" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ154" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK154" s="9"/>
       <c r="AL154" s="9"/>
@@ -15878,7 +15960,7 @@
       </c>
       <c r="AO154" s="8"/>
       <c r="AP154" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ154" s="8"/>
     </row>
@@ -15896,14 +15978,14 @@
         <v>45</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F155" s="8"/>
       <c r="G155" s="9" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="I155" s="9" t="s">
         <v>54</v>
@@ -15933,7 +16015,7 @@
       <c r="V155" s="8"/>
       <c r="W155" s="8"/>
       <c r="X155" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
@@ -15952,10 +16034,10 @@
       <c r="AG155" s="9"/>
       <c r="AH155" s="9"/>
       <c r="AI155" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ155" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK155" s="9"/>
       <c r="AL155" s="9"/>
@@ -15967,7 +16049,7 @@
       </c>
       <c r="AO155" s="8"/>
       <c r="AP155" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ155" s="8"/>
     </row>
@@ -15985,14 +16067,14 @@
         <v>45</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F156" s="8"/>
       <c r="G156" s="9" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="I156" s="9" t="s">
         <v>54</v>
@@ -16022,7 +16104,7 @@
       <c r="V156" s="8"/>
       <c r="W156" s="8"/>
       <c r="X156" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
@@ -16041,10 +16123,10 @@
       <c r="AG156" s="9"/>
       <c r="AH156" s="9"/>
       <c r="AI156" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ156" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK156" s="9"/>
       <c r="AL156" s="9"/>
@@ -16056,7 +16138,7 @@
       </c>
       <c r="AO156" s="8"/>
       <c r="AP156" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ156" s="8"/>
     </row>
@@ -16074,14 +16156,14 @@
         <v>45</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F157" s="8"/>
       <c r="G157" s="9" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="I157" s="9" t="s">
         <v>54</v>
@@ -16111,7 +16193,7 @@
       <c r="V157" s="8"/>
       <c r="W157" s="8"/>
       <c r="X157" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
@@ -16130,10 +16212,10 @@
       <c r="AG157" s="9"/>
       <c r="AH157" s="9"/>
       <c r="AI157" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ157" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK157" s="9"/>
       <c r="AL157" s="9"/>
@@ -16145,7 +16227,7 @@
       </c>
       <c r="AO157" s="8"/>
       <c r="AP157" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ157" s="8"/>
     </row>
@@ -16163,14 +16245,14 @@
         <v>45</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="9" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="I158" s="9" t="s">
         <v>54</v>
@@ -16200,7 +16282,7 @@
       <c r="V158" s="8"/>
       <c r="W158" s="8"/>
       <c r="X158" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
@@ -16219,10 +16301,10 @@
       <c r="AG158" s="9"/>
       <c r="AH158" s="9"/>
       <c r="AI158" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ158" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK158" s="9"/>
       <c r="AL158" s="9"/>
@@ -16234,7 +16316,7 @@
       </c>
       <c r="AO158" s="8"/>
       <c r="AP158" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ158" s="8"/>
     </row>
@@ -16252,14 +16334,14 @@
         <v>45</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="9" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="I159" s="9" t="s">
         <v>54</v>
@@ -16271,10 +16353,10 @@
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
       <c r="N159" s="9" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="P159" s="22"/>
       <c r="Q159" s="22"/>
@@ -16289,7 +16371,7 @@
       <c r="V159" s="8"/>
       <c r="W159" s="8"/>
       <c r="X159" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
@@ -16308,10 +16390,10 @@
       <c r="AG159" s="9"/>
       <c r="AH159" s="9"/>
       <c r="AI159" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ159" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK159" s="9"/>
       <c r="AL159" s="9"/>
@@ -16323,7 +16405,7 @@
       </c>
       <c r="AO159" s="8"/>
       <c r="AP159" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ159" s="8"/>
     </row>
@@ -16341,14 +16423,14 @@
         <v>45</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="9" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="I160" s="9" t="s">
         <v>54</v>
@@ -16360,10 +16442,10 @@
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
       <c r="N160" s="9" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="O160" s="16" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="22"/>
@@ -16378,7 +16460,7 @@
       <c r="V160" s="8"/>
       <c r="W160" s="8"/>
       <c r="X160" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
@@ -16397,10 +16479,10 @@
       <c r="AG160" s="9"/>
       <c r="AH160" s="9"/>
       <c r="AI160" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ160" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK160" s="9"/>
       <c r="AL160" s="9"/>
@@ -16412,7 +16494,7 @@
       </c>
       <c r="AO160" s="8"/>
       <c r="AP160" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ160" s="8"/>
     </row>
@@ -16430,14 +16512,14 @@
         <v>45</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="9" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="I161" s="9" t="s">
         <v>54</v>
@@ -16467,7 +16549,7 @@
       <c r="V161" s="8"/>
       <c r="W161" s="8"/>
       <c r="X161" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
@@ -16486,10 +16568,10 @@
       <c r="AG161" s="9"/>
       <c r="AH161" s="9"/>
       <c r="AI161" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ161" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK161" s="9"/>
       <c r="AL161" s="9"/>
@@ -16501,7 +16583,7 @@
       </c>
       <c r="AO161" s="8"/>
       <c r="AP161" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ161" s="8"/>
     </row>
@@ -16519,14 +16601,14 @@
         <v>45</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="9" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="I162" s="9" t="s">
         <v>54</v>
@@ -16556,7 +16638,7 @@
       <c r="V162" s="8"/>
       <c r="W162" s="8"/>
       <c r="X162" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
@@ -16575,10 +16657,10 @@
       <c r="AG162" s="9"/>
       <c r="AH162" s="9"/>
       <c r="AI162" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ162" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK162" s="9"/>
       <c r="AL162" s="9"/>
@@ -16590,7 +16672,7 @@
       </c>
       <c r="AO162" s="8"/>
       <c r="AP162" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ162" s="8"/>
     </row>
@@ -16608,14 +16690,14 @@
         <v>45</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F163" s="8"/>
       <c r="G163" s="9" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="I163" s="9" t="s">
         <v>54</v>
@@ -16645,7 +16727,7 @@
       <c r="V163" s="8"/>
       <c r="W163" s="8"/>
       <c r="X163" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y163" s="8"/>
       <c r="Z163" s="8"/>
@@ -16664,10 +16746,10 @@
       <c r="AG163" s="9"/>
       <c r="AH163" s="9"/>
       <c r="AI163" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ163" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK163" s="9"/>
       <c r="AL163" s="9"/>
@@ -16679,7 +16761,7 @@
       </c>
       <c r="AO163" s="8"/>
       <c r="AP163" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ163" s="8"/>
     </row>
@@ -16697,14 +16779,14 @@
         <v>45</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="9" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="I164" s="9" t="s">
         <v>54</v>
@@ -16734,7 +16816,7 @@
       <c r="V164" s="8"/>
       <c r="W164" s="8"/>
       <c r="X164" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y164" s="8"/>
       <c r="Z164" s="8"/>
@@ -16753,10 +16835,10 @@
       <c r="AG164" s="9"/>
       <c r="AH164" s="9"/>
       <c r="AI164" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ164" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK164" s="9"/>
       <c r="AL164" s="9"/>
@@ -16768,7 +16850,7 @@
       </c>
       <c r="AO164" s="8"/>
       <c r="AP164" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ164" s="8"/>
     </row>
@@ -16786,40 +16868,40 @@
         <v>45</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F165" s="8"/>
       <c r="G165" s="9" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="J165" s="12"/>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
       <c r="N165" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O165" s="10" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
       <c r="R165" s="8"/>
       <c r="S165" s="8" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="T165" s="9"/>
       <c r="U165" s="9"/>
       <c r="V165" s="8"/>
       <c r="W165" s="8"/>
       <c r="X165" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y165" s="9"/>
       <c r="Z165" s="8"/>
@@ -16830,7 +16912,7 @@
         <v>50</v>
       </c>
       <c r="AE165" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF165" s="17" t="n">
         <v>0.0225</v>
@@ -16838,10 +16920,10 @@
       <c r="AG165" s="9"/>
       <c r="AH165" s="9"/>
       <c r="AI165" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ165" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK165" s="9"/>
       <c r="AL165" s="9"/>
@@ -16852,8 +16934,8 @@
         <v>164</v>
       </c>
       <c r="AO165" s="8"/>
-      <c r="AP165" s="29" t="s">
-        <v>433</v>
+      <c r="AP165" s="37" t="s">
+        <v>442</v>
       </c>
       <c r="AQ165" s="8"/>
     </row>
@@ -16868,20 +16950,20 @@
         <v>44</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E166" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="F166" s="31"/>
+        <v>256</v>
+      </c>
+      <c r="E166" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="F166" s="39"/>
       <c r="G166" s="9" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="J166" s="9"/>
       <c r="K166" s="9" t="n">
@@ -16902,7 +16984,7 @@
       <c r="V166" s="9"/>
       <c r="W166" s="9"/>
       <c r="X166" s="9" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
@@ -16913,7 +16995,7 @@
         <v>50</v>
       </c>
       <c r="AE166" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF166" s="17" t="n">
         <v>0.02</v>
@@ -16930,11 +17012,11 @@
       <c r="AN166" s="13" t="n">
         <v>165</v>
       </c>
-      <c r="AO166" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="AP166" s="29" t="s">
-        <v>483</v>
+      <c r="AO166" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="AP166" s="37" t="s">
+        <v>492</v>
       </c>
       <c r="AQ166" s="8"/>
     </row>
@@ -16949,20 +17031,20 @@
         <v>44</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E167" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="F167" s="31"/>
+        <v>256</v>
+      </c>
+      <c r="E167" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="F167" s="39"/>
       <c r="G167" s="9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="J167" s="0"/>
       <c r="K167" s="1" t="n">
@@ -16973,10 +17055,10 @@
       </c>
       <c r="M167" s="9"/>
       <c r="N167" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O167" s="10" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="P167" s="10"/>
       <c r="Q167" s="10"/>
@@ -16984,14 +17066,14 @@
         <v>55</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
       <c r="V167" s="9"/>
       <c r="W167" s="9"/>
       <c r="X167" s="9" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
@@ -17002,7 +17084,7 @@
         <v>50</v>
       </c>
       <c r="AE167" s="9" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="AF167" s="17" t="n">
         <v>1</v>
@@ -17011,7 +17093,7 @@
       <c r="AH167" s="9"/>
       <c r="AI167" s="9"/>
       <c r="AJ167" s="9" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="AK167" s="9"/>
       <c r="AL167" s="9"/>
@@ -17023,7 +17105,7 @@
       </c>
       <c r="AO167" s="8"/>
       <c r="AP167" s="12" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="AQ167" s="8"/>
     </row>
@@ -17038,20 +17120,20 @@
         <v>44</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F168" s="8"/>
       <c r="G168" s="9" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J168" s="9"/>
       <c r="K168" s="9" t="n">
@@ -17081,7 +17163,7 @@
         <v>50</v>
       </c>
       <c r="AE168" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF168" s="17" t="n">
         <v>0.03</v>
@@ -17099,10 +17181,10 @@
         <v>167</v>
       </c>
       <c r="AO168" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="AP168" s="32" t="s">
-        <v>492</v>
+        <v>500</v>
+      </c>
+      <c r="AP168" s="40" t="s">
+        <v>501</v>
       </c>
       <c r="AQ168" s="8"/>
     </row>
@@ -17117,20 +17199,20 @@
         <v>44</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F169" s="8"/>
       <c r="G169" s="9" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="9" t="n">
@@ -17146,15 +17228,15 @@
         <v>55</v>
       </c>
       <c r="S169" s="9" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T169" s="9"/>
       <c r="U169" s="9"/>
       <c r="V169" s="9"/>
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
-      <c r="Y169" s="33" t="s">
-        <v>495</v>
+      <c r="Y169" s="41" t="s">
+        <v>504</v>
       </c>
       <c r="Z169" s="9"/>
       <c r="AA169" s="8"/>
@@ -17183,7 +17265,7 @@
       </c>
       <c r="AO169" s="9"/>
       <c r="AP169" s="9" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AQ169" s="8"/>
     </row>
@@ -17198,20 +17280,20 @@
         <v>44</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F170" s="8"/>
       <c r="G170" s="9" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J170" s="8"/>
       <c r="K170" s="9" t="n">
@@ -17227,7 +17309,7 @@
         <v>55</v>
       </c>
       <c r="S170" s="9" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T170" s="9"/>
       <c r="U170" s="9"/>
@@ -17235,7 +17317,7 @@
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
       <c r="Y170" s="9" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="Z170" s="9"/>
       <c r="AA170" s="8"/>
@@ -17264,7 +17346,7 @@
       </c>
       <c r="AO170" s="9"/>
       <c r="AP170" s="9" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AQ170" s="8"/>
     </row>
@@ -17279,20 +17361,20 @@
         <v>44</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F171" s="8"/>
       <c r="G171" s="9" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="9" t="n">
@@ -17308,7 +17390,7 @@
         <v>55</v>
       </c>
       <c r="S171" s="9" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T171" s="9"/>
       <c r="U171" s="9"/>
@@ -17316,7 +17398,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
       <c r="Y171" s="9" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="Z171" s="9"/>
       <c r="AA171" s="8"/>
@@ -17345,7 +17427,7 @@
       </c>
       <c r="AO171" s="9"/>
       <c r="AP171" s="9" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AQ171" s="8"/>
     </row>
@@ -17360,20 +17442,20 @@
         <v>44</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F172" s="8"/>
       <c r="G172" s="9" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="9" t="n">
@@ -17389,7 +17471,7 @@
         <v>55</v>
       </c>
       <c r="S172" s="9" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T172" s="9"/>
       <c r="U172" s="9"/>
@@ -17397,7 +17479,7 @@
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
       <c r="Y172" s="9" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="Z172" s="9"/>
       <c r="AA172" s="8"/>
@@ -17426,7 +17508,7 @@
       </c>
       <c r="AO172" s="9"/>
       <c r="AP172" s="9" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AQ172" s="8"/>
     </row>
@@ -17440,24 +17522,24 @@
       <c r="C173" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D173" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E173" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="F173" s="25" t="s">
-        <v>507</v>
+      <c r="D173" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E173" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="F173" s="32" t="s">
+        <v>516</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H173" s="14"/>
       <c r="I173" s="8" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -17468,7 +17550,7 @@
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
       <c r="S173" s="8" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
@@ -17482,7 +17564,7 @@
       <c r="AC173" s="8"/>
       <c r="AD173" s="8"/>
       <c r="AE173" s="8"/>
-      <c r="AF173" s="35" t="n">
+      <c r="AF173" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG173" s="8"/>
@@ -17496,7 +17578,7 @@
         <v>172</v>
       </c>
       <c r="AO173" s="9" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="AP173" s="8"/>
       <c r="AQ173" s="8"/>
@@ -17511,24 +17593,24 @@
       <c r="C174" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D174" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E174" s="29" t="s">
-        <v>512</v>
-      </c>
-      <c r="F174" s="29" t="s">
-        <v>513</v>
-      </c>
-      <c r="G174" s="32" t="s">
-        <v>492</v>
+      <c r="D174" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E174" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="F174" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="G174" s="40" t="s">
+        <v>501</v>
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -17539,7 +17621,7 @@
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
       <c r="S174" s="8" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
@@ -17553,7 +17635,7 @@
       <c r="AC174" s="8"/>
       <c r="AD174" s="8"/>
       <c r="AE174" s="8"/>
-      <c r="AF174" s="36" t="n">
+      <c r="AF174" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG174" s="8"/>
@@ -17582,24 +17664,24 @@
       <c r="C175" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D175" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E175" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="F175" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="G175" s="29" t="s">
-        <v>433</v>
+      <c r="D175" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E175" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="F175" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="G175" s="37" t="s">
+        <v>442</v>
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
@@ -17610,7 +17692,7 @@
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
       <c r="S175" s="8" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="T175" s="8"/>
       <c r="U175" s="8"/>
@@ -17624,7 +17706,7 @@
       <c r="AC175" s="8"/>
       <c r="AD175" s="8"/>
       <c r="AE175" s="8"/>
-      <c r="AF175" s="35" t="n">
+      <c r="AF175" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG175" s="8"/>
@@ -17638,7 +17720,7 @@
         <v>174</v>
       </c>
       <c r="AO175" s="9" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="AP175" s="8"/>
       <c r="AQ175" s="8"/>
@@ -17653,24 +17735,24 @@
       <c r="C176" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D176" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E176" s="29" t="s">
-        <v>520</v>
-      </c>
-      <c r="F176" s="29" t="s">
-        <v>521</v>
-      </c>
-      <c r="G176" s="29" t="s">
-        <v>483</v>
+      <c r="D176" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E176" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="F176" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="G176" s="37" t="s">
+        <v>492</v>
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -17681,7 +17763,7 @@
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
       <c r="S176" s="8" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="T176" s="8"/>
       <c r="U176" s="8"/>
@@ -17695,7 +17777,7 @@
       <c r="AC176" s="8"/>
       <c r="AD176" s="8"/>
       <c r="AE176" s="8"/>
-      <c r="AF176" s="35" t="n">
+      <c r="AF176" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG176" s="8"/>
@@ -17724,24 +17806,24 @@
       <c r="C177" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D177" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E177" s="29" t="s">
-        <v>522</v>
-      </c>
-      <c r="F177" s="29" t="s">
-        <v>523</v>
-      </c>
-      <c r="G177" s="29" t="s">
-        <v>524</v>
+      <c r="D177" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E177" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="F177" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="G177" s="37" t="s">
+        <v>533</v>
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="9" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -17752,7 +17834,7 @@
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
       <c r="S177" s="8" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
@@ -17766,7 +17848,7 @@
       <c r="AC177" s="8"/>
       <c r="AD177" s="8"/>
       <c r="AE177" s="8"/>
-      <c r="AF177" s="35" t="n">
+      <c r="AF177" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG177" s="8"/>
@@ -17780,7 +17862,7 @@
         <v>176</v>
       </c>
       <c r="AO177" s="9" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="AP177" s="8"/>
       <c r="AQ177" s="8"/>
@@ -17795,37 +17877,37 @@
       <c r="C178" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D178" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E178" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="F178" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="G178" s="29" t="s">
-        <v>528</v>
+      <c r="D178" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E178" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="F178" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="G178" s="37" t="s">
+        <v>537</v>
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="9" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
       <c r="O178" s="8" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
       <c r="S178" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
@@ -17833,7 +17915,7 @@
       <c r="W178" s="8"/>
       <c r="X178" s="8"/>
       <c r="Y178" s="9" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="Z178" s="8"/>
       <c r="AA178" s="8"/>
@@ -17868,24 +17950,24 @@
       <c r="C179" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D179" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E179" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="F179" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="G179" s="29" t="s">
-        <v>535</v>
+      <c r="D179" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E179" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="F179" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="G179" s="37" t="s">
+        <v>544</v>
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="9" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -17898,7 +17980,7 @@
       <c r="Q179" s="8"/>
       <c r="R179" s="8"/>
       <c r="S179" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T179" s="8"/>
       <c r="U179" s="8"/>
@@ -17906,7 +17988,7 @@
       <c r="W179" s="8"/>
       <c r="X179" s="8"/>
       <c r="Y179" s="9" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="Z179" s="8"/>
       <c r="AA179" s="8"/>
@@ -17941,37 +18023,37 @@
       <c r="C180" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D180" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E180" s="29" t="s">
-        <v>539</v>
-      </c>
-      <c r="F180" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="G180" s="29" t="s">
-        <v>541</v>
+      <c r="D180" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E180" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="F180" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="G180" s="37" t="s">
+        <v>550</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="9" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
       <c r="M180" s="9"/>
       <c r="N180" s="9"/>
       <c r="O180" s="8" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
       <c r="R180" s="8"/>
       <c r="S180" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T180" s="8"/>
       <c r="U180" s="8"/>
@@ -17979,7 +18061,7 @@
       <c r="W180" s="8"/>
       <c r="X180" s="8"/>
       <c r="Y180" s="9" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="Z180" s="8"/>
       <c r="AA180" s="8"/>
@@ -18014,39 +18096,39 @@
       <c r="C181" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D181" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E181" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="F181" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="G181" s="29" t="s">
-        <v>545</v>
+      <c r="D181" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E181" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="F181" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="G181" s="37" t="s">
+        <v>554</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="I181" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="J181" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="J181" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
       <c r="M181" s="9"/>
       <c r="N181" s="9"/>
       <c r="O181" s="9" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
       <c r="R181" s="8"/>
       <c r="S181" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T181" s="8"/>
       <c r="U181" s="8"/>
@@ -18054,7 +18136,7 @@
       <c r="W181" s="8"/>
       <c r="X181" s="8"/>
       <c r="Y181" s="9" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Z181" s="8"/>
       <c r="AA181" s="8"/>
@@ -18091,39 +18173,39 @@
       <c r="C182" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D182" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E182" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="F182" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="G182" s="29" t="s">
-        <v>545</v>
+      <c r="D182" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E182" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="F182" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="G182" s="37" t="s">
+        <v>554</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="I182" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="J182" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="J182" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
       <c r="M182" s="9"/>
       <c r="N182" s="9"/>
       <c r="O182" s="9" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="8"/>
       <c r="S182" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T182" s="8"/>
       <c r="U182" s="8"/>
@@ -18131,7 +18213,7 @@
       <c r="W182" s="8"/>
       <c r="X182" s="8"/>
       <c r="Y182" s="9" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="Z182" s="8"/>
       <c r="AA182" s="8"/>
@@ -18168,39 +18250,39 @@
       <c r="C183" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D183" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E183" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="F183" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="G183" s="29" t="s">
-        <v>545</v>
+      <c r="D183" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E183" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="F183" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="G183" s="37" t="s">
+        <v>554</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="I183" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="J183" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="J183" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
       <c r="M183" s="9"/>
       <c r="N183" s="9"/>
       <c r="O183" s="9" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P183" s="8"/>
       <c r="Q183" s="8"/>
       <c r="R183" s="8"/>
       <c r="S183" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T183" s="8"/>
       <c r="U183" s="8"/>
@@ -18208,7 +18290,7 @@
       <c r="W183" s="8"/>
       <c r="X183" s="8"/>
       <c r="Y183" s="9" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="Z183" s="8"/>
       <c r="AA183" s="8"/>
@@ -18245,39 +18327,39 @@
       <c r="C184" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D184" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E184" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="F184" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="G184" s="29" t="s">
-        <v>545</v>
+      <c r="D184" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E184" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="F184" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="G184" s="37" t="s">
+        <v>554</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="I184" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="J184" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="J184" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
       <c r="M184" s="9"/>
       <c r="N184" s="9"/>
       <c r="O184" s="9" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
       <c r="R184" s="8"/>
       <c r="S184" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T184" s="8"/>
       <c r="U184" s="8"/>
@@ -18285,7 +18367,7 @@
       <c r="W184" s="8"/>
       <c r="X184" s="8"/>
       <c r="Y184" s="9" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="Z184" s="8"/>
       <c r="AA184" s="8"/>
@@ -18314,8 +18396,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ172"/>
-  <conditionalFormatting sqref="H98:H102">
+  <conditionalFormatting sqref="H98:H100">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101:H102">
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18342,15 +18429,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
-        <v>495</v>
+      <c r="A1" s="45" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
-        <v>432</v>
+      <c r="A2" s="46" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -18376,38 +18466,41 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="39" t="s">
-        <v>418</v>
+      <c r="B1" s="47" t="s">
+        <v>427</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>477</v>
+        <v>566</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>486</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="39"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -18415,19 +18508,19 @@
         <f aca="false">C2*$C$6</f>
         <v>19.6</v>
       </c>
-      <c r="E2" s="40" t="n">
+      <c r="E2" s="48" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="41" t="n">
+      <c r="J2" s="49" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="39"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -18435,19 +18528,19 @@
         <f aca="false">C3*$C$6</f>
         <v>28</v>
       </c>
-      <c r="E3" s="42" t="n">
+      <c r="E3" s="50" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="43" t="n">
+      <c r="J3" s="51" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="39"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -18455,28 +18548,28 @@
         <f aca="false">C4*$C$6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="42" t="n">
+      <c r="E4" s="50" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="44" t="n">
+      <c r="F4" s="52" t="n">
         <f aca="false">C2/SUM(C2:C4)</f>
         <v>0.189189189189189</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="41" t="n">
+      <c r="J4" s="49" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="45" t="n">
+      <c r="K4" s="53" t="n">
         <f aca="false">SUM(I2,I4)/SUM(I2:I4)</f>
         <v>0.72972972972973</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>28</v>
@@ -18505,51 +18598,54 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="47" t="s">
-        <v>560</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>561</v>
-      </c>
-      <c r="I1" s="47" t="s">
+      <c r="G1" s="55" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="I1" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>562</v>
-      </c>
-      <c r="L1" s="47" t="s">
+      <c r="K1" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="L1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="55" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="48" t="s">
-        <v>563</v>
+      <c r="B4" s="56" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
@@ -54,6 +54,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -826,7 +827,7 @@
     <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Berry Smoothie – 0.11L</t>
+    <t xml:space="preserve">Dobriy - Berry Smoothie - 0.11L</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый Смуззи - Ягодный Дэнс - 110 гр</t>
@@ -2481,7 +2482,6 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -2559,18 +2559,18 @@
   <dimension ref="A1:AR184"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J91" activeCellId="0" sqref="J91"/>
+      <selection pane="bottomLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="15.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18430,7 +18430,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18467,7 +18467,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18599,7 +18599,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Convenience Big PoS 2018.xlsx
@@ -55,6 +55,16 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -66,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="578">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -761,7 +771,7 @@
     <t xml:space="preserve">4650075421239, 4607174578449</t>
   </si>
   <si>
-    <t xml:space="preserve">Moya Semya - Apple mix - 0.95L</t>
+    <t xml:space="preserve">Moya Semya - Apple Mix - 0.95L</t>
   </si>
   <si>
     <t xml:space="preserve">Моя Семья - Яблочный Микс - 0.95л</t>
@@ -773,7 +783,7 @@
     <t xml:space="preserve">4650075421178, 4607174578029</t>
   </si>
   <si>
-    <t xml:space="preserve">Moya Semya - Pineapple Mango - 0.95L</t>
+    <t xml:space="preserve">Moya Semya - Pineapple-Mango - 0.95L</t>
   </si>
   <si>
     <t xml:space="preserve">Моя Семья - Ананас-Маракас - 0.95л</t>
@@ -855,7 +865,7 @@
     <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
   </si>
   <si>
-    <t xml:space="preserve">Moya Semya - Strawberry - 0.95L</t>
+    <t xml:space="preserve">Moya Semya - Apple-Strawberry - 0.95L</t>
   </si>
   <si>
     <t xml:space="preserve">Моя Семья - Клубничина-Земляничина - 0.95л</t>
@@ -1045,7 +1055,7 @@
     <t xml:space="preserve">Сок полка: Моя Семья - Ягода-Вкуснягода - 0.95л</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Shelf: Moya Semya - Apple mix - 0.95L</t>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Apple Mix - 0.95L</t>
   </si>
   <si>
     <t xml:space="preserve">Сок полка: Моя Семья - Яблочный Микс - 0.95л</t>
@@ -1323,6 +1333,12 @@
     <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L, Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042434877, 4607042430619</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
   </si>
   <si>
@@ -1330,6 +1346,12 @@
   </si>
   <si>
     <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L, Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042434891, 4607042430565</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
@@ -1606,7 +1628,7 @@
     <t xml:space="preserve">ANY Fuze Green 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000233615, 5449000189370, 5449000027450</t>
+    <t xml:space="preserve">5449000233615, 5449000189370, 4607042430879</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
@@ -1702,6 +1724,9 @@
     <t xml:space="preserve">RGM Активации: SSD с едой</t>
   </si>
   <si>
+    <t xml:space="preserve">Scenes with no tagging</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD with Meal</t>
   </si>
   <si>
@@ -1711,25 +1736,25 @@
     <t xml:space="preserve">RGM Активации: Сок с едой</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+    <t xml:space="preserve">Juice with Meal</t>
   </si>
   <si>
     <t xml:space="preserve">RGM Activations: On-the-go</t>
   </si>
   <si>
-    <t xml:space="preserve">RGM Активации: На ходу</t>
+    <t xml:space="preserve">RGM Активации: Энергетики или SSD в Прикассовой зоне </t>
   </si>
   <si>
     <t xml:space="preserve">On-the-go</t>
   </si>
   <si>
-    <t xml:space="preserve">RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen time</t>
+    <t xml:space="preserve">RGM Activations: SSD with Snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SSD со снеками</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD snack</t>
   </si>
   <si>
     <t xml:space="preserve">Hidden</t>
@@ -2071,13 +2096,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2085,6 +2103,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2129,8 +2154,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -2152,27 +2177,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2223,11 +2233,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2240,19 +2250,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2260,115 +2270,115 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2376,19 +2386,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2396,15 +2414,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2412,11 +2434,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2444,11 +2466,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2495,13 +2517,13 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -2520,7 +2542,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -2540,7 +2562,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF3F3F76"/>
+      <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -2558,19 +2580,19 @@
   </sheetPr>
   <dimension ref="A1:AR184"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="O160" activeCellId="0" sqref="O160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="52.2753036437247"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="76.1619433198381"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="21.8542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13849,11 +13871,11 @@
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
-      <c r="N130" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="O130" s="16" t="n">
-        <v>4607042434877</v>
+      <c r="N130" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="O130" s="38" t="s">
+        <v>387</v>
       </c>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
@@ -13890,7 +13912,7 @@
       <c r="AH130" s="9"/>
       <c r="AI130" s="9"/>
       <c r="AJ130" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AK130" s="9"/>
       <c r="AL130" s="9"/>
@@ -13924,10 +13946,10 @@
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I131" s="9" t="s">
         <v>339</v>
@@ -13936,11 +13958,11 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
-      <c r="N131" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="O131" s="16" t="n">
-        <v>4607042434891</v>
+      <c r="N131" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="O131" s="38" t="s">
+        <v>392</v>
       </c>
       <c r="P131" s="16"/>
       <c r="Q131" s="16"/>
@@ -13977,7 +13999,7 @@
       <c r="AH131" s="9"/>
       <c r="AI131" s="9"/>
       <c r="AJ131" s="9" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AK131" s="9"/>
       <c r="AL131" s="9"/>
@@ -14011,10 +14033,10 @@
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>327</v>
@@ -14062,7 +14084,7 @@
         <v>371</v>
       </c>
       <c r="AJ132" s="9" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AK132" s="9"/>
       <c r="AL132" s="9"/>
@@ -14073,7 +14095,7 @@
         <v>131</v>
       </c>
       <c r="AO132" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AP132" s="8"/>
       <c r="AQ132" s="8"/>
@@ -14096,10 +14118,10 @@
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="9" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="I133" s="9" t="s">
         <v>54</v>
@@ -14110,11 +14132,11 @@
       </c>
       <c r="L133" s="9"/>
       <c r="M133" s="9"/>
-      <c r="N133" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="O133" s="16" t="n">
-        <v>4607042434877</v>
+      <c r="N133" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="O133" s="38" t="s">
+        <v>387</v>
       </c>
       <c r="P133" s="16"/>
       <c r="Q133" s="16"/>
@@ -14161,7 +14183,7 @@
       </c>
       <c r="AO133" s="8"/>
       <c r="AP133" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AQ133" s="8"/>
     </row>
@@ -14183,10 +14205,10 @@
       </c>
       <c r="F134" s="8"/>
       <c r="G134" s="9" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="I134" s="9" t="s">
         <v>54</v>
@@ -14197,11 +14219,11 @@
       </c>
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
-      <c r="N134" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="O134" s="16" t="n">
-        <v>4607042434891</v>
+      <c r="N134" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="O134" s="38" t="s">
+        <v>392</v>
       </c>
       <c r="P134" s="16"/>
       <c r="Q134" s="16"/>
@@ -14248,7 +14270,7 @@
       </c>
       <c r="AO134" s="8"/>
       <c r="AP134" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AQ134" s="8"/>
     </row>
@@ -14270,10 +14292,10 @@
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="9" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>54</v>
@@ -14335,7 +14357,7 @@
       </c>
       <c r="AO135" s="8"/>
       <c r="AP135" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AQ135" s="8"/>
     </row>
@@ -14357,10 +14379,10 @@
       </c>
       <c r="F136" s="8"/>
       <c r="G136" s="9" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="I136" s="9" t="s">
         <v>54</v>
@@ -14422,7 +14444,7 @@
       </c>
       <c r="AO136" s="8"/>
       <c r="AP136" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AQ136" s="8"/>
     </row>
@@ -14444,10 +14466,10 @@
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>327</v>
@@ -14471,7 +14493,7 @@
       <c r="V137" s="9"/>
       <c r="W137" s="8"/>
       <c r="X137" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
@@ -14500,7 +14522,7 @@
         <v>136</v>
       </c>
       <c r="AO137" s="11" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AP137" s="8"/>
       <c r="AQ137" s="8"/>
@@ -14523,10 +14545,10 @@
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="9" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="I138" s="9" t="s">
         <v>54</v>
@@ -14558,7 +14580,7 @@
       <c r="V138" s="9"/>
       <c r="W138" s="8"/>
       <c r="X138" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Y138" s="8"/>
       <c r="Z138" s="8"/>
@@ -14588,7 +14610,7 @@
       </c>
       <c r="AO138" s="8"/>
       <c r="AP138" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AQ138" s="8"/>
     </row>
@@ -14610,10 +14632,10 @@
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="I139" s="9" t="s">
         <v>334</v>
@@ -14637,11 +14659,11 @@
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
       <c r="V139" s="9" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="W139" s="8"/>
       <c r="X139" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
@@ -14671,7 +14693,7 @@
       </c>
       <c r="AO139" s="8"/>
       <c r="AP139" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AQ139" s="8"/>
     </row>
@@ -14693,10 +14715,10 @@
       </c>
       <c r="F140" s="8"/>
       <c r="G140" s="9" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I140" s="9" t="s">
         <v>382</v>
@@ -14720,7 +14742,7 @@
       <c r="V140" s="9"/>
       <c r="W140" s="8"/>
       <c r="X140" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
@@ -14749,10 +14771,10 @@
         <v>139</v>
       </c>
       <c r="AO140" s="11" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AP140" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AQ140" s="8"/>
     </row>
@@ -14774,10 +14796,10 @@
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="9" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="I141" s="9" t="s">
         <v>339</v>
@@ -14805,7 +14827,7 @@
       <c r="V141" s="9"/>
       <c r="W141" s="8"/>
       <c r="X141" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Y141" s="8"/>
       <c r="Z141" s="8"/>
@@ -14825,7 +14847,7 @@
       <c r="AH141" s="9"/>
       <c r="AI141" s="9"/>
       <c r="AJ141" s="9" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AK141" s="9"/>
       <c r="AL141" s="9"/>
@@ -14837,7 +14859,7 @@
       </c>
       <c r="AO141" s="8"/>
       <c r="AP141" s="8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AQ141" s="8"/>
     </row>
@@ -14859,10 +14881,10 @@
       </c>
       <c r="F142" s="8"/>
       <c r="G142" s="9" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="I142" s="9" t="s">
         <v>339</v>
@@ -14890,7 +14912,7 @@
       <c r="V142" s="9"/>
       <c r="W142" s="8"/>
       <c r="X142" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Y142" s="8"/>
       <c r="Z142" s="8"/>
@@ -14910,7 +14932,7 @@
       <c r="AH142" s="9"/>
       <c r="AI142" s="9"/>
       <c r="AJ142" s="9" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AK142" s="9"/>
       <c r="AL142" s="9"/>
@@ -14922,7 +14944,7 @@
       </c>
       <c r="AO142" s="8"/>
       <c r="AP142" s="8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AQ142" s="8"/>
     </row>
@@ -14940,17 +14962,17 @@
         <v>45</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="9" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="0"/>
@@ -14961,7 +14983,7 @@
       <c r="P143" s="22"/>
       <c r="Q143" s="22"/>
       <c r="R143" s="8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="S143" s="8"/>
       <c r="T143" s="8"/>
@@ -14987,7 +15009,7 @@
       <c r="AH143" s="9"/>
       <c r="AI143" s="9"/>
       <c r="AJ143" s="9" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AK143" s="9"/>
       <c r="AL143" s="9"/>
@@ -14998,7 +15020,7 @@
         <v>142</v>
       </c>
       <c r="AO143" s="11" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AP143" s="8"/>
       <c r="AQ143" s="8"/>
@@ -15017,44 +15039,44 @@
         <v>45</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="L144" s="9" t="n">
-        <v>28</v>
+      <c r="L144" s="38" t="n">
+        <v>24</v>
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="9" t="s">
         <v>251</v>
       </c>
       <c r="O144" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
       <c r="R144" s="8"/>
       <c r="S144" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="T144" s="8"/>
       <c r="U144" s="8"/>
       <c r="V144" s="8"/>
       <c r="W144" s="8"/>
       <c r="X144" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y144" s="8"/>
       <c r="Z144" s="8"/>
@@ -15084,7 +15106,7 @@
       </c>
       <c r="AO144" s="8"/>
       <c r="AP144" s="8" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AQ144" s="8"/>
     </row>
@@ -15102,17 +15124,17 @@
         <v>45</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="9" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9" t="n">
@@ -15124,20 +15146,20 @@
         <v>251</v>
       </c>
       <c r="O145" s="22" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P145" s="22"/>
       <c r="Q145" s="22"/>
       <c r="R145" s="8"/>
       <c r="S145" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="T145" s="8"/>
       <c r="U145" s="8"/>
       <c r="V145" s="8"/>
       <c r="W145" s="8"/>
       <c r="X145" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y145" s="8"/>
       <c r="Z145" s="8"/>
@@ -15167,7 +15189,7 @@
       </c>
       <c r="AO145" s="8"/>
       <c r="AP145" s="8" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AQ145" s="8"/>
     </row>
@@ -15189,10 +15211,10 @@
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="I146" s="12" t="s">
         <v>334</v>
@@ -15209,16 +15231,16 @@
       <c r="Q146" s="22"/>
       <c r="R146" s="8"/>
       <c r="S146" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="T146" s="8"/>
       <c r="U146" s="8"/>
       <c r="V146" s="9" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="W146" s="8"/>
       <c r="X146" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y146" s="8"/>
       <c r="Z146" s="8"/>
@@ -15237,10 +15259,10 @@
       <c r="AG146" s="9"/>
       <c r="AH146" s="9"/>
       <c r="AI146" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ146" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK146" s="9"/>
       <c r="AL146" s="9"/>
@@ -15251,8 +15273,8 @@
         <v>145</v>
       </c>
       <c r="AO146" s="8"/>
-      <c r="AP146" s="37" t="s">
-        <v>442</v>
+      <c r="AP146" s="39" t="s">
+        <v>446</v>
       </c>
       <c r="AQ146" s="8"/>
     </row>
@@ -15274,13 +15296,13 @@
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="9" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="J147" s="0"/>
       <c r="K147" s="2"/>
@@ -15303,7 +15325,7 @@
       <c r="V147" s="8"/>
       <c r="W147" s="8"/>
       <c r="X147" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
@@ -15322,10 +15344,10 @@
       <c r="AG147" s="9"/>
       <c r="AH147" s="9"/>
       <c r="AI147" s="12" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ147" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK147" s="9"/>
       <c r="AL147" s="9"/>
@@ -15336,8 +15358,8 @@
         <v>146</v>
       </c>
       <c r="AO147" s="8"/>
-      <c r="AP147" s="37" t="s">
-        <v>442</v>
+      <c r="AP147" s="39" t="s">
+        <v>446</v>
       </c>
       <c r="AQ147" s="8"/>
     </row>
@@ -15359,10 +15381,10 @@
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="I148" s="12" t="s">
         <v>260</v>
@@ -15386,7 +15408,7 @@
       <c r="V148" s="8"/>
       <c r="W148" s="8"/>
       <c r="X148" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
@@ -15397,22 +15419,22 @@
         <v>50</v>
       </c>
       <c r="AE148" s="9" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AF148" s="17" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AG148" s="38" t="n">
-        <v>0.6</v>
+      <c r="AG148" s="40" t="n">
+        <v>0.5</v>
       </c>
       <c r="AH148" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AI148" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ148" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK148" s="9"/>
       <c r="AL148" s="9"/>
@@ -15423,10 +15445,10 @@
         <v>147</v>
       </c>
       <c r="AO148" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="AP148" s="37" t="s">
-        <v>442</v>
+        <v>453</v>
+      </c>
+      <c r="AP148" s="39" t="s">
+        <v>446</v>
       </c>
       <c r="AQ148" s="8"/>
     </row>
@@ -15448,10 +15470,10 @@
       </c>
       <c r="F149" s="8"/>
       <c r="G149" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="I149" s="9" t="s">
         <v>54</v>
@@ -15481,7 +15503,7 @@
       <c r="V149" s="8"/>
       <c r="W149" s="8"/>
       <c r="X149" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
@@ -15500,10 +15522,10 @@
       <c r="AG149" s="9"/>
       <c r="AH149" s="9"/>
       <c r="AI149" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ149" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK149" s="9"/>
       <c r="AL149" s="9"/>
@@ -15515,7 +15537,7 @@
       </c>
       <c r="AO149" s="8"/>
       <c r="AP149" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ149" s="8"/>
     </row>
@@ -15537,10 +15559,10 @@
       </c>
       <c r="F150" s="8"/>
       <c r="G150" s="9" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="I150" s="9" t="s">
         <v>54</v>
@@ -15570,7 +15592,7 @@
       <c r="V150" s="8"/>
       <c r="W150" s="8"/>
       <c r="X150" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
@@ -15589,10 +15611,10 @@
       <c r="AG150" s="9"/>
       <c r="AH150" s="9"/>
       <c r="AI150" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ150" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK150" s="9"/>
       <c r="AL150" s="9"/>
@@ -15604,7 +15626,7 @@
       </c>
       <c r="AO150" s="8"/>
       <c r="AP150" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ150" s="8"/>
     </row>
@@ -15626,10 +15648,10 @@
       </c>
       <c r="F151" s="8"/>
       <c r="G151" s="9" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>54</v>
@@ -15659,7 +15681,7 @@
       <c r="V151" s="8"/>
       <c r="W151" s="8"/>
       <c r="X151" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
@@ -15678,10 +15700,10 @@
       <c r="AG151" s="9"/>
       <c r="AH151" s="9"/>
       <c r="AI151" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ151" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK151" s="9"/>
       <c r="AL151" s="9"/>
@@ -15693,7 +15715,7 @@
       </c>
       <c r="AO151" s="8"/>
       <c r="AP151" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ151" s="8"/>
     </row>
@@ -15715,10 +15737,10 @@
       </c>
       <c r="F152" s="8"/>
       <c r="G152" s="9" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I152" s="9" t="s">
         <v>54</v>
@@ -15748,7 +15770,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="8"/>
       <c r="X152" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
@@ -15767,10 +15789,10 @@
       <c r="AG152" s="9"/>
       <c r="AH152" s="9"/>
       <c r="AI152" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ152" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK152" s="9"/>
       <c r="AL152" s="9"/>
@@ -15782,7 +15804,7 @@
       </c>
       <c r="AO152" s="8"/>
       <c r="AP152" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ152" s="8"/>
     </row>
@@ -15804,10 +15826,10 @@
       </c>
       <c r="F153" s="8"/>
       <c r="G153" s="9" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="I153" s="9" t="s">
         <v>54</v>
@@ -15837,7 +15859,7 @@
       <c r="V153" s="8"/>
       <c r="W153" s="8"/>
       <c r="X153" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
@@ -15856,10 +15878,10 @@
       <c r="AG153" s="9"/>
       <c r="AH153" s="9"/>
       <c r="AI153" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ153" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK153" s="9"/>
       <c r="AL153" s="9"/>
@@ -15871,7 +15893,7 @@
       </c>
       <c r="AO153" s="8"/>
       <c r="AP153" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ153" s="8"/>
     </row>
@@ -15893,10 +15915,10 @@
       </c>
       <c r="F154" s="8"/>
       <c r="G154" s="9" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="I154" s="9" t="s">
         <v>54</v>
@@ -15926,7 +15948,7 @@
       <c r="V154" s="8"/>
       <c r="W154" s="8"/>
       <c r="X154" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
@@ -15945,10 +15967,10 @@
       <c r="AG154" s="9"/>
       <c r="AH154" s="9"/>
       <c r="AI154" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ154" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK154" s="9"/>
       <c r="AL154" s="9"/>
@@ -15960,7 +15982,7 @@
       </c>
       <c r="AO154" s="8"/>
       <c r="AP154" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ154" s="8"/>
     </row>
@@ -15982,10 +16004,10 @@
       </c>
       <c r="F155" s="8"/>
       <c r="G155" s="9" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="I155" s="9" t="s">
         <v>54</v>
@@ -16015,7 +16037,7 @@
       <c r="V155" s="8"/>
       <c r="W155" s="8"/>
       <c r="X155" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
@@ -16034,10 +16056,10 @@
       <c r="AG155" s="9"/>
       <c r="AH155" s="9"/>
       <c r="AI155" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ155" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK155" s="9"/>
       <c r="AL155" s="9"/>
@@ -16049,7 +16071,7 @@
       </c>
       <c r="AO155" s="8"/>
       <c r="AP155" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ155" s="8"/>
     </row>
@@ -16071,10 +16093,10 @@
       </c>
       <c r="F156" s="8"/>
       <c r="G156" s="9" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I156" s="9" t="s">
         <v>54</v>
@@ -16104,7 +16126,7 @@
       <c r="V156" s="8"/>
       <c r="W156" s="8"/>
       <c r="X156" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
@@ -16123,10 +16145,10 @@
       <c r="AG156" s="9"/>
       <c r="AH156" s="9"/>
       <c r="AI156" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ156" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK156" s="9"/>
       <c r="AL156" s="9"/>
@@ -16138,7 +16160,7 @@
       </c>
       <c r="AO156" s="8"/>
       <c r="AP156" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ156" s="8"/>
     </row>
@@ -16160,10 +16182,10 @@
       </c>
       <c r="F157" s="8"/>
       <c r="G157" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I157" s="9" t="s">
         <v>54</v>
@@ -16193,7 +16215,7 @@
       <c r="V157" s="8"/>
       <c r="W157" s="8"/>
       <c r="X157" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
@@ -16212,10 +16234,10 @@
       <c r="AG157" s="9"/>
       <c r="AH157" s="9"/>
       <c r="AI157" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ157" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK157" s="9"/>
       <c r="AL157" s="9"/>
@@ -16227,7 +16249,7 @@
       </c>
       <c r="AO157" s="8"/>
       <c r="AP157" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ157" s="8"/>
     </row>
@@ -16249,10 +16271,10 @@
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="9" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="I158" s="9" t="s">
         <v>54</v>
@@ -16282,7 +16304,7 @@
       <c r="V158" s="8"/>
       <c r="W158" s="8"/>
       <c r="X158" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
@@ -16301,10 +16323,10 @@
       <c r="AG158" s="9"/>
       <c r="AH158" s="9"/>
       <c r="AI158" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ158" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK158" s="9"/>
       <c r="AL158" s="9"/>
@@ -16316,7 +16338,7 @@
       </c>
       <c r="AO158" s="8"/>
       <c r="AP158" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ158" s="8"/>
     </row>
@@ -16338,10 +16360,10 @@
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="I159" s="9" t="s">
         <v>54</v>
@@ -16353,10 +16375,10 @@
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
       <c r="N159" s="9" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="P159" s="22"/>
       <c r="Q159" s="22"/>
@@ -16371,7 +16393,7 @@
       <c r="V159" s="8"/>
       <c r="W159" s="8"/>
       <c r="X159" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
@@ -16390,10 +16412,10 @@
       <c r="AG159" s="9"/>
       <c r="AH159" s="9"/>
       <c r="AI159" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ159" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK159" s="9"/>
       <c r="AL159" s="9"/>
@@ -16405,7 +16427,7 @@
       </c>
       <c r="AO159" s="8"/>
       <c r="AP159" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ159" s="8"/>
     </row>
@@ -16427,10 +16449,10 @@
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I160" s="9" t="s">
         <v>54</v>
@@ -16442,10 +16464,10 @@
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
       <c r="N160" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="O160" s="16" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="22"/>
@@ -16460,7 +16482,7 @@
       <c r="V160" s="8"/>
       <c r="W160" s="8"/>
       <c r="X160" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
@@ -16479,10 +16501,10 @@
       <c r="AG160" s="9"/>
       <c r="AH160" s="9"/>
       <c r="AI160" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ160" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK160" s="9"/>
       <c r="AL160" s="9"/>
@@ -16494,7 +16516,7 @@
       </c>
       <c r="AO160" s="8"/>
       <c r="AP160" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ160" s="8"/>
     </row>
@@ -16516,10 +16538,10 @@
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="9" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="I161" s="9" t="s">
         <v>54</v>
@@ -16549,7 +16571,7 @@
       <c r="V161" s="8"/>
       <c r="W161" s="8"/>
       <c r="X161" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
@@ -16568,10 +16590,10 @@
       <c r="AG161" s="9"/>
       <c r="AH161" s="9"/>
       <c r="AI161" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ161" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK161" s="9"/>
       <c r="AL161" s="9"/>
@@ -16583,7 +16605,7 @@
       </c>
       <c r="AO161" s="8"/>
       <c r="AP161" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ161" s="8"/>
     </row>
@@ -16605,10 +16627,10 @@
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="I162" s="9" t="s">
         <v>54</v>
@@ -16638,7 +16660,7 @@
       <c r="V162" s="8"/>
       <c r="W162" s="8"/>
       <c r="X162" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
@@ -16657,10 +16679,10 @@
       <c r="AG162" s="9"/>
       <c r="AH162" s="9"/>
       <c r="AI162" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ162" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK162" s="9"/>
       <c r="AL162" s="9"/>
@@ -16672,7 +16694,7 @@
       </c>
       <c r="AO162" s="8"/>
       <c r="AP162" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ162" s="8"/>
     </row>
@@ -16694,10 +16716,10 @@
       </c>
       <c r="F163" s="8"/>
       <c r="G163" s="9" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I163" s="9" t="s">
         <v>54</v>
@@ -16727,7 +16749,7 @@
       <c r="V163" s="8"/>
       <c r="W163" s="8"/>
       <c r="X163" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y163" s="8"/>
       <c r="Z163" s="8"/>
@@ -16746,10 +16768,10 @@
       <c r="AG163" s="9"/>
       <c r="AH163" s="9"/>
       <c r="AI163" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ163" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK163" s="9"/>
       <c r="AL163" s="9"/>
@@ -16761,7 +16783,7 @@
       </c>
       <c r="AO163" s="8"/>
       <c r="AP163" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ163" s="8"/>
     </row>
@@ -16783,10 +16805,10 @@
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="I164" s="9" t="s">
         <v>54</v>
@@ -16816,7 +16838,7 @@
       <c r="V164" s="8"/>
       <c r="W164" s="8"/>
       <c r="X164" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y164" s="8"/>
       <c r="Z164" s="8"/>
@@ -16835,10 +16857,10 @@
       <c r="AG164" s="9"/>
       <c r="AH164" s="9"/>
       <c r="AI164" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ164" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK164" s="9"/>
       <c r="AL164" s="9"/>
@@ -16850,7 +16872,7 @@
       </c>
       <c r="AO164" s="8"/>
       <c r="AP164" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ164" s="8"/>
     </row>
@@ -16872,13 +16894,13 @@
       </c>
       <c r="F165" s="8"/>
       <c r="G165" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="J165" s="12"/>
       <c r="K165" s="9"/>
@@ -16888,20 +16910,20 @@
         <v>251</v>
       </c>
       <c r="O165" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
       <c r="R165" s="8"/>
       <c r="S165" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="T165" s="9"/>
       <c r="U165" s="9"/>
       <c r="V165" s="8"/>
       <c r="W165" s="8"/>
       <c r="X165" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y165" s="9"/>
       <c r="Z165" s="8"/>
@@ -16920,10 +16942,10 @@
       <c r="AG165" s="9"/>
       <c r="AH165" s="9"/>
       <c r="AI165" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ165" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK165" s="9"/>
       <c r="AL165" s="9"/>
@@ -16934,8 +16956,8 @@
         <v>164</v>
       </c>
       <c r="AO165" s="8"/>
-      <c r="AP165" s="37" t="s">
-        <v>442</v>
+      <c r="AP165" s="39" t="s">
+        <v>446</v>
       </c>
       <c r="AQ165" s="8"/>
     </row>
@@ -16952,18 +16974,18 @@
       <c r="D166" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E166" s="39" t="s">
+      <c r="E166" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F166" s="39"/>
+      <c r="F166" s="41"/>
       <c r="G166" s="9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="J166" s="9"/>
       <c r="K166" s="9" t="n">
@@ -16984,7 +17006,7 @@
       <c r="V166" s="9"/>
       <c r="W166" s="9"/>
       <c r="X166" s="9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
@@ -17013,10 +17035,10 @@
         <v>165</v>
       </c>
       <c r="AO166" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="AP166" s="37" t="s">
-        <v>492</v>
+        <v>495</v>
+      </c>
+      <c r="AP166" s="39" t="s">
+        <v>496</v>
       </c>
       <c r="AQ166" s="8"/>
     </row>
@@ -17033,18 +17055,18 @@
       <c r="D167" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E167" s="39" t="s">
+      <c r="E167" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F167" s="39"/>
+      <c r="F167" s="41"/>
       <c r="G167" s="9" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="J167" s="0"/>
       <c r="K167" s="1" t="n">
@@ -17058,7 +17080,7 @@
         <v>251</v>
       </c>
       <c r="O167" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P167" s="10"/>
       <c r="Q167" s="10"/>
@@ -17066,14 +17088,14 @@
         <v>55</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
       <c r="V167" s="9"/>
       <c r="W167" s="9"/>
       <c r="X167" s="9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
@@ -17084,7 +17106,7 @@
         <v>50</v>
       </c>
       <c r="AE167" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AF167" s="17" t="n">
         <v>1</v>
@@ -17093,7 +17115,7 @@
       <c r="AH167" s="9"/>
       <c r="AI167" s="9"/>
       <c r="AJ167" s="9" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AK167" s="9"/>
       <c r="AL167" s="9"/>
@@ -17105,7 +17127,7 @@
       </c>
       <c r="AO167" s="8"/>
       <c r="AP167" s="12" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AQ167" s="8"/>
     </row>
@@ -17127,10 +17149,10 @@
       </c>
       <c r="F168" s="8"/>
       <c r="G168" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I168" s="9" t="s">
         <v>260</v>
@@ -17181,10 +17203,10 @@
         <v>167</v>
       </c>
       <c r="AO168" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="AP168" s="40" t="s">
-        <v>501</v>
+        <v>504</v>
+      </c>
+      <c r="AP168" s="42" t="s">
+        <v>505</v>
       </c>
       <c r="AQ168" s="8"/>
     </row>
@@ -17206,13 +17228,13 @@
       </c>
       <c r="F169" s="8"/>
       <c r="G169" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="9" t="n">
@@ -17235,8 +17257,8 @@
       <c r="V169" s="9"/>
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
-      <c r="Y169" s="41" t="s">
-        <v>504</v>
+      <c r="Y169" s="43" t="s">
+        <v>509</v>
       </c>
       <c r="Z169" s="9"/>
       <c r="AA169" s="8"/>
@@ -17265,7 +17287,7 @@
       </c>
       <c r="AO169" s="9"/>
       <c r="AP169" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AQ169" s="8"/>
     </row>
@@ -17287,13 +17309,13 @@
       </c>
       <c r="F170" s="8"/>
       <c r="G170" s="9" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="J170" s="8"/>
       <c r="K170" s="9" t="n">
@@ -17316,8 +17338,8 @@
       <c r="V170" s="9"/>
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
-      <c r="Y170" s="9" t="s">
-        <v>507</v>
+      <c r="Y170" s="44" t="s">
+        <v>512</v>
       </c>
       <c r="Z170" s="9"/>
       <c r="AA170" s="8"/>
@@ -17346,7 +17368,7 @@
       </c>
       <c r="AO170" s="9"/>
       <c r="AP170" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AQ170" s="8"/>
     </row>
@@ -17368,13 +17390,13 @@
       </c>
       <c r="F171" s="8"/>
       <c r="G171" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="H171" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="I171" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="H171" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="I171" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="9" t="n">
@@ -17397,8 +17419,8 @@
       <c r="V171" s="9"/>
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
-      <c r="Y171" s="9" t="s">
-        <v>510</v>
+      <c r="Y171" s="44" t="s">
+        <v>515</v>
       </c>
       <c r="Z171" s="9"/>
       <c r="AA171" s="8"/>
@@ -17427,7 +17449,7 @@
       </c>
       <c r="AO171" s="9"/>
       <c r="AP171" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AQ171" s="8"/>
     </row>
@@ -17448,14 +17470,14 @@
         <v>257</v>
       </c>
       <c r="F172" s="8"/>
-      <c r="G172" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="H172" s="8" t="s">
-        <v>512</v>
+      <c r="G172" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="H172" s="44" t="s">
+        <v>517</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="9" t="n">
@@ -17478,8 +17500,8 @@
       <c r="V172" s="9"/>
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
-      <c r="Y172" s="9" t="s">
-        <v>513</v>
+      <c r="Y172" s="44" t="s">
+        <v>518</v>
       </c>
       <c r="Z172" s="9"/>
       <c r="AA172" s="8"/>
@@ -17508,7 +17530,7 @@
       </c>
       <c r="AO172" s="9"/>
       <c r="AP172" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AQ172" s="8"/>
     </row>
@@ -17522,24 +17544,24 @@
       <c r="C173" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D173" s="42" t="s">
-        <v>514</v>
+      <c r="D173" s="45" t="s">
+        <v>519</v>
       </c>
       <c r="E173" s="32" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G173" s="14" t="s">
         <v>264</v>
       </c>
       <c r="H173" s="14"/>
       <c r="I173" s="8" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -17550,7 +17572,7 @@
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
       <c r="S173" s="8" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
@@ -17564,7 +17586,7 @@
       <c r="AC173" s="8"/>
       <c r="AD173" s="8"/>
       <c r="AE173" s="8"/>
-      <c r="AF173" s="43" t="n">
+      <c r="AF173" s="46" t="n">
         <v>0</v>
       </c>
       <c r="AG173" s="8"/>
@@ -17578,7 +17600,7 @@
         <v>172</v>
       </c>
       <c r="AO173" s="9" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="AP173" s="8"/>
       <c r="AQ173" s="8"/>
@@ -17593,24 +17615,24 @@
       <c r="C174" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D174" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E174" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="F174" s="37" t="s">
-        <v>522</v>
-      </c>
-      <c r="G174" s="40" t="s">
-        <v>501</v>
+      <c r="D174" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E174" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="F174" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="G174" s="42" t="s">
+        <v>505</v>
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="J174" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="J174" s="8" t="s">
-        <v>518</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -17621,7 +17643,7 @@
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
       <c r="S174" s="8" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
@@ -17635,7 +17657,7 @@
       <c r="AC174" s="8"/>
       <c r="AD174" s="8"/>
       <c r="AE174" s="8"/>
-      <c r="AF174" s="44" t="n">
+      <c r="AF174" s="47" t="n">
         <v>0</v>
       </c>
       <c r="AG174" s="8"/>
@@ -17664,24 +17686,24 @@
       <c r="C175" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D175" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E175" s="37" t="s">
-        <v>524</v>
-      </c>
-      <c r="F175" s="37" t="s">
-        <v>525</v>
-      </c>
-      <c r="G175" s="37" t="s">
-        <v>442</v>
+      <c r="D175" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E175" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="F175" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="G175" s="39" t="s">
+        <v>446</v>
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
@@ -17692,7 +17714,7 @@
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
       <c r="S175" s="8" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="T175" s="8"/>
       <c r="U175" s="8"/>
@@ -17706,7 +17728,7 @@
       <c r="AC175" s="8"/>
       <c r="AD175" s="8"/>
       <c r="AE175" s="8"/>
-      <c r="AF175" s="43" t="n">
+      <c r="AF175" s="46" t="n">
         <v>0</v>
       </c>
       <c r="AG175" s="8"/>
@@ -17720,7 +17742,7 @@
         <v>174</v>
       </c>
       <c r="AO175" s="9" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="AP175" s="8"/>
       <c r="AQ175" s="8"/>
@@ -17735,24 +17757,24 @@
       <c r="C176" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D176" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E176" s="37" t="s">
-        <v>529</v>
-      </c>
-      <c r="F176" s="37" t="s">
-        <v>530</v>
-      </c>
-      <c r="G176" s="37" t="s">
-        <v>492</v>
+      <c r="D176" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E176" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="F176" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="G176" s="39" t="s">
+        <v>496</v>
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -17763,7 +17785,7 @@
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
       <c r="S176" s="8" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="T176" s="8"/>
       <c r="U176" s="8"/>
@@ -17777,7 +17799,7 @@
       <c r="AC176" s="8"/>
       <c r="AD176" s="8"/>
       <c r="AE176" s="8"/>
-      <c r="AF176" s="43" t="n">
+      <c r="AF176" s="46" t="n">
         <v>0</v>
       </c>
       <c r="AG176" s="8"/>
@@ -17806,24 +17828,24 @@
       <c r="C177" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D177" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E177" s="37" t="s">
-        <v>531</v>
-      </c>
-      <c r="F177" s="37" t="s">
-        <v>532</v>
-      </c>
-      <c r="G177" s="37" t="s">
-        <v>533</v>
+      <c r="D177" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E177" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="F177" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="G177" s="39" t="s">
+        <v>538</v>
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="9" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -17834,7 +17856,7 @@
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
       <c r="S177" s="8" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
@@ -17848,7 +17870,7 @@
       <c r="AC177" s="8"/>
       <c r="AD177" s="8"/>
       <c r="AE177" s="8"/>
-      <c r="AF177" s="43" t="n">
+      <c r="AF177" s="46" t="n">
         <v>0</v>
       </c>
       <c r="AG177" s="8"/>
@@ -17862,7 +17884,7 @@
         <v>176</v>
       </c>
       <c r="AO177" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AP177" s="8"/>
       <c r="AQ177" s="8"/>
@@ -17877,37 +17899,37 @@
       <c r="C178" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D178" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E178" s="37" t="s">
-        <v>535</v>
-      </c>
-      <c r="F178" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="G178" s="37" t="s">
-        <v>537</v>
+      <c r="D178" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E178" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="F178" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="G178" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="9" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
       <c r="O178" s="8" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
       <c r="S178" s="8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
@@ -17915,7 +17937,7 @@
       <c r="W178" s="8"/>
       <c r="X178" s="8"/>
       <c r="Y178" s="9" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="Z178" s="8"/>
       <c r="AA178" s="8"/>
@@ -17950,24 +17972,24 @@
       <c r="C179" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D179" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E179" s="37" t="s">
-        <v>542</v>
-      </c>
-      <c r="F179" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="G179" s="37" t="s">
-        <v>544</v>
+      <c r="D179" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E179" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="F179" s="39" t="s">
+        <v>548</v>
+      </c>
+      <c r="G179" s="39" t="s">
+        <v>549</v>
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="9" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -17980,7 +18002,7 @@
       <c r="Q179" s="8"/>
       <c r="R179" s="8"/>
       <c r="S179" s="8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="T179" s="8"/>
       <c r="U179" s="8"/>
@@ -17988,7 +18010,7 @@
       <c r="W179" s="8"/>
       <c r="X179" s="8"/>
       <c r="Y179" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Z179" s="8"/>
       <c r="AA179" s="8"/>
@@ -18023,37 +18045,37 @@
       <c r="C180" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D180" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E180" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="F180" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="G180" s="37" t="s">
-        <v>550</v>
+      <c r="D180" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E180" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="F180" s="39" t="s">
+        <v>554</v>
+      </c>
+      <c r="G180" s="39" t="s">
+        <v>555</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="9" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
       <c r="M180" s="9"/>
       <c r="N180" s="9"/>
       <c r="O180" s="8" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
       <c r="R180" s="8"/>
       <c r="S180" s="8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="T180" s="8"/>
       <c r="U180" s="8"/>
@@ -18061,7 +18083,7 @@
       <c r="W180" s="8"/>
       <c r="X180" s="8"/>
       <c r="Y180" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Z180" s="8"/>
       <c r="AA180" s="8"/>
@@ -18096,39 +18118,39 @@
       <c r="C181" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D181" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E181" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="F181" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="G181" s="37" t="s">
-        <v>554</v>
+      <c r="D181" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E181" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="F181" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="G181" s="39" t="s">
+        <v>559</v>
       </c>
       <c r="H181" s="8" t="s">
         <v>325</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
       <c r="M181" s="9"/>
       <c r="N181" s="9"/>
       <c r="O181" s="9" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
       <c r="R181" s="8"/>
       <c r="S181" s="8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="T181" s="8"/>
       <c r="U181" s="8"/>
@@ -18136,7 +18158,7 @@
       <c r="W181" s="8"/>
       <c r="X181" s="8"/>
       <c r="Y181" s="9" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="Z181" s="8"/>
       <c r="AA181" s="8"/>
@@ -18173,39 +18195,39 @@
       <c r="C182" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D182" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E182" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="F182" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="G182" s="37" t="s">
-        <v>554</v>
+      <c r="D182" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E182" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="F182" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="G182" s="39" t="s">
+        <v>559</v>
       </c>
       <c r="H182" s="8" t="s">
         <v>351</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
       <c r="M182" s="9"/>
       <c r="N182" s="9"/>
       <c r="O182" s="9" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="8"/>
       <c r="S182" s="8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="T182" s="8"/>
       <c r="U182" s="8"/>
@@ -18213,7 +18235,7 @@
       <c r="W182" s="8"/>
       <c r="X182" s="8"/>
       <c r="Y182" s="9" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="Z182" s="8"/>
       <c r="AA182" s="8"/>
@@ -18250,39 +18272,39 @@
       <c r="C183" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D183" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E183" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="F183" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="G183" s="37" t="s">
-        <v>554</v>
+      <c r="D183" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E183" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="F183" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="G183" s="39" t="s">
+        <v>559</v>
       </c>
       <c r="H183" s="8" t="s">
         <v>371</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
       <c r="M183" s="9"/>
       <c r="N183" s="9"/>
       <c r="O183" s="9" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="P183" s="8"/>
       <c r="Q183" s="8"/>
       <c r="R183" s="8"/>
       <c r="S183" s="8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="T183" s="8"/>
       <c r="U183" s="8"/>
@@ -18290,7 +18312,7 @@
       <c r="W183" s="8"/>
       <c r="X183" s="8"/>
       <c r="Y183" s="9" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="Z183" s="8"/>
       <c r="AA183" s="8"/>
@@ -18327,39 +18349,39 @@
       <c r="C184" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D184" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E184" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="F184" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="G184" s="37" t="s">
-        <v>554</v>
+      <c r="D184" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E184" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="F184" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="G184" s="39" t="s">
+        <v>559</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
       <c r="M184" s="9"/>
       <c r="N184" s="9"/>
       <c r="O184" s="9" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
       <c r="R184" s="8"/>
       <c r="S184" s="8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="T184" s="8"/>
       <c r="U184" s="8"/>
@@ -18367,7 +18389,7 @@
       <c r="W184" s="8"/>
       <c r="X184" s="8"/>
       <c r="Y184" s="9" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="Z184" s="8"/>
       <c r="AA184" s="8"/>
@@ -18430,17 +18452,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
-        <v>504</v>
+      <c r="A1" s="48" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>441</v>
+      <c r="A2" s="49" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -18467,40 +18489,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="47" t="s">
-        <v>427</v>
+      <c r="B1" s="50" t="s">
+        <v>431</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>486</v>
+        <v>571</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>490</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="47"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -18508,19 +18530,19 @@
         <f aca="false">C2*$C$6</f>
         <v>19.6</v>
       </c>
-      <c r="E2" s="48" t="n">
+      <c r="E2" s="51" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="49" t="n">
+      <c r="J2" s="52" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="47"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -18528,19 +18550,19 @@
         <f aca="false">C3*$C$6</f>
         <v>28</v>
       </c>
-      <c r="E3" s="50" t="n">
+      <c r="E3" s="53" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="51" t="n">
+      <c r="J3" s="54" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="47"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -18548,28 +18570,28 @@
         <f aca="false">C4*$C$6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="50" t="n">
+      <c r="E4" s="53" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="52" t="n">
+      <c r="F4" s="55" t="n">
         <f aca="false">C2/SUM(C2:C4)</f>
         <v>0.189189189189189</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="49" t="n">
+      <c r="J4" s="52" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="53" t="n">
+      <c r="K4" s="56" t="n">
         <f aca="false">SUM(I2,I4)/SUM(I2:I4)</f>
         <v>0.72972972972973</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>28</v>
@@ -18599,53 +18621,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>569</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>570</v>
-      </c>
-      <c r="I1" s="55" t="s">
+      <c r="G1" s="58" t="s">
+        <v>574</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>575</v>
+      </c>
+      <c r="I1" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="L1" s="55" t="s">
+      <c r="K1" s="58" t="s">
+        <v>576</v>
+      </c>
+      <c r="L1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="58" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="56" t="s">
-        <v>572</v>
+      <c r="B4" s="59" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>
